--- a/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9376358926529326</v>
+        <v>0.937635892652933</v>
       </c>
       <c r="D2">
-        <v>1.017875129802975</v>
+        <v>1.017875129802976</v>
       </c>
       <c r="E2">
-        <v>0.9526018431224368</v>
+        <v>0.9526018431224371</v>
       </c>
       <c r="F2">
-        <v>0.9645886649719471</v>
+        <v>0.9645886649719475</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.039778530291664</v>
       </c>
       <c r="J2">
-        <v>0.9618565438153162</v>
+        <v>0.9618565438153167</v>
       </c>
       <c r="K2">
         <v>1.029090928337774</v>
       </c>
       <c r="L2">
-        <v>0.9647635366947059</v>
+        <v>0.9647635366947064</v>
       </c>
       <c r="M2">
-        <v>0.9765644201843472</v>
+        <v>0.9765644201843477</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9532113229472616</v>
+        <v>0.9532113229472601</v>
       </c>
       <c r="D3">
-        <v>1.024526571693161</v>
+        <v>1.02452657169316</v>
       </c>
       <c r="E3">
-        <v>0.966052610316916</v>
+        <v>0.9660526103169145</v>
       </c>
       <c r="F3">
-        <v>0.9780364258669789</v>
+        <v>0.9780364258669768</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043509147892013</v>
+        <v>1.043509147892012</v>
       </c>
       <c r="J3">
-        <v>0.9750641867575961</v>
+        <v>0.9750641867575947</v>
       </c>
       <c r="K3">
-        <v>1.034854961092192</v>
+        <v>1.03485496109219</v>
       </c>
       <c r="L3">
-        <v>0.9771391066097467</v>
+        <v>0.9771391066097451</v>
       </c>
       <c r="M3">
-        <v>0.9889582684086953</v>
+        <v>0.9889582684086934</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9626823660145736</v>
+        <v>0.962682366014574</v>
       </c>
       <c r="D4">
         <v>1.028599148107099</v>
       </c>
       <c r="E4">
-        <v>0.974240114354833</v>
+        <v>0.9742401143548335</v>
       </c>
       <c r="F4">
-        <v>0.9862372646254899</v>
+        <v>0.9862372646254906</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.045765795517039</v>
       </c>
       <c r="J4">
-        <v>0.9830913526420644</v>
+        <v>0.9830913526420649</v>
       </c>
       <c r="K4">
         <v>1.038364237494212</v>
       </c>
       <c r="L4">
-        <v>0.9846597133381791</v>
+        <v>0.9846597133381795</v>
       </c>
       <c r="M4">
-        <v>0.9965046817260905</v>
+        <v>0.9965046817260913</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9665354035714049</v>
+        <v>0.966535403571407</v>
       </c>
       <c r="D5">
-        <v>1.030261441549653</v>
+        <v>1.030261441549654</v>
       </c>
       <c r="E5">
-        <v>0.9775725896920526</v>
+        <v>0.9775725896920548</v>
       </c>
       <c r="F5">
-        <v>0.9895783979675903</v>
+        <v>0.9895783979675924</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046680508640081</v>
+        <v>1.046680508640082</v>
       </c>
       <c r="J5">
-        <v>0.9863557306311089</v>
+        <v>0.9863557306311114</v>
       </c>
       <c r="K5">
-        <v>1.039792058318424</v>
+        <v>1.039792058318425</v>
       </c>
       <c r="L5">
-        <v>0.9877178362139948</v>
+        <v>0.987717836213997</v>
       </c>
       <c r="M5">
-        <v>0.9995764475493176</v>
+        <v>0.9995764475493196</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9671752333344478</v>
+        <v>0.9671752333344481</v>
       </c>
       <c r="D6">
-        <v>1.030537769411055</v>
+        <v>1.030537769411056</v>
       </c>
       <c r="E6">
-        <v>0.9781260600327936</v>
+        <v>0.9781260600327937</v>
       </c>
       <c r="F6">
-        <v>0.9901334858790929</v>
+        <v>0.9901334858790932</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046832194506436</v>
+        <v>1.046832194506437</v>
       </c>
       <c r="J6">
-        <v>0.98689772726651</v>
+        <v>0.9868977272665104</v>
       </c>
       <c r="K6">
         <v>1.040029147159767</v>
       </c>
       <c r="L6">
-        <v>0.9882255713178546</v>
+        <v>0.9882255713178547</v>
       </c>
       <c r="M6">
-        <v>1.000086623379004</v>
+        <v>1.000086623379005</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9627343359753597</v>
+        <v>0.9627343359753602</v>
       </c>
       <c r="D7">
-        <v>1.028621548910788</v>
+        <v>1.028621548910789</v>
       </c>
       <c r="E7">
-        <v>0.9742850570201894</v>
+        <v>0.9742850570201895</v>
       </c>
       <c r="F7">
-        <v>0.9862823116870029</v>
+        <v>0.9862823116870035</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045778147133418</v>
+        <v>1.045778147133419</v>
       </c>
       <c r="J7">
-        <v>0.9831353880712838</v>
+        <v>0.9831353880712843</v>
       </c>
       <c r="K7">
-        <v>1.038383496404277</v>
+        <v>1.038383496404278</v>
       </c>
       <c r="L7">
         <v>0.9847009675229821</v>
       </c>
       <c r="M7">
-        <v>0.9965461078702342</v>
+        <v>0.996546107870235</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9430366798782052</v>
+        <v>0.9430366798782049</v>
       </c>
       <c r="D8">
         <v>1.020174630682771</v>
       </c>
       <c r="E8">
-        <v>0.9572638014149549</v>
+        <v>0.9572638014149544</v>
       </c>
       <c r="F8">
-        <v>0.9692460309520285</v>
+        <v>0.9692460309520281</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.041074338167119</v>
       </c>
       <c r="J8">
-        <v>0.9664369868024683</v>
+        <v>0.966436986802468</v>
       </c>
       <c r="K8">
-        <v>1.031088085959701</v>
+        <v>1.031088085959702</v>
       </c>
       <c r="L8">
-        <v>0.9690555631151069</v>
+        <v>0.9690555631151064</v>
       </c>
       <c r="M8">
-        <v>0.9808593534906698</v>
+        <v>0.9808593534906693</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9026753274874483</v>
+        <v>0.9026753274874498</v>
       </c>
       <c r="D9">
         <v>1.003190893233191</v>
       </c>
       <c r="E9">
-        <v>0.9224876517316803</v>
+        <v>0.9224876517316817</v>
       </c>
       <c r="F9">
-        <v>0.9345981874249023</v>
+        <v>0.9345981874249037</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031363806823333</v>
       </c>
       <c r="J9">
-        <v>0.9322039991695709</v>
+        <v>0.9322039991695725</v>
       </c>
       <c r="K9">
         <v>1.01623241169397</v>
       </c>
       <c r="L9">
-        <v>0.9369773533281771</v>
+        <v>0.9369773533281786</v>
       </c>
       <c r="M9">
-        <v>0.9488496701222665</v>
+        <v>0.9488496701222681</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8699266487740174</v>
+        <v>0.8699266487740197</v>
       </c>
       <c r="D10">
-        <v>0.9898000281879238</v>
+        <v>0.9898000281879242</v>
       </c>
       <c r="E10">
-        <v>0.8944013178583436</v>
+        <v>0.8944013178583456</v>
       </c>
       <c r="F10">
-        <v>0.906782970274033</v>
+        <v>0.9067829702740346</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023496828852438</v>
+        <v>1.023496828852439</v>
       </c>
       <c r="J10">
-        <v>0.9044552308054121</v>
+        <v>0.9044552308054141</v>
       </c>
       <c r="K10">
-        <v>1.004355921216523</v>
+        <v>1.004355921216524</v>
       </c>
       <c r="L10">
-        <v>0.9109804394256138</v>
+        <v>0.9109804394256157</v>
       </c>
       <c r="M10">
-        <v>0.9230672924193045</v>
+        <v>0.923067292419306</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8535663688274771</v>
+        <v>0.8535663688274741</v>
       </c>
       <c r="D11">
-        <v>0.983260522167779</v>
+        <v>0.9832605221677779</v>
       </c>
       <c r="E11">
-        <v>0.8804242669644194</v>
+        <v>0.8804242669644169</v>
       </c>
       <c r="F11">
-        <v>0.8930012322590193</v>
+        <v>0.8930012322590172</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019592313051761</v>
+        <v>1.01959231305176</v>
       </c>
       <c r="J11">
-        <v>0.8906147696381476</v>
+        <v>0.8906147696381449</v>
       </c>
       <c r="K11">
-        <v>0.9985051789337996</v>
+        <v>0.9985051789337986</v>
       </c>
       <c r="L11">
-        <v>0.8980183419055844</v>
+        <v>0.8980183419055818</v>
       </c>
       <c r="M11">
-        <v>0.9102686719154759</v>
+        <v>0.9102686719154737</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8470457116789812</v>
+        <v>0.8470457116789822</v>
       </c>
       <c r="D12">
-        <v>0.9806840234999123</v>
+        <v>0.9806840234999131</v>
       </c>
       <c r="E12">
-        <v>0.8748647737839168</v>
+        <v>0.8748647737839178</v>
       </c>
       <c r="F12">
-        <v>0.8875312086795633</v>
+        <v>0.8875312086795644</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.018042955126546</v>
       </c>
       <c r="J12">
-        <v>0.8851039071672876</v>
+        <v>0.8851039071672884</v>
       </c>
       <c r="K12">
-        <v>0.9961908855373637</v>
+        <v>0.9961908855373642</v>
       </c>
       <c r="L12">
-        <v>0.8928583959311918</v>
+        <v>0.8928583959311926</v>
       </c>
       <c r="M12">
-        <v>0.905184731311987</v>
+        <v>0.9051847313119877</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8484671113628657</v>
+        <v>0.848467111362865</v>
       </c>
       <c r="D13">
-        <v>0.9812441688023866</v>
+        <v>0.9812441688023859</v>
       </c>
       <c r="E13">
-        <v>0.8760760821275827</v>
+        <v>0.8760760821275818</v>
       </c>
       <c r="F13">
-        <v>0.8887224391707587</v>
+        <v>0.8887224391707581</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018380321626954</v>
+        <v>1.018380321626953</v>
       </c>
       <c r="J13">
-        <v>0.8863048957779488</v>
+        <v>0.8863048957779484</v>
       </c>
       <c r="K13">
-        <v>0.996694468315302</v>
+        <v>0.9966944683153014</v>
       </c>
       <c r="L13">
-        <v>0.8939828453988043</v>
+        <v>0.8939828453988036</v>
       </c>
       <c r="M13">
-        <v>0.9062920778573386</v>
+        <v>0.9062920778573379</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8530373345381081</v>
+        <v>0.8530373345381096</v>
       </c>
       <c r="D14">
-        <v>0.9830508370819551</v>
+        <v>0.9830508370819558</v>
       </c>
       <c r="E14">
-        <v>0.8799729656613998</v>
+        <v>0.8799729656614015</v>
       </c>
       <c r="F14">
-        <v>0.8925569393582725</v>
+        <v>0.8925569393582738</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019466452409676</v>
+        <v>1.019466452409677</v>
       </c>
       <c r="J14">
-        <v>0.8901675368031662</v>
+        <v>0.8901675368031675</v>
       </c>
       <c r="K14">
-        <v>0.9983170272531725</v>
+        <v>0.9983170272531734</v>
       </c>
       <c r="L14">
-        <v>0.8975995604321512</v>
+        <v>0.8975995604321525</v>
       </c>
       <c r="M14">
-        <v>0.9098558237154242</v>
+        <v>0.9098558237154253</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8557898091483468</v>
+        <v>0.8557898091483495</v>
       </c>
       <c r="D15">
-        <v>0.9841430321157085</v>
+        <v>0.9841430321157091</v>
       </c>
       <c r="E15">
-        <v>0.8823214796489599</v>
+        <v>0.8823214796489622</v>
       </c>
       <c r="F15">
-        <v>0.8948694698354902</v>
+        <v>0.8948694698354922</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.020121576643224</v>
       </c>
       <c r="J15">
-        <v>0.8924946455104766</v>
+        <v>0.8924946455104789</v>
       </c>
       <c r="K15">
-        <v>0.9992966840358175</v>
+        <v>0.999296684035818</v>
       </c>
       <c r="L15">
-        <v>0.8997786770983325</v>
+        <v>0.8997786770983347</v>
       </c>
       <c r="M15">
-        <v>0.9120045180638313</v>
+        <v>0.9120045180638333</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8709579371981505</v>
+        <v>0.8709579371981502</v>
       </c>
       <c r="D16">
-        <v>0.990215748451194</v>
+        <v>0.9902157484511935</v>
       </c>
       <c r="E16">
-        <v>0.8952836677566542</v>
+        <v>0.8952836677566539</v>
       </c>
       <c r="F16">
-        <v>0.907654378546133</v>
+        <v>0.9076543785461326</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.023743674957805</v>
       </c>
       <c r="J16">
-        <v>0.9053282672800689</v>
+        <v>0.9053282672800685</v>
       </c>
       <c r="K16">
-        <v>1.004726731978395</v>
+        <v>1.004726731978394</v>
       </c>
       <c r="L16">
-        <v>0.9117981946042496</v>
+        <v>0.9117981946042493</v>
       </c>
       <c r="M16">
-        <v>0.9238760256169395</v>
+        <v>0.9238760256169389</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.879824243075643</v>
+        <v>0.8798242430756423</v>
       </c>
       <c r="D17">
-        <v>0.9938063596224864</v>
+        <v>0.9938063596224865</v>
       </c>
       <c r="E17">
-        <v>0.9028754731340447</v>
+        <v>0.902875473134044</v>
       </c>
       <c r="F17">
-        <v>0.9151586787794658</v>
+        <v>0.9151586787794654</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.025868831623408</v>
       </c>
       <c r="J17">
-        <v>0.912836521507972</v>
+        <v>0.9128365215079712</v>
       </c>
       <c r="K17">
         <v>1.007923864348939</v>
       </c>
       <c r="L17">
-        <v>0.9188315397469287</v>
+        <v>0.918831539746928</v>
       </c>
       <c r="M17">
-        <v>0.9308379741087937</v>
+        <v>0.9308379741087932</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8847955017634498</v>
+        <v>0.8847955017634507</v>
       </c>
       <c r="D18">
         <v>0.9958322869662154</v>
       </c>
       <c r="E18">
-        <v>0.9071366603454415</v>
+        <v>0.9071366603454423</v>
       </c>
       <c r="F18">
-        <v>0.9193758879048426</v>
+        <v>0.919375887904843</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.027062424634746</v>
       </c>
       <c r="J18">
-        <v>0.9170481106543384</v>
+        <v>0.9170481106543393</v>
       </c>
       <c r="K18">
         <v>1.009723350458133</v>
       </c>
       <c r="L18">
-        <v>0.9227771059332439</v>
+        <v>0.9227771059332448</v>
       </c>
       <c r="M18">
-        <v>0.9347482975048471</v>
+        <v>0.9347482975048473</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.88645921630564</v>
+        <v>0.8864592163056396</v>
       </c>
       <c r="D19">
-        <v>0.9965122919870918</v>
+        <v>0.9965122919870913</v>
       </c>
       <c r="E19">
-        <v>0.9085634396239671</v>
+        <v>0.9085634396239667</v>
       </c>
       <c r="F19">
-        <v>0.9207887554555675</v>
+        <v>0.9207887554555668</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027462160562313</v>
       </c>
       <c r="J19">
-        <v>0.9184578451609876</v>
+        <v>0.9184578451609873</v>
       </c>
       <c r="K19">
-        <v>1.010326632301706</v>
+        <v>1.010326632301705</v>
       </c>
       <c r="L19">
-        <v>0.9240978474257031</v>
+        <v>0.9240978474257028</v>
       </c>
       <c r="M19">
-        <v>0.9360580052591145</v>
+        <v>0.936058005259114</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8788943423433235</v>
+        <v>0.8788943423433236</v>
       </c>
       <c r="D20">
-        <v>0.9934284012995251</v>
+        <v>0.9934284012995249</v>
       </c>
       <c r="E20">
-        <v>0.9020787500700318</v>
+        <v>0.9020787500700317</v>
       </c>
       <c r="F20">
-        <v>0.9143705852029371</v>
+        <v>0.9143705852029377</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,7 +1123,7 @@
         <v>1.025645714353745</v>
       </c>
       <c r="J20">
-        <v>0.9120488554667209</v>
+        <v>0.9120488554667211</v>
       </c>
       <c r="K20">
         <v>1.007587797052868</v>
@@ -1132,7 +1132,7 @@
         <v>0.9180936537953979</v>
       </c>
       <c r="M20">
-        <v>0.930107060559187</v>
+        <v>0.9301070605591876</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8517050369165122</v>
+        <v>0.8517050369165113</v>
       </c>
       <c r="D21">
-        <v>0.9825232796464723</v>
+        <v>0.9825232796464715</v>
       </c>
       <c r="E21">
-        <v>0.8788366198657035</v>
+        <v>0.8788366198657029</v>
       </c>
       <c r="F21">
-        <v>0.8914384383949528</v>
+        <v>0.8914384383949516</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.019149611306172</v>
       </c>
       <c r="J21">
-        <v>0.8890413406039975</v>
+        <v>0.8890413406039966</v>
       </c>
       <c r="K21">
-        <v>0.9978434948194395</v>
+        <v>0.9978434948194383</v>
       </c>
       <c r="L21">
-        <v>0.8965450296290811</v>
+        <v>0.8965450296290802</v>
       </c>
       <c r="M21">
-        <v>0.9088164168602315</v>
+        <v>0.9088164168602305</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,13 +1181,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8319234625535884</v>
+        <v>0.8319234625535887</v>
       </c>
       <c r="D22">
         <v>0.9747773306813398</v>
       </c>
       <c r="E22">
-        <v>0.8619983366271181</v>
+        <v>0.8619983366271183</v>
       </c>
       <c r="F22">
         <v>0.8748985947366549</v>
@@ -1202,13 +1202,13 @@
         <v>0.8723375727615148</v>
       </c>
       <c r="K22">
-        <v>0.9908655781851166</v>
+        <v>0.9908655781851164</v>
       </c>
       <c r="L22">
-        <v>0.8809080744056353</v>
+        <v>0.8809080744056357</v>
       </c>
       <c r="M22">
-        <v>0.8934351210960111</v>
+        <v>0.8934351210960112</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8427244441673498</v>
+        <v>0.8427244441673523</v>
       </c>
       <c r="D23">
-        <v>0.9789862630701178</v>
+        <v>0.978986263070118</v>
       </c>
       <c r="E23">
-        <v>0.8711842199870873</v>
+        <v>0.8711842199870896</v>
       </c>
       <c r="F23">
-        <v>0.8839136810977942</v>
+        <v>0.8839136810977963</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.01701863368895</v>
       </c>
       <c r="J23">
-        <v>0.8814537658173228</v>
+        <v>0.8814537658173249</v>
       </c>
       <c r="K23">
-        <v>0.9946630560724126</v>
+        <v>0.9946630560724127</v>
       </c>
       <c r="L23">
-        <v>0.8894411068827914</v>
+        <v>0.8894411068827937</v>
       </c>
       <c r="M23">
-        <v>0.9018212834294493</v>
+        <v>0.9018212834294511</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8793151356350496</v>
+        <v>0.8793151356350538</v>
       </c>
       <c r="D24">
-        <v>0.9935993933793343</v>
+        <v>0.9935993933793356</v>
       </c>
       <c r="E24">
-        <v>0.9024392645464331</v>
+        <v>0.9024392645464369</v>
       </c>
       <c r="F24">
-        <v>0.9147271789080307</v>
+        <v>0.9147271789080339</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025746671882665</v>
+        <v>1.025746671882666</v>
       </c>
       <c r="J24">
-        <v>0.9124052800920158</v>
+        <v>0.9124052800920195</v>
       </c>
       <c r="K24">
-        <v>1.007739850995087</v>
+        <v>1.007739850995089</v>
       </c>
       <c r="L24">
-        <v>0.9184275514457735</v>
+        <v>0.9184275514457771</v>
       </c>
       <c r="M24">
-        <v>0.9304377882097601</v>
+        <v>0.9304377882097633</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9139474884421693</v>
+        <v>0.9139474884421703</v>
       </c>
       <c r="D25">
         <v>1.007884965944296</v>
       </c>
       <c r="E25">
-        <v>0.9321840907532162</v>
+        <v>0.932184090753217</v>
       </c>
       <c r="F25">
-        <v>0.9442366190435592</v>
+        <v>0.94423661904356</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.03407897005776</v>
       </c>
       <c r="J25">
-        <v>0.9417635728296556</v>
+        <v>0.9417635728296565</v>
       </c>
       <c r="K25">
         <v>1.020362098802616</v>
       </c>
       <c r="L25">
-        <v>0.945935063278418</v>
+        <v>0.9459350632784189</v>
       </c>
       <c r="M25">
-        <v>0.9577670147893893</v>
+        <v>0.9577670147893901</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.937635892652933</v>
+        <v>0.9376358926529326</v>
       </c>
       <c r="D2">
-        <v>1.017875129802976</v>
+        <v>1.017875129802975</v>
       </c>
       <c r="E2">
-        <v>0.9526018431224371</v>
+        <v>0.9526018431224368</v>
       </c>
       <c r="F2">
-        <v>0.9645886649719475</v>
+        <v>0.9645886649719471</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.039778530291664</v>
       </c>
       <c r="J2">
-        <v>0.9618565438153167</v>
+        <v>0.9618565438153162</v>
       </c>
       <c r="K2">
         <v>1.029090928337774</v>
       </c>
       <c r="L2">
-        <v>0.9647635366947064</v>
+        <v>0.9647635366947059</v>
       </c>
       <c r="M2">
-        <v>0.9765644201843477</v>
+        <v>0.9765644201843472</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9532113229472601</v>
+        <v>0.9532113229472616</v>
       </c>
       <c r="D3">
-        <v>1.02452657169316</v>
+        <v>1.024526571693161</v>
       </c>
       <c r="E3">
-        <v>0.9660526103169145</v>
+        <v>0.966052610316916</v>
       </c>
       <c r="F3">
-        <v>0.9780364258669768</v>
+        <v>0.9780364258669789</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043509147892012</v>
+        <v>1.043509147892013</v>
       </c>
       <c r="J3">
-        <v>0.9750641867575947</v>
+        <v>0.9750641867575961</v>
       </c>
       <c r="K3">
-        <v>1.03485496109219</v>
+        <v>1.034854961092192</v>
       </c>
       <c r="L3">
-        <v>0.9771391066097451</v>
+        <v>0.9771391066097467</v>
       </c>
       <c r="M3">
-        <v>0.9889582684086934</v>
+        <v>0.9889582684086953</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.962682366014574</v>
+        <v>0.9626823660145736</v>
       </c>
       <c r="D4">
         <v>1.028599148107099</v>
       </c>
       <c r="E4">
-        <v>0.9742401143548335</v>
+        <v>0.974240114354833</v>
       </c>
       <c r="F4">
-        <v>0.9862372646254906</v>
+        <v>0.9862372646254899</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.045765795517039</v>
       </c>
       <c r="J4">
-        <v>0.9830913526420649</v>
+        <v>0.9830913526420644</v>
       </c>
       <c r="K4">
         <v>1.038364237494212</v>
       </c>
       <c r="L4">
-        <v>0.9846597133381795</v>
+        <v>0.9846597133381791</v>
       </c>
       <c r="M4">
-        <v>0.9965046817260913</v>
+        <v>0.9965046817260905</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.966535403571407</v>
+        <v>0.9665354035714049</v>
       </c>
       <c r="D5">
-        <v>1.030261441549654</v>
+        <v>1.030261441549653</v>
       </c>
       <c r="E5">
-        <v>0.9775725896920548</v>
+        <v>0.9775725896920526</v>
       </c>
       <c r="F5">
-        <v>0.9895783979675924</v>
+        <v>0.9895783979675903</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046680508640082</v>
+        <v>1.046680508640081</v>
       </c>
       <c r="J5">
-        <v>0.9863557306311114</v>
+        <v>0.9863557306311089</v>
       </c>
       <c r="K5">
-        <v>1.039792058318425</v>
+        <v>1.039792058318424</v>
       </c>
       <c r="L5">
-        <v>0.987717836213997</v>
+        <v>0.9877178362139948</v>
       </c>
       <c r="M5">
-        <v>0.9995764475493196</v>
+        <v>0.9995764475493176</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9671752333344481</v>
+        <v>0.9671752333344478</v>
       </c>
       <c r="D6">
-        <v>1.030537769411056</v>
+        <v>1.030537769411055</v>
       </c>
       <c r="E6">
-        <v>0.9781260600327937</v>
+        <v>0.9781260600327936</v>
       </c>
       <c r="F6">
-        <v>0.9901334858790932</v>
+        <v>0.9901334858790929</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046832194506437</v>
+        <v>1.046832194506436</v>
       </c>
       <c r="J6">
-        <v>0.9868977272665104</v>
+        <v>0.98689772726651</v>
       </c>
       <c r="K6">
         <v>1.040029147159767</v>
       </c>
       <c r="L6">
-        <v>0.9882255713178547</v>
+        <v>0.9882255713178546</v>
       </c>
       <c r="M6">
-        <v>1.000086623379005</v>
+        <v>1.000086623379004</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9627343359753602</v>
+        <v>0.9627343359753597</v>
       </c>
       <c r="D7">
-        <v>1.028621548910789</v>
+        <v>1.028621548910788</v>
       </c>
       <c r="E7">
-        <v>0.9742850570201895</v>
+        <v>0.9742850570201894</v>
       </c>
       <c r="F7">
-        <v>0.9862823116870035</v>
+        <v>0.9862823116870029</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045778147133419</v>
+        <v>1.045778147133418</v>
       </c>
       <c r="J7">
-        <v>0.9831353880712843</v>
+        <v>0.9831353880712838</v>
       </c>
       <c r="K7">
-        <v>1.038383496404278</v>
+        <v>1.038383496404277</v>
       </c>
       <c r="L7">
         <v>0.9847009675229821</v>
       </c>
       <c r="M7">
-        <v>0.996546107870235</v>
+        <v>0.9965461078702342</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9430366798782049</v>
+        <v>0.9430366798782052</v>
       </c>
       <c r="D8">
         <v>1.020174630682771</v>
       </c>
       <c r="E8">
-        <v>0.9572638014149544</v>
+        <v>0.9572638014149549</v>
       </c>
       <c r="F8">
-        <v>0.9692460309520281</v>
+        <v>0.9692460309520285</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.041074338167119</v>
       </c>
       <c r="J8">
-        <v>0.966436986802468</v>
+        <v>0.9664369868024683</v>
       </c>
       <c r="K8">
-        <v>1.031088085959702</v>
+        <v>1.031088085959701</v>
       </c>
       <c r="L8">
-        <v>0.9690555631151064</v>
+        <v>0.9690555631151069</v>
       </c>
       <c r="M8">
-        <v>0.9808593534906693</v>
+        <v>0.9808593534906698</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9026753274874498</v>
+        <v>0.9026753274874483</v>
       </c>
       <c r="D9">
         <v>1.003190893233191</v>
       </c>
       <c r="E9">
-        <v>0.9224876517316817</v>
+        <v>0.9224876517316803</v>
       </c>
       <c r="F9">
-        <v>0.9345981874249037</v>
+        <v>0.9345981874249023</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031363806823333</v>
       </c>
       <c r="J9">
-        <v>0.9322039991695725</v>
+        <v>0.9322039991695709</v>
       </c>
       <c r="K9">
         <v>1.01623241169397</v>
       </c>
       <c r="L9">
-        <v>0.9369773533281786</v>
+        <v>0.9369773533281771</v>
       </c>
       <c r="M9">
-        <v>0.9488496701222681</v>
+        <v>0.9488496701222665</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8699266487740197</v>
+        <v>0.8699266487740174</v>
       </c>
       <c r="D10">
-        <v>0.9898000281879242</v>
+        <v>0.9898000281879238</v>
       </c>
       <c r="E10">
-        <v>0.8944013178583456</v>
+        <v>0.8944013178583436</v>
       </c>
       <c r="F10">
-        <v>0.9067829702740346</v>
+        <v>0.906782970274033</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023496828852439</v>
+        <v>1.023496828852438</v>
       </c>
       <c r="J10">
-        <v>0.9044552308054141</v>
+        <v>0.9044552308054121</v>
       </c>
       <c r="K10">
-        <v>1.004355921216524</v>
+        <v>1.004355921216523</v>
       </c>
       <c r="L10">
-        <v>0.9109804394256157</v>
+        <v>0.9109804394256138</v>
       </c>
       <c r="M10">
-        <v>0.923067292419306</v>
+        <v>0.9230672924193045</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8535663688274741</v>
+        <v>0.8535663688274771</v>
       </c>
       <c r="D11">
-        <v>0.9832605221677779</v>
+        <v>0.983260522167779</v>
       </c>
       <c r="E11">
-        <v>0.8804242669644169</v>
+        <v>0.8804242669644194</v>
       </c>
       <c r="F11">
-        <v>0.8930012322590172</v>
+        <v>0.8930012322590193</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01959231305176</v>
+        <v>1.019592313051761</v>
       </c>
       <c r="J11">
-        <v>0.8906147696381449</v>
+        <v>0.8906147696381476</v>
       </c>
       <c r="K11">
-        <v>0.9985051789337986</v>
+        <v>0.9985051789337996</v>
       </c>
       <c r="L11">
-        <v>0.8980183419055818</v>
+        <v>0.8980183419055844</v>
       </c>
       <c r="M11">
-        <v>0.9102686719154737</v>
+        <v>0.9102686719154759</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8470457116789822</v>
+        <v>0.8470457116789812</v>
       </c>
       <c r="D12">
-        <v>0.9806840234999131</v>
+        <v>0.9806840234999123</v>
       </c>
       <c r="E12">
-        <v>0.8748647737839178</v>
+        <v>0.8748647737839168</v>
       </c>
       <c r="F12">
-        <v>0.8875312086795644</v>
+        <v>0.8875312086795633</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.018042955126546</v>
       </c>
       <c r="J12">
-        <v>0.8851039071672884</v>
+        <v>0.8851039071672876</v>
       </c>
       <c r="K12">
-        <v>0.9961908855373642</v>
+        <v>0.9961908855373637</v>
       </c>
       <c r="L12">
-        <v>0.8928583959311926</v>
+        <v>0.8928583959311918</v>
       </c>
       <c r="M12">
-        <v>0.9051847313119877</v>
+        <v>0.905184731311987</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.848467111362865</v>
+        <v>0.8484671113628657</v>
       </c>
       <c r="D13">
-        <v>0.9812441688023859</v>
+        <v>0.9812441688023866</v>
       </c>
       <c r="E13">
-        <v>0.8760760821275818</v>
+        <v>0.8760760821275827</v>
       </c>
       <c r="F13">
-        <v>0.8887224391707581</v>
+        <v>0.8887224391707587</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018380321626953</v>
+        <v>1.018380321626954</v>
       </c>
       <c r="J13">
-        <v>0.8863048957779484</v>
+        <v>0.8863048957779488</v>
       </c>
       <c r="K13">
-        <v>0.9966944683153014</v>
+        <v>0.996694468315302</v>
       </c>
       <c r="L13">
-        <v>0.8939828453988036</v>
+        <v>0.8939828453988043</v>
       </c>
       <c r="M13">
-        <v>0.9062920778573379</v>
+        <v>0.9062920778573386</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8530373345381096</v>
+        <v>0.8530373345381081</v>
       </c>
       <c r="D14">
-        <v>0.9830508370819558</v>
+        <v>0.9830508370819551</v>
       </c>
       <c r="E14">
-        <v>0.8799729656614015</v>
+        <v>0.8799729656613998</v>
       </c>
       <c r="F14">
-        <v>0.8925569393582738</v>
+        <v>0.8925569393582725</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019466452409677</v>
+        <v>1.019466452409676</v>
       </c>
       <c r="J14">
-        <v>0.8901675368031675</v>
+        <v>0.8901675368031662</v>
       </c>
       <c r="K14">
-        <v>0.9983170272531734</v>
+        <v>0.9983170272531725</v>
       </c>
       <c r="L14">
-        <v>0.8975995604321525</v>
+        <v>0.8975995604321512</v>
       </c>
       <c r="M14">
-        <v>0.9098558237154253</v>
+        <v>0.9098558237154242</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8557898091483495</v>
+        <v>0.8557898091483468</v>
       </c>
       <c r="D15">
-        <v>0.9841430321157091</v>
+        <v>0.9841430321157085</v>
       </c>
       <c r="E15">
-        <v>0.8823214796489622</v>
+        <v>0.8823214796489599</v>
       </c>
       <c r="F15">
-        <v>0.8948694698354922</v>
+        <v>0.8948694698354902</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.020121576643224</v>
       </c>
       <c r="J15">
-        <v>0.8924946455104789</v>
+        <v>0.8924946455104766</v>
       </c>
       <c r="K15">
-        <v>0.999296684035818</v>
+        <v>0.9992966840358175</v>
       </c>
       <c r="L15">
-        <v>0.8997786770983347</v>
+        <v>0.8997786770983325</v>
       </c>
       <c r="M15">
-        <v>0.9120045180638333</v>
+        <v>0.9120045180638313</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8709579371981502</v>
+        <v>0.8709579371981505</v>
       </c>
       <c r="D16">
-        <v>0.9902157484511935</v>
+        <v>0.990215748451194</v>
       </c>
       <c r="E16">
-        <v>0.8952836677566539</v>
+        <v>0.8952836677566542</v>
       </c>
       <c r="F16">
-        <v>0.9076543785461326</v>
+        <v>0.907654378546133</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.023743674957805</v>
       </c>
       <c r="J16">
-        <v>0.9053282672800685</v>
+        <v>0.9053282672800689</v>
       </c>
       <c r="K16">
-        <v>1.004726731978394</v>
+        <v>1.004726731978395</v>
       </c>
       <c r="L16">
-        <v>0.9117981946042493</v>
+        <v>0.9117981946042496</v>
       </c>
       <c r="M16">
-        <v>0.9238760256169389</v>
+        <v>0.9238760256169395</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8798242430756423</v>
+        <v>0.879824243075643</v>
       </c>
       <c r="D17">
-        <v>0.9938063596224865</v>
+        <v>0.9938063596224864</v>
       </c>
       <c r="E17">
-        <v>0.902875473134044</v>
+        <v>0.9028754731340447</v>
       </c>
       <c r="F17">
-        <v>0.9151586787794654</v>
+        <v>0.9151586787794658</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.025868831623408</v>
       </c>
       <c r="J17">
-        <v>0.9128365215079712</v>
+        <v>0.912836521507972</v>
       </c>
       <c r="K17">
         <v>1.007923864348939</v>
       </c>
       <c r="L17">
-        <v>0.918831539746928</v>
+        <v>0.9188315397469287</v>
       </c>
       <c r="M17">
-        <v>0.9308379741087932</v>
+        <v>0.9308379741087937</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8847955017634507</v>
+        <v>0.8847955017634498</v>
       </c>
       <c r="D18">
         <v>0.9958322869662154</v>
       </c>
       <c r="E18">
-        <v>0.9071366603454423</v>
+        <v>0.9071366603454415</v>
       </c>
       <c r="F18">
-        <v>0.919375887904843</v>
+        <v>0.9193758879048426</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.027062424634746</v>
       </c>
       <c r="J18">
-        <v>0.9170481106543393</v>
+        <v>0.9170481106543384</v>
       </c>
       <c r="K18">
         <v>1.009723350458133</v>
       </c>
       <c r="L18">
-        <v>0.9227771059332448</v>
+        <v>0.9227771059332439</v>
       </c>
       <c r="M18">
-        <v>0.9347482975048473</v>
+        <v>0.9347482975048471</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8864592163056396</v>
+        <v>0.88645921630564</v>
       </c>
       <c r="D19">
-        <v>0.9965122919870913</v>
+        <v>0.9965122919870918</v>
       </c>
       <c r="E19">
-        <v>0.9085634396239667</v>
+        <v>0.9085634396239671</v>
       </c>
       <c r="F19">
-        <v>0.9207887554555668</v>
+        <v>0.9207887554555675</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027462160562313</v>
       </c>
       <c r="J19">
-        <v>0.9184578451609873</v>
+        <v>0.9184578451609876</v>
       </c>
       <c r="K19">
-        <v>1.010326632301705</v>
+        <v>1.010326632301706</v>
       </c>
       <c r="L19">
-        <v>0.9240978474257028</v>
+        <v>0.9240978474257031</v>
       </c>
       <c r="M19">
-        <v>0.936058005259114</v>
+        <v>0.9360580052591145</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8788943423433236</v>
+        <v>0.8788943423433235</v>
       </c>
       <c r="D20">
-        <v>0.9934284012995249</v>
+        <v>0.9934284012995251</v>
       </c>
       <c r="E20">
-        <v>0.9020787500700317</v>
+        <v>0.9020787500700318</v>
       </c>
       <c r="F20">
-        <v>0.9143705852029377</v>
+        <v>0.9143705852029371</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,7 +1123,7 @@
         <v>1.025645714353745</v>
       </c>
       <c r="J20">
-        <v>0.9120488554667211</v>
+        <v>0.9120488554667209</v>
       </c>
       <c r="K20">
         <v>1.007587797052868</v>
@@ -1132,7 +1132,7 @@
         <v>0.9180936537953979</v>
       </c>
       <c r="M20">
-        <v>0.9301070605591876</v>
+        <v>0.930107060559187</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8517050369165113</v>
+        <v>0.8517050369165122</v>
       </c>
       <c r="D21">
-        <v>0.9825232796464715</v>
+        <v>0.9825232796464723</v>
       </c>
       <c r="E21">
-        <v>0.8788366198657029</v>
+        <v>0.8788366198657035</v>
       </c>
       <c r="F21">
-        <v>0.8914384383949516</v>
+        <v>0.8914384383949528</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.019149611306172</v>
       </c>
       <c r="J21">
-        <v>0.8890413406039966</v>
+        <v>0.8890413406039975</v>
       </c>
       <c r="K21">
-        <v>0.9978434948194383</v>
+        <v>0.9978434948194395</v>
       </c>
       <c r="L21">
-        <v>0.8965450296290802</v>
+        <v>0.8965450296290811</v>
       </c>
       <c r="M21">
-        <v>0.9088164168602305</v>
+        <v>0.9088164168602315</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,13 +1181,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8319234625535887</v>
+        <v>0.8319234625535884</v>
       </c>
       <c r="D22">
         <v>0.9747773306813398</v>
       </c>
       <c r="E22">
-        <v>0.8619983366271183</v>
+        <v>0.8619983366271181</v>
       </c>
       <c r="F22">
         <v>0.8748985947366549</v>
@@ -1202,13 +1202,13 @@
         <v>0.8723375727615148</v>
       </c>
       <c r="K22">
-        <v>0.9908655781851164</v>
+        <v>0.9908655781851166</v>
       </c>
       <c r="L22">
-        <v>0.8809080744056357</v>
+        <v>0.8809080744056353</v>
       </c>
       <c r="M22">
-        <v>0.8934351210960112</v>
+        <v>0.8934351210960111</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8427244441673523</v>
+        <v>0.8427244441673498</v>
       </c>
       <c r="D23">
-        <v>0.978986263070118</v>
+        <v>0.9789862630701178</v>
       </c>
       <c r="E23">
-        <v>0.8711842199870896</v>
+        <v>0.8711842199870873</v>
       </c>
       <c r="F23">
-        <v>0.8839136810977963</v>
+        <v>0.8839136810977942</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.01701863368895</v>
       </c>
       <c r="J23">
-        <v>0.8814537658173249</v>
+        <v>0.8814537658173228</v>
       </c>
       <c r="K23">
-        <v>0.9946630560724127</v>
+        <v>0.9946630560724126</v>
       </c>
       <c r="L23">
-        <v>0.8894411068827937</v>
+        <v>0.8894411068827914</v>
       </c>
       <c r="M23">
-        <v>0.9018212834294511</v>
+        <v>0.9018212834294493</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8793151356350538</v>
+        <v>0.8793151356350496</v>
       </c>
       <c r="D24">
-        <v>0.9935993933793356</v>
+        <v>0.9935993933793343</v>
       </c>
       <c r="E24">
-        <v>0.9024392645464369</v>
+        <v>0.9024392645464331</v>
       </c>
       <c r="F24">
-        <v>0.9147271789080339</v>
+        <v>0.9147271789080307</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025746671882666</v>
+        <v>1.025746671882665</v>
       </c>
       <c r="J24">
-        <v>0.9124052800920195</v>
+        <v>0.9124052800920158</v>
       </c>
       <c r="K24">
-        <v>1.007739850995089</v>
+        <v>1.007739850995087</v>
       </c>
       <c r="L24">
-        <v>0.9184275514457771</v>
+        <v>0.9184275514457735</v>
       </c>
       <c r="M24">
-        <v>0.9304377882097633</v>
+        <v>0.9304377882097601</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9139474884421703</v>
+        <v>0.9139474884421693</v>
       </c>
       <c r="D25">
         <v>1.007884965944296</v>
       </c>
       <c r="E25">
-        <v>0.932184090753217</v>
+        <v>0.9321840907532162</v>
       </c>
       <c r="F25">
-        <v>0.94423661904356</v>
+        <v>0.9442366190435592</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.03407897005776</v>
       </c>
       <c r="J25">
-        <v>0.9417635728296565</v>
+        <v>0.9417635728296556</v>
       </c>
       <c r="K25">
         <v>1.020362098802616</v>
       </c>
       <c r="L25">
-        <v>0.9459350632784189</v>
+        <v>0.945935063278418</v>
       </c>
       <c r="M25">
-        <v>0.9577670147893901</v>
+        <v>0.9577670147893893</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9376358926529326</v>
+        <v>0.9420241222285262</v>
       </c>
       <c r="D2">
-        <v>1.017875129802975</v>
+        <v>1.019190648273844</v>
       </c>
       <c r="E2">
-        <v>0.9526018431224368</v>
+        <v>0.9563429698622221</v>
       </c>
       <c r="F2">
-        <v>0.9645886649719471</v>
+        <v>0.9678985470713684</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039778530291664</v>
+        <v>1.04071859796954</v>
       </c>
       <c r="J2">
-        <v>0.9618565438153162</v>
+        <v>0.9660888472370147</v>
       </c>
       <c r="K2">
-        <v>1.029090928337774</v>
+        <v>1.030388947423018</v>
       </c>
       <c r="L2">
-        <v>0.9647635366947059</v>
+        <v>0.9684459917801687</v>
       </c>
       <c r="M2">
-        <v>0.9765644201843472</v>
+        <v>0.9798239935757393</v>
+      </c>
+      <c r="N2">
+        <v>0.9674608042120308</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9532113229472616</v>
+        <v>0.9575177387987862</v>
       </c>
       <c r="D3">
-        <v>1.024526571693161</v>
+        <v>1.0258150417172</v>
       </c>
       <c r="E3">
-        <v>0.966052610316916</v>
+        <v>0.9697281889493425</v>
       </c>
       <c r="F3">
-        <v>0.9780364258669789</v>
+        <v>0.9812805696618661</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043509147892013</v>
+        <v>1.04443249031573</v>
       </c>
       <c r="J3">
-        <v>0.9750641867575961</v>
+        <v>0.979237545891275</v>
       </c>
       <c r="K3">
-        <v>1.034854961092192</v>
+        <v>1.036127934721873</v>
       </c>
       <c r="L3">
-        <v>0.9771391066097467</v>
+        <v>0.9807636384866915</v>
       </c>
       <c r="M3">
-        <v>0.9889582684086953</v>
+        <v>0.9921587080254108</v>
+      </c>
+      <c r="N3">
+        <v>0.9806281755265571</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9626823660145736</v>
+        <v>0.9669452750365554</v>
       </c>
       <c r="D4">
-        <v>1.028599148107099</v>
+        <v>1.029873082039057</v>
       </c>
       <c r="E4">
-        <v>0.974240114354833</v>
+        <v>0.9778809534570722</v>
       </c>
       <c r="F4">
-        <v>0.9862372646254899</v>
+        <v>0.9894462003264798</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045765795517039</v>
+        <v>1.046680296491767</v>
       </c>
       <c r="J4">
-        <v>0.9830913526420644</v>
+        <v>0.9872340601077909</v>
       </c>
       <c r="K4">
-        <v>1.038364237494212</v>
+        <v>1.039623853749484</v>
       </c>
       <c r="L4">
-        <v>0.9846597133381791</v>
+        <v>0.9882538759545019</v>
       </c>
       <c r="M4">
-        <v>0.9965046817260905</v>
+        <v>0.9996736917418459</v>
+      </c>
+      <c r="N4">
+        <v>0.9886360457104733</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9665354035714049</v>
+        <v>0.9707818644747649</v>
       </c>
       <c r="D5">
-        <v>1.030261441549653</v>
+        <v>1.031529849409649</v>
       </c>
       <c r="E5">
-        <v>0.9775725896920526</v>
+        <v>0.9812003256236406</v>
       </c>
       <c r="F5">
-        <v>0.9895783979675903</v>
+        <v>0.9927739692709912</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046680508640081</v>
+        <v>1.047591682962637</v>
       </c>
       <c r="J5">
-        <v>0.9863557306311089</v>
+        <v>0.9904870129186599</v>
       </c>
       <c r="K5">
-        <v>1.039792058318424</v>
+        <v>1.041046620565555</v>
       </c>
       <c r="L5">
-        <v>0.9877178362139948</v>
+        <v>0.9913006217464319</v>
       </c>
       <c r="M5">
-        <v>0.9995764475493176</v>
+        <v>1.002733583970185</v>
+      </c>
+      <c r="N5">
+        <v>0.9918936180874527</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9671752333344478</v>
+        <v>0.9714190305790416</v>
       </c>
       <c r="D6">
-        <v>1.030537769411055</v>
+        <v>1.031805280709714</v>
       </c>
       <c r="E6">
-        <v>0.9781260600327936</v>
+        <v>0.9817516758625613</v>
       </c>
       <c r="F6">
-        <v>0.9901334858790929</v>
+        <v>0.9933268898880202</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046832194506436</v>
+        <v>1.04774283114145</v>
       </c>
       <c r="J6">
-        <v>0.98689772726651</v>
+        <v>0.9910271689215454</v>
       </c>
       <c r="K6">
-        <v>1.040029147159767</v>
+        <v>1.041282890843656</v>
       </c>
       <c r="L6">
-        <v>0.9882255713178546</v>
+        <v>0.9918065206211226</v>
       </c>
       <c r="M6">
-        <v>1.000086623379004</v>
+        <v>1.003241837594735</v>
+      </c>
+      <c r="N6">
+        <v>0.9924345411738191</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9627343359753597</v>
+        <v>0.9669970184426254</v>
       </c>
       <c r="D7">
-        <v>1.028621548910788</v>
+        <v>1.029895406844859</v>
       </c>
       <c r="E7">
-        <v>0.9742850570201894</v>
+        <v>0.9779257155132505</v>
       </c>
       <c r="F7">
-        <v>0.9862823116870029</v>
+        <v>0.9894910635203897</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045778147133418</v>
+        <v>1.046692602217469</v>
       </c>
       <c r="J7">
-        <v>0.9831353880712838</v>
+        <v>0.9872779375037796</v>
       </c>
       <c r="K7">
-        <v>1.038383496404277</v>
+        <v>1.039643043056383</v>
       </c>
       <c r="L7">
-        <v>0.9847009675229821</v>
+        <v>0.9882949730043135</v>
       </c>
       <c r="M7">
-        <v>0.9965461078702342</v>
+        <v>0.9997149542988967</v>
+      </c>
+      <c r="N7">
+        <v>0.9886799854173972</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9430366798782052</v>
+        <v>0.9473950151671476</v>
       </c>
       <c r="D8">
-        <v>1.020174630682771</v>
+        <v>1.021480306139864</v>
       </c>
       <c r="E8">
-        <v>0.9572638014149549</v>
+        <v>0.9609809510919247</v>
       </c>
       <c r="F8">
-        <v>0.9692460309520285</v>
+        <v>0.9725319563647754</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041074338167119</v>
+        <v>1.042008284434844</v>
       </c>
       <c r="J8">
-        <v>0.9664369868024683</v>
+        <v>0.9706475856978378</v>
       </c>
       <c r="K8">
-        <v>1.031088085959701</v>
+        <v>1.032376966457793</v>
       </c>
       <c r="L8">
-        <v>0.9690555631151069</v>
+        <v>0.9727167512498612</v>
       </c>
       <c r="M8">
-        <v>0.9808593534906698</v>
+        <v>0.9840973192668528</v>
+      </c>
+      <c r="N8">
+        <v>0.9720260166043629</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9026753274874483</v>
+        <v>0.9073028986307772</v>
       </c>
       <c r="D9">
-        <v>1.003190893233191</v>
+        <v>1.004583869320665</v>
       </c>
       <c r="E9">
-        <v>0.9224876517316803</v>
+        <v>0.9264213074865331</v>
       </c>
       <c r="F9">
-        <v>0.9345981874249023</v>
+        <v>0.9380978698466376</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031363806823333</v>
+        <v>1.032352995215198</v>
       </c>
       <c r="J9">
-        <v>0.9322039991695709</v>
+        <v>0.9366146275748518</v>
       </c>
       <c r="K9">
-        <v>1.01623241169397</v>
+        <v>1.017603011663217</v>
       </c>
       <c r="L9">
-        <v>0.9369773533281771</v>
+        <v>0.9408327353037006</v>
       </c>
       <c r="M9">
-        <v>0.9488496701222665</v>
+        <v>0.9522820116450385</v>
+      </c>
+      <c r="N9">
+        <v>0.9379447277772076</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8699266487740174</v>
+        <v>0.8748716925261878</v>
       </c>
       <c r="D10">
-        <v>0.9898000281879238</v>
+        <v>0.9912931204891021</v>
       </c>
       <c r="E10">
-        <v>0.8944013178583436</v>
+        <v>0.8985908318199042</v>
       </c>
       <c r="F10">
-        <v>0.906782970274033</v>
+        <v>0.9105306692507903</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023496828852438</v>
+        <v>1.024550989346394</v>
       </c>
       <c r="J10">
-        <v>0.9044552308054121</v>
+        <v>0.9091094330155089</v>
       </c>
       <c r="K10">
-        <v>1.004355921216523</v>
+        <v>1.005821380196299</v>
       </c>
       <c r="L10">
-        <v>0.9109804394256138</v>
+        <v>0.9150689828348504</v>
       </c>
       <c r="M10">
-        <v>0.9230672924193045</v>
+        <v>0.9267278739110616</v>
+      </c>
+      <c r="N10">
+        <v>0.9104004726867003</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.8535663688274771</v>
+        <v>0.8587166232858573</v>
       </c>
       <c r="D11">
-        <v>0.983260522167779</v>
+        <v>0.9848172570976363</v>
       </c>
       <c r="E11">
-        <v>0.8804242669644194</v>
+        <v>0.8847791418680238</v>
       </c>
       <c r="F11">
-        <v>0.8930012322590193</v>
+        <v>0.8969077349509942</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019592313051761</v>
+        <v>1.020688275307329</v>
       </c>
       <c r="J11">
-        <v>0.8906147696381476</v>
+        <v>0.8954287126241132</v>
       </c>
       <c r="K11">
-        <v>0.9985051789337996</v>
+        <v>1.000031292317765</v>
       </c>
       <c r="L11">
-        <v>0.8980183419055844</v>
+        <v>0.9022586920785666</v>
       </c>
       <c r="M11">
-        <v>0.9102686719154759</v>
+        <v>0.9140762350892988</v>
+      </c>
+      <c r="N11">
+        <v>0.8967003241031483</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8470457116789812</v>
+        <v>0.8522887027180241</v>
       </c>
       <c r="D12">
-        <v>0.9806840234999123</v>
+        <v>0.9822693103061919</v>
       </c>
       <c r="E12">
-        <v>0.8748647737839168</v>
+        <v>0.8792943486800714</v>
       </c>
       <c r="F12">
-        <v>0.8875312086795633</v>
+        <v>0.8915091781819254</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018042955126546</v>
+        <v>1.019157759348083</v>
       </c>
       <c r="J12">
-        <v>0.8851039071672876</v>
+        <v>0.8899904336075106</v>
       </c>
       <c r="K12">
-        <v>0.9961908855373637</v>
+        <v>0.997744272774256</v>
       </c>
       <c r="L12">
-        <v>0.8928583959311918</v>
+        <v>0.8971675189929997</v>
       </c>
       <c r="M12">
-        <v>0.905184731311987</v>
+        <v>0.9090585908801121</v>
+      </c>
+      <c r="N12">
+        <v>0.8912543221065627</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8484671113628657</v>
+        <v>0.8536893011550046</v>
       </c>
       <c r="D13">
-        <v>0.9812441688023866</v>
+        <v>0.9828230613826835</v>
       </c>
       <c r="E13">
-        <v>0.8760760821275827</v>
+        <v>0.8804889032427921</v>
       </c>
       <c r="F13">
-        <v>0.8887224391707587</v>
+        <v>0.892684392852609</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018380321626954</v>
+        <v>1.019490902019038</v>
       </c>
       <c r="J13">
-        <v>0.8863048957779488</v>
+        <v>0.8911751231449754</v>
       </c>
       <c r="K13">
-        <v>0.996694468315302</v>
+        <v>0.9982417446109653</v>
       </c>
       <c r="L13">
-        <v>0.8939828453988043</v>
+        <v>0.8982765348665824</v>
       </c>
       <c r="M13">
-        <v>0.9062920778573386</v>
+        <v>0.9101510732556567</v>
+      </c>
+      <c r="N13">
+        <v>0.8924406940390566</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8530373345381081</v>
+        <v>0.8581948620408634</v>
       </c>
       <c r="D14">
-        <v>0.9830508370819551</v>
+        <v>0.9846098155469321</v>
       </c>
       <c r="E14">
-        <v>0.8799729656613998</v>
+        <v>0.8843336997742176</v>
       </c>
       <c r="F14">
-        <v>0.8925569393582725</v>
+        <v>0.8964690531450136</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019466452409676</v>
+        <v>1.020563893438575</v>
       </c>
       <c r="J14">
-        <v>0.8901675368031662</v>
+        <v>0.8949871644322931</v>
       </c>
       <c r="K14">
-        <v>0.9983170272531725</v>
+        <v>0.9998452824901092</v>
       </c>
       <c r="L14">
-        <v>0.8975995604321512</v>
+        <v>0.9018453009880681</v>
       </c>
       <c r="M14">
-        <v>0.9098558237154242</v>
+        <v>0.9136685890163325</v>
+      </c>
+      <c r="N14">
+        <v>0.8962581488622496</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8557898091483468</v>
+        <v>0.8609099610840489</v>
       </c>
       <c r="D15">
-        <v>0.9841430321157085</v>
+        <v>0.9856904730751946</v>
       </c>
       <c r="E15">
-        <v>0.8823214796489599</v>
+        <v>0.8866521025463727</v>
       </c>
       <c r="F15">
-        <v>0.8948694698354902</v>
+        <v>0.898752736990298</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020121576643224</v>
+        <v>1.021211416425226</v>
       </c>
       <c r="J15">
-        <v>0.8924946455104766</v>
+        <v>0.8972850754183831</v>
       </c>
       <c r="K15">
-        <v>0.9992966840358175</v>
+        <v>1.000813927096144</v>
       </c>
       <c r="L15">
-        <v>0.8997786770983325</v>
+        <v>0.9039967233519814</v>
       </c>
       <c r="M15">
-        <v>0.9120045180638313</v>
+        <v>0.9157905450393808</v>
+      </c>
+      <c r="N15">
+        <v>0.8985593231455138</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8709579371981505</v>
+        <v>0.8758912261456909</v>
       </c>
       <c r="D16">
-        <v>0.990215748451194</v>
+        <v>0.9917051732843231</v>
       </c>
       <c r="E16">
-        <v>0.8952836677566542</v>
+        <v>0.8994637076507257</v>
       </c>
       <c r="F16">
-        <v>0.907654378546133</v>
+        <v>0.9113929499352906</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023743674957805</v>
+        <v>1.024795436295864</v>
       </c>
       <c r="J16">
-        <v>0.9053282672800689</v>
+        <v>0.9099733628984055</v>
       </c>
       <c r="K16">
-        <v>1.004726731978395</v>
+        <v>1.006188702560819</v>
       </c>
       <c r="L16">
-        <v>0.9117981946042496</v>
+        <v>0.9158780619133668</v>
       </c>
       <c r="M16">
-        <v>0.9238760256169395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9275281753560124</v>
+      </c>
+      <c r="N16">
+        <v>0.9112656294491246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.879824243075643</v>
+        <v>0.8846616258535613</v>
       </c>
       <c r="D17">
-        <v>0.9938063596224864</v>
+        <v>0.9952657601745928</v>
       </c>
       <c r="E17">
-        <v>0.9028754731340447</v>
+        <v>0.9069782116492863</v>
       </c>
       <c r="F17">
-        <v>0.9151586787794658</v>
+        <v>0.9188226357250617</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025868831623408</v>
+        <v>1.026900999170362</v>
       </c>
       <c r="J17">
-        <v>0.912836521507972</v>
+        <v>0.9174075321626908</v>
       </c>
       <c r="K17">
-        <v>1.007923864348939</v>
+        <v>1.009357310096532</v>
       </c>
       <c r="L17">
-        <v>0.9188315397469287</v>
+        <v>0.9228407208498326</v>
       </c>
       <c r="M17">
-        <v>0.9308379741087937</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9344212767926013</v>
+      </c>
+      <c r="N17">
+        <v>0.9187103560864767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8847955017634498</v>
+        <v>0.8895829097411384</v>
       </c>
       <c r="D18">
-        <v>0.9958322869662154</v>
+        <v>0.9972759649988141</v>
       </c>
       <c r="E18">
-        <v>0.9071366603454415</v>
+        <v>0.9111991184323199</v>
       </c>
       <c r="F18">
-        <v>0.9193758879048426</v>
+        <v>0.9230008557895137</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027062424634746</v>
+        <v>1.028084368700238</v>
       </c>
       <c r="J18">
-        <v>0.9170481106543384</v>
+        <v>0.9215806862208257</v>
       </c>
       <c r="K18">
-        <v>1.009723350458133</v>
+        <v>1.01114188508398</v>
       </c>
       <c r="L18">
-        <v>0.9227771059332439</v>
+        <v>0.9267495354576593</v>
       </c>
       <c r="M18">
-        <v>0.9347482975048471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.938295686731023</v>
+      </c>
+      <c r="N18">
+        <v>0.9228894365020416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.88645921630564</v>
+        <v>0.8912304714912175</v>
       </c>
       <c r="D19">
-        <v>0.9965122919870918</v>
+        <v>0.9979508759349431</v>
       </c>
       <c r="E19">
-        <v>0.9085634396239671</v>
+        <v>0.9126128787027769</v>
       </c>
       <c r="F19">
-        <v>0.9207887554555675</v>
+        <v>0.9244011041007751</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027462160562313</v>
+        <v>1.028480798267362</v>
       </c>
       <c r="J19">
-        <v>0.9184578451609876</v>
+        <v>0.9229780255816836</v>
       </c>
       <c r="K19">
-        <v>1.010326632301706</v>
+        <v>1.011740340010407</v>
       </c>
       <c r="L19">
-        <v>0.9240978474257031</v>
+        <v>0.928058411883624</v>
       </c>
       <c r="M19">
-        <v>0.9360580052591145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9395937807918083</v>
+      </c>
+      <c r="N19">
+        <v>0.9242887602450689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8788943423433235</v>
+        <v>0.8837413663659125</v>
       </c>
       <c r="D20">
-        <v>0.9934284012995251</v>
+        <v>0.9948908287129369</v>
       </c>
       <c r="E20">
-        <v>0.9020787500700318</v>
+        <v>0.9061892596623433</v>
       </c>
       <c r="F20">
-        <v>0.9143705852029371</v>
+        <v>0.9180420550607943</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025645714353745</v>
+        <v>1.026679853177345</v>
       </c>
       <c r="J20">
-        <v>0.9120488554667209</v>
+        <v>0.9166272952461976</v>
       </c>
       <c r="K20">
-        <v>1.007587797052868</v>
+        <v>1.009024115631507</v>
       </c>
       <c r="L20">
-        <v>0.9180936537953979</v>
+        <v>0.9221099320002323</v>
       </c>
       <c r="M20">
-        <v>0.930107060559187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9336972886581137</v>
+      </c>
+      <c r="N20">
+        <v>0.9179290111440676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8517050369165122</v>
+        <v>0.8568810725126793</v>
       </c>
       <c r="D21">
-        <v>0.9825232796464723</v>
+        <v>0.9840879639646229</v>
       </c>
       <c r="E21">
-        <v>0.8788366198657035</v>
+        <v>0.8832122636759598</v>
       </c>
       <c r="F21">
-        <v>0.8914384383949528</v>
+        <v>0.8953648261716421</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019149611306172</v>
+        <v>1.020250814625591</v>
       </c>
       <c r="J21">
-        <v>0.8890413406039975</v>
+        <v>0.8938754404852381</v>
       </c>
       <c r="K21">
-        <v>0.9978434948194395</v>
+        <v>0.9993771983047485</v>
       </c>
       <c r="L21">
-        <v>0.8965450296290811</v>
+        <v>0.9008044899925732</v>
       </c>
       <c r="M21">
-        <v>0.9088164168602315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9126424181767926</v>
+      </c>
+      <c r="N21">
+        <v>0.8951448461396734</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8319234625535884</v>
+        <v>0.8374102629746991</v>
       </c>
       <c r="D22">
-        <v>0.9747773306813398</v>
+        <v>0.9764371790048366</v>
       </c>
       <c r="E22">
-        <v>0.8619983366271181</v>
+        <v>0.866624197646946</v>
       </c>
       <c r="F22">
-        <v>0.8748985947366549</v>
+        <v>0.8790637254561889</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014467643399527</v>
+        <v>1.01563185355869</v>
       </c>
       <c r="J22">
-        <v>0.8723375727615148</v>
+        <v>0.8774158058940725</v>
       </c>
       <c r="K22">
-        <v>0.9908655781851166</v>
+        <v>0.9924903314190412</v>
       </c>
       <c r="L22">
-        <v>0.8809080744056353</v>
+        <v>0.8853983542986893</v>
       </c>
       <c r="M22">
-        <v>0.8934351210960111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8974829449901233</v>
+      </c>
+      <c r="N22">
+        <v>0.8786618369794418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8427244441673498</v>
+        <v>0.8480327877962521</v>
       </c>
       <c r="D23">
-        <v>0.9789862630701178</v>
+        <v>0.980591603264149</v>
       </c>
       <c r="E23">
-        <v>0.8711842199870873</v>
+        <v>0.8756664242723807</v>
       </c>
       <c r="F23">
-        <v>0.8839136810977942</v>
+        <v>0.8879419168427424</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01701863368895</v>
+        <v>1.018146699022502</v>
       </c>
       <c r="J23">
-        <v>0.8814537658173228</v>
+        <v>0.8863915634031332</v>
       </c>
       <c r="K23">
-        <v>0.9946630560724126</v>
+        <v>0.9962356184710965</v>
       </c>
       <c r="L23">
-        <v>0.8894411068827914</v>
+        <v>0.893798744069214</v>
       </c>
       <c r="M23">
-        <v>0.9018212834294493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9057418193682399</v>
+      </c>
+      <c r="N23">
+        <v>0.887650341093699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8793151356350496</v>
+        <v>0.8841577851553452</v>
       </c>
       <c r="D24">
-        <v>0.9935993933793343</v>
+        <v>0.9950604476692708</v>
       </c>
       <c r="E24">
-        <v>0.9024392645464331</v>
+        <v>0.9065462481831938</v>
       </c>
       <c r="F24">
-        <v>0.9147271789080307</v>
+        <v>0.9183952402964087</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025746671882665</v>
+        <v>1.026779916325724</v>
       </c>
       <c r="J24">
-        <v>0.9124052800920158</v>
+        <v>0.9169803485251833</v>
       </c>
       <c r="K24">
-        <v>1.007739850995087</v>
+        <v>1.009174866241352</v>
       </c>
       <c r="L24">
-        <v>0.9184275514457735</v>
+        <v>0.9224406092332291</v>
       </c>
       <c r="M24">
-        <v>0.9304377882097601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9340248741769122</v>
+      </c>
+      <c r="N24">
+        <v>0.918282565799205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9139474884421693</v>
+        <v>0.918488374872097</v>
       </c>
       <c r="D25">
-        <v>1.007884965944296</v>
+        <v>1.009250133317195</v>
       </c>
       <c r="E25">
-        <v>0.9321840907532162</v>
+        <v>0.9360479405438755</v>
       </c>
       <c r="F25">
-        <v>0.9442366190435592</v>
+        <v>0.947667914587536</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03407897005776</v>
+        <v>1.035050365880977</v>
       </c>
       <c r="J25">
-        <v>0.9417635728296556</v>
+        <v>0.9461088707694753</v>
       </c>
       <c r="K25">
-        <v>1.020362098802616</v>
+        <v>1.021706530134816</v>
       </c>
       <c r="L25">
-        <v>0.945935063278418</v>
+        <v>0.9497273936030307</v>
       </c>
       <c r="M25">
-        <v>0.9577670147893893</v>
+        <v>0.9611368451858038</v>
+      </c>
+      <c r="N25">
+        <v>0.9474524538861719</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9420241222285262</v>
+        <v>0.9169924310712696</v>
       </c>
       <c r="D2">
-        <v>1.019190648273844</v>
+        <v>1.027181650187541</v>
       </c>
       <c r="E2">
-        <v>0.9563429698622221</v>
+        <v>0.9322520254334821</v>
       </c>
       <c r="F2">
-        <v>0.9678985470713684</v>
+        <v>1.009715880650849</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04071859796954</v>
+        <v>1.045925999510345</v>
       </c>
       <c r="J2">
-        <v>0.9660888472370147</v>
+        <v>0.9419748963898789</v>
       </c>
       <c r="K2">
-        <v>1.030388947423018</v>
+        <v>1.03827485711621</v>
       </c>
       <c r="L2">
-        <v>0.9684459917801687</v>
+        <v>0.9447434845136345</v>
       </c>
       <c r="M2">
-        <v>0.9798239935757393</v>
+        <v>1.021041497191645</v>
       </c>
       <c r="N2">
-        <v>0.9674608042120308</v>
+        <v>0.9433126087887835</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9575177387987862</v>
+        <v>0.9348996826086264</v>
       </c>
       <c r="D3">
-        <v>1.0258150417172</v>
+        <v>1.033513720763353</v>
       </c>
       <c r="E3">
-        <v>0.9697281889493425</v>
+        <v>0.947685197410805</v>
       </c>
       <c r="F3">
-        <v>0.9812805696618661</v>
+        <v>1.018999232906379</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04443249031573</v>
+        <v>1.048391538809645</v>
       </c>
       <c r="J3">
-        <v>0.979237545891275</v>
+        <v>0.9573373646597855</v>
       </c>
       <c r="K3">
-        <v>1.036127934721873</v>
+        <v>1.043735019118854</v>
       </c>
       <c r="L3">
-        <v>0.9807636384866915</v>
+        <v>0.9590343101406694</v>
       </c>
       <c r="M3">
-        <v>0.9921587080254108</v>
+        <v>1.029394652123635</v>
       </c>
       <c r="N3">
-        <v>0.9806281755265571</v>
+        <v>0.958696893525733</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9669452750365554</v>
+        <v>0.9456943186422587</v>
       </c>
       <c r="D4">
-        <v>1.029873082039057</v>
+        <v>1.037384128449137</v>
       </c>
       <c r="E4">
-        <v>0.9778809534570722</v>
+        <v>0.9570007338883906</v>
       </c>
       <c r="F4">
-        <v>0.9894462003264798</v>
+        <v>1.024650857832187</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046680296491767</v>
+        <v>1.049877728153529</v>
       </c>
       <c r="J4">
-        <v>0.9872340601077909</v>
+        <v>0.9665971324786763</v>
       </c>
       <c r="K4">
-        <v>1.039623853749484</v>
+        <v>1.047051362623424</v>
       </c>
       <c r="L4">
-        <v>0.9882538759545019</v>
+        <v>0.9676474054970403</v>
       </c>
       <c r="M4">
-        <v>0.9996736917418459</v>
+        <v>1.034460600687822</v>
       </c>
       <c r="N4">
-        <v>0.9886360457104733</v>
+        <v>0.967969811277037</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9707818644747649</v>
+        <v>0.9500678380816802</v>
       </c>
       <c r="D5">
-        <v>1.031529849409649</v>
+        <v>1.038962999081191</v>
       </c>
       <c r="E5">
-        <v>0.9812003256236406</v>
+        <v>0.9607773091626506</v>
       </c>
       <c r="F5">
-        <v>0.9927739692709912</v>
+        <v>1.026951760474035</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047591682962637</v>
+        <v>1.050479139027895</v>
       </c>
       <c r="J5">
-        <v>0.9904870129186599</v>
+        <v>0.9703481641752073</v>
       </c>
       <c r="K5">
-        <v>1.041046620565555</v>
+        <v>1.048399464520783</v>
       </c>
       <c r="L5">
-        <v>0.9913006217464319</v>
+        <v>0.9711361979084941</v>
       </c>
       <c r="M5">
-        <v>1.002733583970185</v>
+        <v>1.036518702758072</v>
       </c>
       <c r="N5">
-        <v>0.9918936180874527</v>
+        <v>0.9717261698688261</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9714190305790416</v>
+        <v>0.9507931496048978</v>
       </c>
       <c r="D6">
-        <v>1.031805280709714</v>
+        <v>1.039225421441093</v>
       </c>
       <c r="E6">
-        <v>0.9817516758625613</v>
+        <v>0.9614037435823701</v>
       </c>
       <c r="F6">
-        <v>0.9933268898880202</v>
+        <v>1.027333943180051</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04774283114145</v>
+        <v>1.05057881649571</v>
       </c>
       <c r="J6">
-        <v>0.9910271689215454</v>
+        <v>0.9709701938714513</v>
       </c>
       <c r="K6">
-        <v>1.041282890843656</v>
+        <v>1.048623259644401</v>
       </c>
       <c r="L6">
-        <v>0.9918065206211226</v>
+        <v>0.9717147217639556</v>
       </c>
       <c r="M6">
-        <v>1.003241837594735</v>
+        <v>1.036860306649689</v>
       </c>
       <c r="N6">
-        <v>0.9924345411738191</v>
+        <v>0.9723490829185866</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9669970184426254</v>
+        <v>0.945753375312005</v>
       </c>
       <c r="D7">
-        <v>1.029895406844859</v>
+        <v>1.037405407929321</v>
       </c>
       <c r="E7">
-        <v>0.9779257155132505</v>
+        <v>0.9570517213523568</v>
       </c>
       <c r="F7">
-        <v>0.9894910635203897</v>
+        <v>1.024681885825742</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046692602217469</v>
+        <v>1.049885852914658</v>
       </c>
       <c r="J7">
-        <v>0.9872779375037796</v>
+        <v>0.9666477865379172</v>
       </c>
       <c r="K7">
-        <v>1.039643043056383</v>
+        <v>1.047069550387515</v>
       </c>
       <c r="L7">
-        <v>0.9882949730043135</v>
+        <v>0.9676945194997344</v>
       </c>
       <c r="M7">
-        <v>0.9997149542988967</v>
+        <v>1.034488371490282</v>
       </c>
       <c r="N7">
-        <v>0.9886799854173972</v>
+        <v>0.9680205372708518</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9473950151671476</v>
+        <v>0.9232255712729086</v>
       </c>
       <c r="D8">
-        <v>1.021480306139864</v>
+        <v>1.029372687776028</v>
       </c>
       <c r="E8">
-        <v>0.9609809510919247</v>
+        <v>0.9376208736846665</v>
       </c>
       <c r="F8">
-        <v>0.9725319563647754</v>
+        <v>1.012933611716962</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042008284434844</v>
+        <v>1.04678371571145</v>
       </c>
       <c r="J8">
-        <v>0.9706475856978378</v>
+        <v>0.9473221347733122</v>
       </c>
       <c r="K8">
-        <v>1.032376966457793</v>
+        <v>1.040168959977772</v>
       </c>
       <c r="L8">
-        <v>0.9727167512498612</v>
+        <v>0.9497178000254644</v>
       </c>
       <c r="M8">
-        <v>0.9840973192668528</v>
+        <v>1.023941193295427</v>
       </c>
       <c r="N8">
-        <v>0.9720260166043629</v>
+        <v>0.9486674408640579</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9073028986307772</v>
+        <v>0.8758645665029091</v>
       </c>
       <c r="D9">
-        <v>1.004583869320665</v>
+        <v>1.013104167519509</v>
       </c>
       <c r="E9">
-        <v>0.9264213074865331</v>
+        <v>0.8969264485261202</v>
       </c>
       <c r="F9">
-        <v>0.9380978698466376</v>
+        <v>0.9888856078707308</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032352995215198</v>
+        <v>1.040309766778601</v>
       </c>
       <c r="J9">
-        <v>0.9366146275748518</v>
+        <v>0.9067158562309269</v>
       </c>
       <c r="K9">
-        <v>1.017603011663217</v>
+        <v>1.025988157188049</v>
       </c>
       <c r="L9">
-        <v>0.9408327353037006</v>
+        <v>0.9119469775966887</v>
       </c>
       <c r="M9">
-        <v>0.9522820116450385</v>
+        <v>1.002161619488668</v>
       </c>
       <c r="N9">
-        <v>0.9379447277772076</v>
+        <v>0.9080034967485372</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8748716925261878</v>
+        <v>0.8355207839947576</v>
       </c>
       <c r="D10">
-        <v>0.9912931204891021</v>
+        <v>1.00000402953882</v>
       </c>
       <c r="E10">
-        <v>0.8985908318199042</v>
+        <v>0.862483566858952</v>
       </c>
       <c r="F10">
-        <v>0.9105306692507903</v>
+        <v>0.9692141802522939</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024550989346394</v>
+        <v>1.034935742057601</v>
       </c>
       <c r="J10">
-        <v>0.9091094330155089</v>
+        <v>0.8722151439240722</v>
       </c>
       <c r="K10">
-        <v>1.005821380196299</v>
+        <v>1.014373211231474</v>
       </c>
       <c r="L10">
-        <v>0.9150689828348504</v>
+        <v>0.8798757570288559</v>
       </c>
       <c r="M10">
-        <v>0.9267278739110616</v>
+        <v>0.9841624557550914</v>
       </c>
       <c r="N10">
-        <v>0.9104004726867003</v>
+        <v>0.8734537894729197</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8587166232858573</v>
+        <v>0.8142871846630236</v>
       </c>
       <c r="D11">
-        <v>0.9848172570976363</v>
+        <v>0.9934195228875692</v>
       </c>
       <c r="E11">
-        <v>0.8847791418680238</v>
+        <v>0.8444594471780285</v>
       </c>
       <c r="F11">
-        <v>0.8969077349509942</v>
+        <v>0.9592004955991161</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020688275307329</v>
+        <v>1.032184897974667</v>
       </c>
       <c r="J11">
-        <v>0.8954287126241132</v>
+        <v>0.8541116647306471</v>
       </c>
       <c r="K11">
-        <v>1.000031292317765</v>
+        <v>1.008466613582023</v>
       </c>
       <c r="L11">
-        <v>0.9022586920785666</v>
+        <v>0.8630615188451707</v>
       </c>
       <c r="M11">
-        <v>0.9140762350892988</v>
+        <v>0.974935149051023</v>
       </c>
       <c r="N11">
-        <v>0.8967003241031483</v>
+        <v>0.8553246012625418</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8522887027180241</v>
+        <v>0.8055316015650339</v>
       </c>
       <c r="D12">
-        <v>0.9822693103061919</v>
+        <v>0.9907702140758741</v>
       </c>
       <c r="E12">
-        <v>0.8792943486800714</v>
+        <v>0.8370511817673743</v>
       </c>
       <c r="F12">
-        <v>0.8915091781819254</v>
+        <v>0.9551443587888918</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019157759348083</v>
+        <v>1.031068895703262</v>
       </c>
       <c r="J12">
-        <v>0.8899904336075106</v>
+        <v>0.8466605523301286</v>
       </c>
       <c r="K12">
-        <v>0.997744272774256</v>
+        <v>1.006076404560294</v>
       </c>
       <c r="L12">
-        <v>0.8971675189929997</v>
+        <v>0.8561448576401092</v>
       </c>
       <c r="M12">
-        <v>0.9090585908801121</v>
+        <v>0.9711845130402008</v>
       </c>
       <c r="N12">
-        <v>0.8912543221065627</v>
+        <v>0.84786290742776</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8536893011550046</v>
+        <v>0.8074569576491971</v>
       </c>
       <c r="D13">
-        <v>0.9828230613826835</v>
+        <v>0.9913494386214421</v>
       </c>
       <c r="E13">
-        <v>0.8804889032427921</v>
+        <v>0.838678999783243</v>
       </c>
       <c r="F13">
-        <v>0.892684392852609</v>
+        <v>0.9560325588758066</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019490902019038</v>
+        <v>1.031313340014055</v>
       </c>
       <c r="J13">
-        <v>0.8911751231449754</v>
+        <v>0.8482983089834498</v>
       </c>
       <c r="K13">
-        <v>0.9982417446109653</v>
+        <v>1.006599669658414</v>
       </c>
       <c r="L13">
-        <v>0.8982765348665824</v>
+        <v>0.8576649312559097</v>
       </c>
       <c r="M13">
-        <v>0.9101510732556567</v>
+        <v>0.9720064734688121</v>
       </c>
       <c r="N13">
-        <v>0.8924406940390566</v>
+        <v>0.8495029898833826</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8581948620408634</v>
+        <v>0.8135838894652634</v>
       </c>
       <c r="D14">
-        <v>0.9846098155469321</v>
+        <v>0.9932052755000759</v>
       </c>
       <c r="E14">
-        <v>0.8843336997742176</v>
+        <v>0.8438638383689837</v>
       </c>
       <c r="F14">
-        <v>0.8964690531450136</v>
+        <v>0.958873080419159</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020563893438575</v>
+        <v>1.032094843564748</v>
       </c>
       <c r="J14">
-        <v>0.8949871644322931</v>
+        <v>0.8535128356705718</v>
       </c>
       <c r="K14">
-        <v>0.9998452824901092</v>
+        <v>1.008273616891945</v>
       </c>
       <c r="L14">
-        <v>0.9018453009880681</v>
+        <v>0.862505553559861</v>
       </c>
       <c r="M14">
-        <v>0.9136685890163325</v>
+        <v>0.974632678057003</v>
       </c>
       <c r="N14">
-        <v>0.8962581488622496</v>
+        <v>0.8547249217965147</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8609099610840489</v>
+        <v>0.8172303255307528</v>
       </c>
       <c r="D15">
-        <v>0.9856904730751946</v>
+        <v>0.994318811192584</v>
       </c>
       <c r="E15">
-        <v>0.8866521025463727</v>
+        <v>0.846952939281799</v>
       </c>
       <c r="F15">
-        <v>0.898752736990298</v>
+        <v>0.9605736683140699</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021211416425226</v>
+        <v>1.032562519434605</v>
       </c>
       <c r="J15">
-        <v>0.8972850754183831</v>
+        <v>0.8566182167064207</v>
       </c>
       <c r="K15">
-        <v>1.000813927096144</v>
+        <v>1.009276139213044</v>
       </c>
       <c r="L15">
-        <v>0.9039967233519814</v>
+        <v>0.8653888153961542</v>
       </c>
       <c r="M15">
-        <v>0.9157905450393808</v>
+        <v>0.9762031689656181</v>
       </c>
       <c r="N15">
-        <v>0.8985593231455138</v>
+        <v>0.8578347128296266</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8758912261456909</v>
+        <v>0.8368299693663839</v>
       </c>
       <c r="D16">
-        <v>0.9917051732843231</v>
+        <v>1.000417233141439</v>
       </c>
       <c r="E16">
-        <v>0.8994637076507257</v>
+        <v>0.8635973953490504</v>
       </c>
       <c r="F16">
-        <v>0.9113929499352906</v>
+        <v>0.969839555350791</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024795436295864</v>
+        <v>1.035107278053831</v>
       </c>
       <c r="J16">
-        <v>0.9099733628984055</v>
+        <v>0.8733327476537412</v>
       </c>
       <c r="K16">
-        <v>1.006188702560819</v>
+        <v>1.01474230279215</v>
       </c>
       <c r="L16">
-        <v>0.9158780619133668</v>
+        <v>0.8809141533516434</v>
       </c>
       <c r="M16">
-        <v>0.9275281753560124</v>
+        <v>0.984737236770707</v>
       </c>
       <c r="N16">
-        <v>0.9112656294491246</v>
+        <v>0.874572980328076</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8846616258535613</v>
+        <v>0.847966466889127</v>
       </c>
       <c r="D17">
-        <v>0.9952657601745928</v>
+        <v>1.003965185002362</v>
       </c>
       <c r="E17">
-        <v>0.9069782116492863</v>
+        <v>0.8730832019792498</v>
       </c>
       <c r="F17">
-        <v>0.9188226357250617</v>
+        <v>0.9751954887157805</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026900999170362</v>
+        <v>1.036574809845253</v>
       </c>
       <c r="J17">
-        <v>0.9174075321626908</v>
+        <v>0.8828454921787028</v>
       </c>
       <c r="K17">
-        <v>1.009357310096532</v>
+        <v>1.01790404553209</v>
       </c>
       <c r="L17">
-        <v>0.9228407208498326</v>
+        <v>0.8897542710589108</v>
       </c>
       <c r="M17">
-        <v>0.9344212767926013</v>
+        <v>0.9896528728380408</v>
       </c>
       <c r="N17">
-        <v>0.9187103560864767</v>
+        <v>0.8840992340413899</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8895829097411384</v>
+        <v>0.8541259289130627</v>
       </c>
       <c r="D18">
-        <v>0.9972759649988141</v>
+        <v>1.005952539977217</v>
       </c>
       <c r="E18">
-        <v>0.9111991184323199</v>
+        <v>0.8783379013893169</v>
       </c>
       <c r="F18">
-        <v>0.9230008557895137</v>
+        <v>0.9781851126068986</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028084368700238</v>
+        <v>1.037392608407436</v>
       </c>
       <c r="J18">
-        <v>0.9215806862208257</v>
+        <v>0.888111132169403</v>
       </c>
       <c r="K18">
-        <v>1.01114188508398</v>
+        <v>1.019669309830743</v>
       </c>
       <c r="L18">
-        <v>0.9267495354576593</v>
+        <v>0.8946486945377448</v>
       </c>
       <c r="M18">
-        <v>0.938295686731023</v>
+        <v>0.992391332501072</v>
       </c>
       <c r="N18">
-        <v>0.9228894365020416</v>
+        <v>0.8893723518448541</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8912304714912175</v>
+        <v>0.8561749923597068</v>
       </c>
       <c r="D19">
-        <v>0.9979508759349431</v>
+        <v>1.006617557953315</v>
       </c>
       <c r="E19">
-        <v>0.9126128787027769</v>
+        <v>0.8800872239427001</v>
       </c>
       <c r="F19">
-        <v>0.9244011041007751</v>
+        <v>0.9791838958847783</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028480798267362</v>
+        <v>1.037665579006343</v>
       </c>
       <c r="J19">
-        <v>0.9229780255816836</v>
+        <v>0.8898634716527239</v>
       </c>
       <c r="K19">
-        <v>1.011740340010407</v>
+        <v>1.02025909720794</v>
       </c>
       <c r="L19">
-        <v>0.928058411883624</v>
+        <v>0.8962776565716885</v>
       </c>
       <c r="M19">
-        <v>0.9395937807918083</v>
+        <v>0.9933053517103482</v>
       </c>
       <c r="N19">
-        <v>0.9242887602450689</v>
+        <v>0.8911271798512376</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8837413663659125</v>
+        <v>0.84680789533903</v>
       </c>
       <c r="D20">
-        <v>0.9948908287129369</v>
+        <v>1.003593345966445</v>
       </c>
       <c r="E20">
-        <v>0.9061892596623433</v>
+        <v>0.8720954532169367</v>
       </c>
       <c r="F20">
-        <v>0.9180420550607943</v>
+        <v>0.9746353038541319</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026679853177345</v>
+        <v>1.036421458931282</v>
       </c>
       <c r="J20">
-        <v>0.9166272952461976</v>
+        <v>0.8818553712168843</v>
       </c>
       <c r="K20">
-        <v>1.009024115631507</v>
+        <v>1.017573303632991</v>
       </c>
       <c r="L20">
-        <v>0.9221099320002323</v>
+        <v>0.8888340354042598</v>
       </c>
       <c r="M20">
-        <v>0.9336972886581137</v>
+        <v>0.989139322186533</v>
       </c>
       <c r="N20">
-        <v>0.9179290111440676</v>
+        <v>0.8831077069942369</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8568810725126793</v>
+        <v>0.8118074270569307</v>
       </c>
       <c r="D21">
-        <v>0.9840879639646229</v>
+        <v>0.9926652212150479</v>
       </c>
       <c r="E21">
-        <v>0.8832122636759598</v>
+        <v>0.8423597954265949</v>
       </c>
       <c r="F21">
-        <v>0.8953648261716421</v>
+        <v>0.9580472995592325</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020250814625591</v>
+        <v>1.031867690241078</v>
       </c>
       <c r="J21">
-        <v>0.8938754404852381</v>
+        <v>0.8520004871800113</v>
       </c>
       <c r="K21">
-        <v>0.9993771983047485</v>
+        <v>1.007786898507116</v>
       </c>
       <c r="L21">
-        <v>0.9008044899925732</v>
+        <v>0.8611015256001914</v>
       </c>
       <c r="M21">
-        <v>0.9126424181767926</v>
+        <v>0.9738695892855966</v>
       </c>
       <c r="N21">
-        <v>0.8951448461396734</v>
+        <v>0.8532104255976286</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8374102629746991</v>
+        <v>0.7843420616828041</v>
       </c>
       <c r="D22">
-        <v>0.9764371790048366</v>
+        <v>0.984523120891351</v>
       </c>
       <c r="E22">
-        <v>0.866624197646946</v>
+        <v>0.8191859508229955</v>
       </c>
       <c r="F22">
-        <v>0.8790637254561889</v>
+        <v>0.9455123380753712</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01563185355869</v>
+        <v>1.028416393303323</v>
       </c>
       <c r="J22">
-        <v>0.8774158058940725</v>
+        <v>0.8286662163347841</v>
       </c>
       <c r="K22">
-        <v>0.9924903314190412</v>
+        <v>1.00040754160947</v>
       </c>
       <c r="L22">
-        <v>0.8853983542986893</v>
+        <v>0.8394521429653738</v>
       </c>
       <c r="M22">
-        <v>0.8974829449901233</v>
+        <v>0.9622464117348302</v>
       </c>
       <c r="N22">
-        <v>0.8786618369794418</v>
+        <v>0.8298430174113229</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8480327877962521</v>
+        <v>0.7996151772896317</v>
       </c>
       <c r="D23">
-        <v>0.980591603264149</v>
+        <v>0.9890022832791519</v>
       </c>
       <c r="E23">
-        <v>0.8756664242723807</v>
+        <v>0.8320536402796268</v>
       </c>
       <c r="F23">
-        <v>0.8879419168427424</v>
+        <v>0.9524283920249168</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018146699022502</v>
+        <v>1.030321232685996</v>
       </c>
       <c r="J23">
-        <v>0.8863915634031332</v>
+        <v>0.8416306269078583</v>
       </c>
       <c r="K23">
-        <v>0.9962356184710965</v>
+        <v>1.004476855823825</v>
       </c>
       <c r="L23">
-        <v>0.893798744069214</v>
+        <v>0.8514771422639045</v>
       </c>
       <c r="M23">
-        <v>0.9057418193682399</v>
+        <v>0.9686687748015195</v>
       </c>
       <c r="N23">
-        <v>0.887650341093699</v>
+        <v>0.8428258389344497</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8841577851553452</v>
+        <v>0.8473324244447789</v>
       </c>
       <c r="D24">
-        <v>0.9950604476692708</v>
+        <v>1.003761613624584</v>
       </c>
       <c r="E24">
-        <v>0.9065462481831938</v>
+        <v>0.8725426189206611</v>
       </c>
       <c r="F24">
-        <v>0.9183952402964087</v>
+        <v>0.9748888356851871</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026779916325724</v>
+        <v>1.036490867726592</v>
       </c>
       <c r="J24">
-        <v>0.9169803485251833</v>
+        <v>0.882303623249884</v>
       </c>
       <c r="K24">
-        <v>1.009174866241352</v>
+        <v>1.017722991572207</v>
       </c>
       <c r="L24">
-        <v>0.9224406092332291</v>
+        <v>0.8892506452454421</v>
       </c>
       <c r="M24">
-        <v>0.9340248741769122</v>
+        <v>0.989371764809452</v>
       </c>
       <c r="N24">
-        <v>0.918282565799205</v>
+        <v>0.8835565955965388</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.918488374872097</v>
+        <v>0.8892946322282178</v>
       </c>
       <c r="D25">
-        <v>1.009250133317195</v>
+        <v>1.017625414214935</v>
       </c>
       <c r="E25">
-        <v>0.9360479405438755</v>
+        <v>0.9084410433039477</v>
       </c>
       <c r="F25">
-        <v>0.947667914587536</v>
+        <v>0.9956071365552102</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035050365880977</v>
+        <v>1.042132458484576</v>
       </c>
       <c r="J25">
-        <v>0.9461088707694753</v>
+        <v>0.9182228977818764</v>
       </c>
       <c r="K25">
-        <v>1.021706530134816</v>
+        <v>1.029956143816165</v>
       </c>
       <c r="L25">
-        <v>0.9497273936030307</v>
+        <v>0.9226490594824235</v>
       </c>
       <c r="M25">
-        <v>0.9611368451858038</v>
+        <v>1.008274030996619</v>
       </c>
       <c r="N25">
-        <v>0.9474524538861719</v>
+        <v>0.9195268796183651</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9169924310712696</v>
+        <v>1.035869851284703</v>
       </c>
       <c r="D2">
-        <v>1.027181650187541</v>
+        <v>1.057509520894474</v>
       </c>
       <c r="E2">
-        <v>0.9322520254334821</v>
+        <v>1.047355333165703</v>
       </c>
       <c r="F2">
-        <v>1.009715880650849</v>
+        <v>1.059234387002369</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045925999510345</v>
+        <v>1.060635466941676</v>
       </c>
       <c r="J2">
-        <v>0.9419748963898789</v>
+        <v>1.05702818725195</v>
       </c>
       <c r="K2">
-        <v>1.03827485711621</v>
+        <v>1.068221840359098</v>
       </c>
       <c r="L2">
-        <v>0.9447434845136345</v>
+        <v>1.05819211954374</v>
       </c>
       <c r="M2">
-        <v>1.021041497191645</v>
+        <v>1.06992585799437</v>
       </c>
       <c r="N2">
-        <v>0.9433126087887835</v>
+        <v>1.058529288520675</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9348996826086264</v>
+        <v>1.042562158552681</v>
       </c>
       <c r="D3">
-        <v>1.033513720763353</v>
+        <v>1.062034892990609</v>
       </c>
       <c r="E3">
-        <v>0.947685197410805</v>
+        <v>1.052946074499395</v>
       </c>
       <c r="F3">
-        <v>1.018999232906379</v>
+        <v>1.064801298746447</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048391538809645</v>
+        <v>1.062888349171018</v>
       </c>
       <c r="J3">
-        <v>0.9573373646597855</v>
+        <v>1.061956150160799</v>
       </c>
       <c r="K3">
-        <v>1.043735019118854</v>
+        <v>1.07193109637065</v>
       </c>
       <c r="L3">
-        <v>0.9590343101406694</v>
+        <v>1.062943520158649</v>
       </c>
       <c r="M3">
-        <v>1.029394652123635</v>
+        <v>1.074667107959483</v>
       </c>
       <c r="N3">
-        <v>0.958696893525733</v>
+        <v>1.0634642497021</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9456943186422587</v>
+        <v>1.046780663622036</v>
       </c>
       <c r="D4">
-        <v>1.037384128449137</v>
+        <v>1.06489201778855</v>
       </c>
       <c r="E4">
-        <v>0.9570007338883906</v>
+        <v>1.056475942037052</v>
       </c>
       <c r="F4">
-        <v>1.024650857832187</v>
+        <v>1.068317408450027</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049877728153529</v>
+        <v>1.064298862988107</v>
       </c>
       <c r="J4">
-        <v>0.9665971324786763</v>
+        <v>1.06505896056661</v>
       </c>
       <c r="K4">
-        <v>1.047051362623424</v>
+        <v>1.074265598160499</v>
       </c>
       <c r="L4">
-        <v>0.9676474054970403</v>
+        <v>1.065937380520967</v>
       </c>
       <c r="M4">
-        <v>1.034460600687822</v>
+        <v>1.077655713397395</v>
       </c>
       <c r="N4">
-        <v>0.967969811277037</v>
+        <v>1.066571466454584</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9500678380816802</v>
+        <v>1.048528650400311</v>
       </c>
       <c r="D5">
-        <v>1.038962999081191</v>
+        <v>1.06607687135343</v>
       </c>
       <c r="E5">
-        <v>0.9607773091626506</v>
+        <v>1.057939879975672</v>
       </c>
       <c r="F5">
-        <v>1.026951760474035</v>
+        <v>1.069775929697852</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050479139027895</v>
+        <v>1.06488096486253</v>
       </c>
       <c r="J5">
-        <v>0.9703481641752073</v>
+        <v>1.066343742466065</v>
       </c>
       <c r="K5">
-        <v>1.048399464520783</v>
+        <v>1.075231964531678</v>
       </c>
       <c r="L5">
-        <v>0.9711361979084941</v>
+        <v>1.067177567546181</v>
       </c>
       <c r="M5">
-        <v>1.036518702758072</v>
+        <v>1.078893980653225</v>
       </c>
       <c r="N5">
-        <v>0.9717261698688261</v>
+        <v>1.067858072891704</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9507931496048978</v>
+        <v>1.048820687658296</v>
       </c>
       <c r="D6">
-        <v>1.039225421441093</v>
+        <v>1.066274879259798</v>
       </c>
       <c r="E6">
-        <v>0.9614037435823701</v>
+        <v>1.058184534987991</v>
       </c>
       <c r="F6">
-        <v>1.027333943180051</v>
+        <v>1.070019695908405</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05057881649571</v>
+        <v>1.064978076493519</v>
       </c>
       <c r="J6">
-        <v>0.9709701938714513</v>
+        <v>1.066558337104211</v>
       </c>
       <c r="K6">
-        <v>1.048623259644401</v>
+        <v>1.075393356894121</v>
       </c>
       <c r="L6">
-        <v>0.9717147217639556</v>
+        <v>1.067384743656405</v>
       </c>
       <c r="M6">
-        <v>1.036860306649689</v>
+        <v>1.079100850709638</v>
       </c>
       <c r="N6">
-        <v>0.9723490829185866</v>
+        <v>1.06807297227885</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.945753375312005</v>
+        <v>1.046804118735389</v>
       </c>
       <c r="D7">
-        <v>1.037405407929321</v>
+        <v>1.064907912895294</v>
       </c>
       <c r="E7">
-        <v>0.9570517213523568</v>
+        <v>1.056495580657586</v>
       </c>
       <c r="F7">
-        <v>1.024681885825742</v>
+        <v>1.068336973288532</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049885852914658</v>
+        <v>1.064306683253023</v>
       </c>
       <c r="J7">
-        <v>0.9666477865379172</v>
+        <v>1.065076203875508</v>
       </c>
       <c r="K7">
-        <v>1.047069550387515</v>
+        <v>1.07427856912967</v>
       </c>
       <c r="L7">
-        <v>0.9676945194997344</v>
+        <v>1.065954023282038</v>
       </c>
       <c r="M7">
-        <v>1.034488371490282</v>
+        <v>1.077672329400654</v>
       </c>
       <c r="N7">
-        <v>0.9680205372708518</v>
+        <v>1.06658873425096</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9232255712729086</v>
+        <v>1.038155527883344</v>
       </c>
       <c r="D8">
-        <v>1.029372687776028</v>
+        <v>1.059054072586925</v>
       </c>
       <c r="E8">
-        <v>0.9376208736846665</v>
+        <v>1.049263525060757</v>
       </c>
       <c r="F8">
-        <v>1.012933611716962</v>
+        <v>1.061134162225386</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04678371571145</v>
+        <v>1.061406893848268</v>
       </c>
       <c r="J8">
-        <v>0.9473221347733122</v>
+        <v>1.058711983384196</v>
       </c>
       <c r="K8">
-        <v>1.040168959977772</v>
+        <v>1.069489399785867</v>
       </c>
       <c r="L8">
-        <v>0.9497178000254644</v>
+        <v>1.059815110774032</v>
       </c>
       <c r="M8">
-        <v>1.023941193295427</v>
+        <v>1.07154513110675</v>
       </c>
       <c r="N8">
-        <v>0.9486674408640579</v>
+        <v>1.060215475836564</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8758645665029091</v>
+        <v>1.021994807877193</v>
       </c>
       <c r="D9">
-        <v>1.013104167519509</v>
+        <v>1.048158387268566</v>
       </c>
       <c r="E9">
-        <v>0.8969264485261202</v>
+        <v>1.035800021063702</v>
       </c>
       <c r="F9">
-        <v>0.9888856078707308</v>
+        <v>1.047736448937318</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040309766778601</v>
+        <v>1.055914002641303</v>
       </c>
       <c r="J9">
-        <v>0.9067158562309269</v>
+        <v>1.046794084714751</v>
       </c>
       <c r="K9">
-        <v>1.025988157188049</v>
+        <v>1.060515626222647</v>
       </c>
       <c r="L9">
-        <v>0.9119469775966887</v>
+        <v>1.048337793794913</v>
       </c>
       <c r="M9">
-        <v>1.002161619488668</v>
+        <v>1.060099762698147</v>
       </c>
       <c r="N9">
-        <v>0.9080034967485372</v>
+        <v>1.048280652384005</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8355207839947576</v>
+        <v>1.010503098477832</v>
       </c>
       <c r="D10">
-        <v>1.00000402953882</v>
+        <v>1.040449124726777</v>
       </c>
       <c r="E10">
-        <v>0.862483566858952</v>
+        <v>1.02626681864919</v>
       </c>
       <c r="F10">
-        <v>0.9692141802522939</v>
+        <v>1.038259115899112</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034935742057601</v>
+        <v>1.051961899566504</v>
       </c>
       <c r="J10">
-        <v>0.8722151439240722</v>
+        <v>1.038306109499944</v>
       </c>
       <c r="K10">
-        <v>1.014373211231474</v>
+        <v>1.054124543769605</v>
       </c>
       <c r="L10">
-        <v>0.8798757570288559</v>
+        <v>1.040177478036299</v>
       </c>
       <c r="M10">
-        <v>0.9841624557550914</v>
+        <v>1.051970320932222</v>
       </c>
       <c r="N10">
-        <v>0.8734537894729197</v>
+        <v>1.03978062327081</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8142871846630236</v>
+        <v>1.005331600551504</v>
       </c>
       <c r="D11">
-        <v>0.9934195228875692</v>
+        <v>1.036991307537812</v>
       </c>
       <c r="E11">
-        <v>0.8444594471780285</v>
+        <v>1.021987909816868</v>
       </c>
       <c r="F11">
-        <v>0.9592004955991161</v>
+        <v>1.034007884882794</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032184897974667</v>
+        <v>1.050173496296692</v>
       </c>
       <c r="J11">
-        <v>0.8541116647306471</v>
+        <v>1.0344842485381</v>
       </c>
       <c r="K11">
-        <v>1.008466613582023</v>
+        <v>1.051247785609855</v>
       </c>
       <c r="L11">
-        <v>0.8630615188451707</v>
+        <v>1.036506746844251</v>
       </c>
       <c r="M11">
-        <v>0.974935149051023</v>
+        <v>1.048315748453985</v>
       </c>
       <c r="N11">
-        <v>0.8553246012625418</v>
+        <v>1.035953334828026</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8055316015650339</v>
+        <v>1.003378877733363</v>
       </c>
       <c r="D12">
-        <v>0.9907702140758741</v>
+        <v>1.035687607929602</v>
       </c>
       <c r="E12">
-        <v>0.8370511817673743</v>
+        <v>1.020374058864632</v>
       </c>
       <c r="F12">
-        <v>0.9551443587888918</v>
+        <v>1.032404901386096</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031068895703262</v>
+        <v>1.049496824474564</v>
       </c>
       <c r="J12">
-        <v>0.8466605523301286</v>
+        <v>1.033040922608686</v>
       </c>
       <c r="K12">
-        <v>1.006076404560294</v>
+        <v>1.050161604952721</v>
       </c>
       <c r="L12">
-        <v>0.8561448576401092</v>
+        <v>1.035121063760937</v>
       </c>
       <c r="M12">
-        <v>0.9711845130402008</v>
+        <v>1.046936537834893</v>
       </c>
       <c r="N12">
-        <v>0.84786290742776</v>
+        <v>1.034507959210241</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8074569576491971</v>
+        <v>1.003799224207499</v>
       </c>
       <c r="D13">
-        <v>0.9913494386214421</v>
+        <v>1.035968152818413</v>
       </c>
       <c r="E13">
-        <v>0.838678999783243</v>
+        <v>1.020721373736745</v>
       </c>
       <c r="F13">
-        <v>0.9560325588758066</v>
+        <v>1.032749857501717</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031313340014055</v>
+        <v>1.049642546726656</v>
       </c>
       <c r="J13">
-        <v>0.8482983089834498</v>
+        <v>1.0333516235406</v>
       </c>
       <c r="K13">
-        <v>1.006599669658414</v>
+        <v>1.050395412459318</v>
       </c>
       <c r="L13">
-        <v>0.8576649312559097</v>
+        <v>1.035419329909008</v>
       </c>
       <c r="M13">
-        <v>0.9720064734688121</v>
+        <v>1.047233393434573</v>
       </c>
       <c r="N13">
-        <v>0.8495029898833826</v>
+        <v>1.034819101373115</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8135838894652634</v>
+        <v>1.005170851520055</v>
       </c>
       <c r="D14">
-        <v>0.9932052755000759</v>
+        <v>1.036883945505399</v>
       </c>
       <c r="E14">
-        <v>0.8438638383689837</v>
+        <v>1.021855018694218</v>
       </c>
       <c r="F14">
-        <v>0.958873080419159</v>
+        <v>1.033875879705639</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032094843564748</v>
+        <v>1.050117819812357</v>
       </c>
       <c r="J14">
-        <v>0.8535128356705718</v>
+        <v>1.034365437091215</v>
       </c>
       <c r="K14">
-        <v>1.008273616891945</v>
+        <v>1.051158368453723</v>
       </c>
       <c r="L14">
-        <v>0.862505553559861</v>
+        <v>1.036392668716727</v>
       </c>
       <c r="M14">
-        <v>0.974632678057003</v>
+        <v>1.048202195426154</v>
       </c>
       <c r="N14">
-        <v>0.8547249217965147</v>
+        <v>1.035834354655258</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8172303255307528</v>
+        <v>1.006011665745514</v>
       </c>
       <c r="D15">
-        <v>0.994318811192584</v>
+        <v>1.037445594223441</v>
       </c>
       <c r="E15">
-        <v>0.846952939281799</v>
+        <v>1.022550194911331</v>
       </c>
       <c r="F15">
-        <v>0.9605736683140699</v>
+        <v>1.034566439057715</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032562519434605</v>
+        <v>1.050408985720883</v>
       </c>
       <c r="J15">
-        <v>0.8566182167064207</v>
+        <v>1.034986884283996</v>
       </c>
       <c r="K15">
-        <v>1.009276139213044</v>
+        <v>1.051626077609362</v>
       </c>
       <c r="L15">
-        <v>0.8653888153961542</v>
+        <v>1.036989381436634</v>
       </c>
       <c r="M15">
-        <v>0.9762031689656181</v>
+        <v>1.04879617684282</v>
       </c>
       <c r="N15">
-        <v>0.8578347128296266</v>
+        <v>1.036456684374335</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8368299693663839</v>
+        <v>1.01084199353702</v>
       </c>
       <c r="D16">
-        <v>1.000417233141439</v>
+        <v>1.040675976781597</v>
       </c>
       <c r="E16">
-        <v>0.8635973953490504</v>
+        <v>1.026547466274984</v>
       </c>
       <c r="F16">
-        <v>0.969839555350791</v>
+        <v>1.038538005273894</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035107278053831</v>
+        <v>1.052078899409716</v>
       </c>
       <c r="J16">
-        <v>0.8733327476537412</v>
+        <v>1.038556525575501</v>
       </c>
       <c r="K16">
-        <v>1.01474230279215</v>
+        <v>1.054313061352638</v>
       </c>
       <c r="L16">
-        <v>0.8809141533516434</v>
+        <v>1.040418068685555</v>
       </c>
       <c r="M16">
-        <v>0.984737236770707</v>
+        <v>1.052209902186575</v>
       </c>
       <c r="N16">
-        <v>0.874572980328076</v>
+        <v>1.040031394965917</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.847966466889127</v>
+        <v>1.013817955596662</v>
       </c>
       <c r="D17">
-        <v>1.003965185002362</v>
+        <v>1.042669374744998</v>
       </c>
       <c r="E17">
-        <v>0.8730832019792498</v>
+        <v>1.029013223011322</v>
       </c>
       <c r="F17">
-        <v>0.9751954887157805</v>
+        <v>1.040988613085706</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036574809845253</v>
+        <v>1.053105211376564</v>
       </c>
       <c r="J17">
-        <v>0.8828454921787028</v>
+        <v>1.040755294148794</v>
       </c>
       <c r="K17">
-        <v>1.01790404553209</v>
+        <v>1.055968448610594</v>
       </c>
       <c r="L17">
-        <v>0.8897542710589108</v>
+        <v>1.042530975459146</v>
       </c>
       <c r="M17">
-        <v>0.9896528728380408</v>
+        <v>1.054314204859034</v>
       </c>
       <c r="N17">
-        <v>0.8840992340413899</v>
+        <v>1.042233286042786</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8541259289130627</v>
+        <v>1.015535096988901</v>
       </c>
       <c r="D18">
-        <v>1.005952539977217</v>
+        <v>1.043820642207645</v>
       </c>
       <c r="E18">
-        <v>0.8783379013893169</v>
+        <v>1.030437021494362</v>
       </c>
       <c r="F18">
-        <v>0.9781851126068986</v>
+        <v>1.042403907141626</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037392608407436</v>
+        <v>1.053696458965439</v>
       </c>
       <c r="J18">
-        <v>0.888111132169403</v>
+        <v>1.042023786775575</v>
       </c>
       <c r="K18">
-        <v>1.019669309830743</v>
+        <v>1.056923541481789</v>
       </c>
       <c r="L18">
-        <v>0.8946486945377448</v>
+        <v>1.043750270375836</v>
       </c>
       <c r="M18">
-        <v>0.992391332501072</v>
+        <v>1.055528746555489</v>
       </c>
       <c r="N18">
-        <v>0.8893723518448541</v>
+        <v>1.043503580074596</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8561749923597068</v>
+        <v>1.016117497603932</v>
       </c>
       <c r="D19">
-        <v>1.006617557953315</v>
+        <v>1.044211291249021</v>
       </c>
       <c r="E19">
-        <v>0.8800872239427001</v>
+        <v>1.030920102827987</v>
       </c>
       <c r="F19">
-        <v>0.9791838958847783</v>
+        <v>1.042884143164135</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037665579006343</v>
+        <v>1.053896829613577</v>
       </c>
       <c r="J19">
-        <v>0.8898634716527239</v>
+        <v>1.042453982176487</v>
       </c>
       <c r="K19">
-        <v>1.02025909720794</v>
+        <v>1.057247462365425</v>
       </c>
       <c r="L19">
-        <v>0.8962776565716885</v>
+        <v>1.044163837250839</v>
       </c>
       <c r="M19">
-        <v>0.9933053517103482</v>
+        <v>1.055940736273566</v>
       </c>
       <c r="N19">
-        <v>0.8911271798512376</v>
+        <v>1.043934386402321</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.84680789533903</v>
+        <v>1.013500612592293</v>
       </c>
       <c r="D20">
-        <v>1.003593345966445</v>
+        <v>1.042456695325735</v>
       </c>
       <c r="E20">
-        <v>0.8720954532169367</v>
+        <v>1.028750176152428</v>
       </c>
       <c r="F20">
-        <v>0.9746353038541319</v>
+        <v>1.040727156826567</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036421458931282</v>
+        <v>1.052995866923164</v>
       </c>
       <c r="J20">
-        <v>0.8818553712168843</v>
+        <v>1.04052084814669</v>
       </c>
       <c r="K20">
-        <v>1.017573303632991</v>
+        <v>1.055791932042469</v>
       </c>
       <c r="L20">
-        <v>0.8888340354042598</v>
+        <v>1.042305649377065</v>
       </c>
       <c r="M20">
-        <v>0.989139322186533</v>
+        <v>1.054089774114367</v>
       </c>
       <c r="N20">
-        <v>0.8831077069942369</v>
+        <v>1.041998507100468</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8118074270569307</v>
+        <v>1.004767840065498</v>
       </c>
       <c r="D21">
-        <v>0.9926652212150479</v>
+        <v>1.036614811925414</v>
       </c>
       <c r="E21">
-        <v>0.8423597954265949</v>
+        <v>1.021521879458822</v>
       </c>
       <c r="F21">
-        <v>0.9580472995592325</v>
+        <v>1.033544968438603</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031867690241078</v>
+        <v>1.049978212256411</v>
       </c>
       <c r="J21">
-        <v>0.8520004871800113</v>
+        <v>1.034067563580212</v>
       </c>
       <c r="K21">
-        <v>1.007786898507116</v>
+        <v>1.050934193658825</v>
       </c>
       <c r="L21">
-        <v>0.8611015256001914</v>
+        <v>1.036106671415164</v>
       </c>
       <c r="M21">
-        <v>0.9738695892855966</v>
+        <v>1.047917520673346</v>
       </c>
       <c r="N21">
-        <v>0.8532104255976286</v>
+        <v>1.035536058129703</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7843420616828041</v>
+        <v>0.9990918206483274</v>
       </c>
       <c r="D22">
-        <v>0.984523120891351</v>
+        <v>1.032829285505826</v>
       </c>
       <c r="E22">
-        <v>0.8191859508229955</v>
+        <v>1.016834532183537</v>
       </c>
       <c r="F22">
-        <v>0.9455123380753712</v>
+        <v>1.028890043177843</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028416393303323</v>
+        <v>1.048008813747001</v>
       </c>
       <c r="J22">
-        <v>0.8286662163347841</v>
+        <v>1.029871926307045</v>
       </c>
       <c r="K22">
-        <v>1.00040754160947</v>
+        <v>1.047777284492574</v>
       </c>
       <c r="L22">
-        <v>0.8394521429653738</v>
+        <v>1.032079711356647</v>
       </c>
       <c r="M22">
-        <v>0.9622464117348302</v>
+        <v>1.043910115485807</v>
       </c>
       <c r="N22">
-        <v>0.8298430174113229</v>
+        <v>1.031334462570362</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7996151772896317</v>
+        <v>1.002119239519254</v>
       </c>
       <c r="D23">
-        <v>0.9890022832791519</v>
+        <v>1.034847212151903</v>
       </c>
       <c r="E23">
-        <v>0.8320536402796268</v>
+        <v>1.019333553490863</v>
       </c>
       <c r="F23">
-        <v>0.9524283920249168</v>
+        <v>1.031371528384849</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030321232685996</v>
+        <v>1.049059949092568</v>
       </c>
       <c r="J23">
-        <v>0.8416306269078583</v>
+        <v>1.032109831860232</v>
       </c>
       <c r="K23">
-        <v>1.004476855823825</v>
+        <v>1.049460984336648</v>
       </c>
       <c r="L23">
-        <v>0.8514771422639045</v>
+        <v>1.03422732256419</v>
       </c>
       <c r="M23">
-        <v>0.9686687748015195</v>
+        <v>1.046047080486156</v>
       </c>
       <c r="N23">
-        <v>0.8428258389344497</v>
+        <v>1.033575546206126</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8473324244447789</v>
+        <v>1.013644063804724</v>
       </c>
       <c r="D24">
-        <v>1.003761613624584</v>
+        <v>1.04255283127934</v>
       </c>
       <c r="E24">
-        <v>0.8725426189206611</v>
+        <v>1.028869080183424</v>
       </c>
       <c r="F24">
-        <v>0.9748888356851871</v>
+        <v>1.040845341113721</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036490867726592</v>
+        <v>1.053045297731335</v>
       </c>
       <c r="J24">
-        <v>0.882303623249884</v>
+        <v>1.04062682737815</v>
       </c>
       <c r="K24">
-        <v>1.017722991572207</v>
+        <v>1.055871724538071</v>
       </c>
       <c r="L24">
-        <v>0.8892506452454421</v>
+        <v>1.042407504986031</v>
       </c>
       <c r="M24">
-        <v>0.989371764809452</v>
+        <v>1.05419122434256</v>
       </c>
       <c r="N24">
-        <v>0.8835565955965388</v>
+        <v>1.042104636834592</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8892946322282178</v>
+        <v>1.026291450744482</v>
       </c>
       <c r="D25">
-        <v>1.017625414214935</v>
+        <v>1.051049345790726</v>
       </c>
       <c r="E25">
-        <v>0.9084410433039477</v>
+        <v>1.039373108966382</v>
       </c>
       <c r="F25">
-        <v>0.9956071365552102</v>
+        <v>1.051290606585722</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042132458484576</v>
+        <v>1.057382615559037</v>
       </c>
       <c r="J25">
-        <v>0.9182228977818764</v>
+        <v>1.049965280627967</v>
       </c>
       <c r="K25">
-        <v>1.029956143816165</v>
+        <v>1.062903696995021</v>
       </c>
       <c r="L25">
-        <v>0.9226490594824235</v>
+        <v>1.051389477432636</v>
       </c>
       <c r="M25">
-        <v>1.008274030996619</v>
+        <v>1.063141657894068</v>
       </c>
       <c r="N25">
-        <v>0.9195268796183651</v>
+        <v>1.05145635175916</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.035869851284703</v>
+        <v>1.072547900429899</v>
       </c>
       <c r="D2">
-        <v>1.057509520894474</v>
+        <v>1.073573566595749</v>
       </c>
       <c r="E2">
-        <v>1.047355333165703</v>
+        <v>1.076313147356533</v>
       </c>
       <c r="F2">
-        <v>1.059234387002369</v>
+        <v>1.085891919818932</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060635466941676</v>
+        <v>1.055202800220539</v>
       </c>
       <c r="J2">
-        <v>1.05702818725195</v>
+        <v>1.077466893430117</v>
       </c>
       <c r="K2">
-        <v>1.068221840359098</v>
+        <v>1.076265068450713</v>
       </c>
       <c r="L2">
-        <v>1.05819211954374</v>
+        <v>1.078997408825591</v>
       </c>
       <c r="M2">
-        <v>1.06992585799437</v>
+        <v>1.088551175733921</v>
       </c>
       <c r="N2">
-        <v>1.058529288520675</v>
+        <v>1.078997020005968</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.042562158552681</v>
+        <v>1.073919608752115</v>
       </c>
       <c r="D3">
-        <v>1.062034892990609</v>
+        <v>1.074503739208428</v>
       </c>
       <c r="E3">
-        <v>1.052946074499395</v>
+        <v>1.07750022718533</v>
       </c>
       <c r="F3">
-        <v>1.064801298746447</v>
+        <v>1.087074793978532</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062888349171018</v>
+        <v>1.05559230270504</v>
       </c>
       <c r="J3">
-        <v>1.061956150160799</v>
+        <v>1.078494969104629</v>
       </c>
       <c r="K3">
-        <v>1.07193109637065</v>
+        <v>1.077011923151688</v>
       </c>
       <c r="L3">
-        <v>1.062943520158649</v>
+        <v>1.080001065207994</v>
       </c>
       <c r="M3">
-        <v>1.074667107959483</v>
+        <v>1.089552451524885</v>
       </c>
       <c r="N3">
-        <v>1.0634642497021</v>
+        <v>1.080026555665859</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.046780663622036</v>
+        <v>1.074806752152627</v>
       </c>
       <c r="D4">
-        <v>1.06489201778855</v>
+        <v>1.075105222314382</v>
       </c>
       <c r="E4">
-        <v>1.056475942037052</v>
+        <v>1.078268172485991</v>
       </c>
       <c r="F4">
-        <v>1.068317408450027</v>
+        <v>1.08784009917592</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064298862988107</v>
+        <v>1.055842896935975</v>
       </c>
       <c r="J4">
-        <v>1.06505896056661</v>
+        <v>1.079159254354905</v>
       </c>
       <c r="K4">
-        <v>1.074265598160499</v>
+        <v>1.077494156752617</v>
       </c>
       <c r="L4">
-        <v>1.065937380520967</v>
+        <v>1.080649743858838</v>
       </c>
       <c r="M4">
-        <v>1.077655713397395</v>
+        <v>1.090199667415747</v>
       </c>
       <c r="N4">
-        <v>1.066571466454584</v>
+        <v>1.080691784277386</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.048528650400311</v>
+        <v>1.075179604664979</v>
       </c>
       <c r="D5">
-        <v>1.06607687135343</v>
+        <v>1.075357991004961</v>
       </c>
       <c r="E5">
-        <v>1.057939879975672</v>
+        <v>1.078590977126341</v>
       </c>
       <c r="F5">
-        <v>1.069775929697852</v>
+        <v>1.088161813094164</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06488096486253</v>
+        <v>1.055947902905047</v>
       </c>
       <c r="J5">
-        <v>1.066343742466065</v>
+        <v>1.079438295212492</v>
       </c>
       <c r="K5">
-        <v>1.075231964531678</v>
+        <v>1.077696642095048</v>
       </c>
       <c r="L5">
-        <v>1.067177567546181</v>
+        <v>1.080922269930159</v>
       </c>
       <c r="M5">
-        <v>1.078893980653225</v>
+        <v>1.090471596887072</v>
       </c>
       <c r="N5">
-        <v>1.067858072891704</v>
+        <v>1.080971221404997</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.048820687658296</v>
+        <v>1.075242202332827</v>
       </c>
       <c r="D6">
-        <v>1.066274879259798</v>
+        <v>1.075400426453796</v>
       </c>
       <c r="E6">
-        <v>1.058184534987991</v>
+        <v>1.07864517519157</v>
       </c>
       <c r="F6">
-        <v>1.070019695908405</v>
+        <v>1.088215829138977</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064978076493519</v>
+        <v>1.055965513731415</v>
       </c>
       <c r="J6">
-        <v>1.066558337104211</v>
+        <v>1.079485134295742</v>
       </c>
       <c r="K6">
-        <v>1.075393356894121</v>
+        <v>1.077730625905138</v>
       </c>
       <c r="L6">
-        <v>1.067384743656405</v>
+        <v>1.0809680178545</v>
       </c>
       <c r="M6">
-        <v>1.079100850709638</v>
+        <v>1.090517245708292</v>
       </c>
       <c r="N6">
-        <v>1.06807297227885</v>
+        <v>1.081018127005118</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.046804118735389</v>
+        <v>1.074811734624664</v>
       </c>
       <c r="D7">
-        <v>1.064907912895294</v>
+        <v>1.075108600193112</v>
       </c>
       <c r="E7">
-        <v>1.056495580657586</v>
+        <v>1.078272485970033</v>
       </c>
       <c r="F7">
-        <v>1.068336973288532</v>
+        <v>1.087844398010666</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064306683253023</v>
+        <v>1.055844301380863</v>
       </c>
       <c r="J7">
-        <v>1.065076203875508</v>
+        <v>1.079162983792281</v>
       </c>
       <c r="K7">
-        <v>1.07427856912967</v>
+        <v>1.077496863335424</v>
       </c>
       <c r="L7">
-        <v>1.065954023282038</v>
+        <v>1.08065338606404</v>
       </c>
       <c r="M7">
-        <v>1.077672329400654</v>
+        <v>1.090203301577373</v>
       </c>
       <c r="N7">
-        <v>1.06658873425096</v>
+        <v>1.080695519010991</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C8">
-        <v>1.038155527883344</v>
+        <v>1.073011569716424</v>
       </c>
       <c r="D8">
-        <v>1.059054072586925</v>
+        <v>1.073888006455632</v>
       </c>
       <c r="E8">
-        <v>1.049263525060757</v>
+        <v>1.076714364086426</v>
       </c>
       <c r="F8">
-        <v>1.061134162225386</v>
+        <v>1.086291698236441</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061406893848268</v>
+        <v>1.055334733081303</v>
       </c>
       <c r="J8">
-        <v>1.058711983384196</v>
+        <v>1.077814534248631</v>
       </c>
       <c r="K8">
-        <v>1.069489399785867</v>
+        <v>1.076517685785305</v>
       </c>
       <c r="L8">
-        <v>1.059815110774032</v>
+        <v>1.079336756620368</v>
       </c>
       <c r="M8">
-        <v>1.07154513110675</v>
+        <v>1.088889702774091</v>
       </c>
       <c r="N8">
-        <v>1.060215475836564</v>
+        <v>1.079345154514319</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.021994807877193</v>
+        <v>1.069835889049304</v>
       </c>
       <c r="D9">
-        <v>1.048158387268566</v>
+        <v>1.071734043266825</v>
       </c>
       <c r="E9">
-        <v>1.035800021063702</v>
+        <v>1.073967314174465</v>
       </c>
       <c r="F9">
-        <v>1.047736448937318</v>
+        <v>1.083554837173796</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055914002641303</v>
+        <v>1.054425741151816</v>
       </c>
       <c r="J9">
-        <v>1.046794084714751</v>
+        <v>1.075431021989251</v>
       </c>
       <c r="K9">
-        <v>1.060515626222647</v>
+        <v>1.074784295101359</v>
       </c>
       <c r="L9">
-        <v>1.048337793794913</v>
+        <v>1.077010816665652</v>
       </c>
       <c r="M9">
-        <v>1.060099762698147</v>
+        <v>1.086569708659989</v>
       </c>
       <c r="N9">
-        <v>1.048280652384005</v>
+        <v>1.076958257394138</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.010503098477832</v>
+        <v>1.067716145875075</v>
       </c>
       <c r="D10">
-        <v>1.040449124726777</v>
+        <v>1.070295894530618</v>
       </c>
       <c r="E10">
-        <v>1.02626681864919</v>
+        <v>1.072134834565536</v>
       </c>
       <c r="F10">
-        <v>1.038259115899112</v>
+        <v>1.081729593441593</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051961899566504</v>
+        <v>1.053812249059347</v>
       </c>
       <c r="J10">
-        <v>1.038306109499944</v>
+        <v>1.073836904648845</v>
       </c>
       <c r="K10">
-        <v>1.054124543769605</v>
+        <v>1.073623272626794</v>
       </c>
       <c r="L10">
-        <v>1.040177478036299</v>
+        <v>1.075456108270368</v>
       </c>
       <c r="M10">
-        <v>1.051970320932222</v>
+        <v>1.085019386165857</v>
       </c>
       <c r="N10">
-        <v>1.03978062327081</v>
+        <v>1.075361876224261</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.005331600551504</v>
+        <v>1.066797600057536</v>
       </c>
       <c r="D11">
-        <v>1.036991307537812</v>
+        <v>1.069672627294882</v>
       </c>
       <c r="E11">
-        <v>1.021987909816868</v>
+        <v>1.071341053735281</v>
       </c>
       <c r="F11">
-        <v>1.034007884882794</v>
+        <v>1.080939054639783</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050173496296692</v>
+        <v>1.053544808974473</v>
       </c>
       <c r="J11">
-        <v>1.0344842485381</v>
+        <v>1.073145387808049</v>
       </c>
       <c r="K11">
-        <v>1.051247785609855</v>
+        <v>1.073119230913392</v>
       </c>
       <c r="L11">
-        <v>1.036506746844251</v>
+        <v>1.074781903616518</v>
       </c>
       <c r="M11">
-        <v>1.048315748453985</v>
+        <v>1.084347184009574</v>
       </c>
       <c r="N11">
-        <v>1.035953334828026</v>
+        <v>1.074669377350233</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.003378877733363</v>
+        <v>1.066456304099269</v>
       </c>
       <c r="D12">
-        <v>1.035687607929602</v>
+        <v>1.069441035457459</v>
       </c>
       <c r="E12">
-        <v>1.020374058864632</v>
+        <v>1.07104615942919</v>
       </c>
       <c r="F12">
-        <v>1.032404901386096</v>
+        <v>1.080645381231323</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049496824474564</v>
+        <v>1.053445199118291</v>
       </c>
       <c r="J12">
-        <v>1.033040922608686</v>
+        <v>1.072888336266364</v>
       </c>
       <c r="K12">
-        <v>1.050161604952721</v>
+        <v>1.072931808679845</v>
       </c>
       <c r="L12">
-        <v>1.035121063760937</v>
+        <v>1.074531320173284</v>
       </c>
       <c r="M12">
-        <v>1.046936537834893</v>
+        <v>1.084097360190085</v>
       </c>
       <c r="N12">
-        <v>1.034507959210241</v>
+        <v>1.074411960765874</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.003799224207499</v>
+        <v>1.066529518162168</v>
       </c>
       <c r="D13">
-        <v>1.035968152818413</v>
+        <v>1.069490716458047</v>
       </c>
       <c r="E13">
-        <v>1.020721373736745</v>
+        <v>1.071109417512687</v>
       </c>
       <c r="F13">
-        <v>1.032749857501717</v>
+        <v>1.08070837666906</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049642546726656</v>
+        <v>1.053466578039336</v>
       </c>
       <c r="J13">
-        <v>1.0333516235406</v>
+        <v>1.072943483405209</v>
       </c>
       <c r="K13">
-        <v>1.050395412459318</v>
+        <v>1.072972020403894</v>
       </c>
       <c r="L13">
-        <v>1.035419329909008</v>
+        <v>1.074585078176885</v>
       </c>
       <c r="M13">
-        <v>1.047233393434573</v>
+        <v>1.084150954532077</v>
       </c>
       <c r="N13">
-        <v>1.034819101373115</v>
+        <v>1.074467186219982</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.005170851520055</v>
+        <v>1.06676939063908</v>
       </c>
       <c r="D14">
-        <v>1.036883945505399</v>
+        <v>1.06965348553641</v>
       </c>
       <c r="E14">
-        <v>1.021855018694218</v>
+        <v>1.071316678691683</v>
       </c>
       <c r="F14">
-        <v>1.033875879705639</v>
+        <v>1.080914780174226</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050117819812357</v>
+        <v>1.053536580721737</v>
       </c>
       <c r="J14">
-        <v>1.034365437091215</v>
+        <v>1.073124143769679</v>
       </c>
       <c r="K14">
-        <v>1.051158368453723</v>
+        <v>1.07310374259629</v>
       </c>
       <c r="L14">
-        <v>1.036392668716727</v>
+        <v>1.074761193464542</v>
       </c>
       <c r="M14">
-        <v>1.048202195426154</v>
+        <v>1.084326536324278</v>
       </c>
       <c r="N14">
-        <v>1.035834354655258</v>
+        <v>1.074648103142892</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.006011665745514</v>
+        <v>1.06691716965573</v>
       </c>
       <c r="D15">
-        <v>1.037445594223441</v>
+        <v>1.069753761939496</v>
       </c>
       <c r="E15">
-        <v>1.022550194911331</v>
+        <v>1.071444372595162</v>
       </c>
       <c r="F15">
-        <v>1.034566439057715</v>
+        <v>1.081041947853991</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050408985720883</v>
+        <v>1.053579675778917</v>
       </c>
       <c r="J15">
-        <v>1.034986884283996</v>
+        <v>1.073235429128711</v>
       </c>
       <c r="K15">
-        <v>1.051626077609362</v>
+        <v>1.073184874606257</v>
       </c>
       <c r="L15">
-        <v>1.036989381436634</v>
+        <v>1.074869683441948</v>
       </c>
       <c r="M15">
-        <v>1.04879617684282</v>
+        <v>1.084434699700371</v>
       </c>
       <c r="N15">
-        <v>1.036456684374335</v>
+        <v>1.074759546539898</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.01084199353702</v>
+        <v>1.067777091959183</v>
       </c>
       <c r="D16">
-        <v>1.040675976781597</v>
+        <v>1.070337247224304</v>
       </c>
       <c r="E16">
-        <v>1.026547466274984</v>
+        <v>1.072187508507799</v>
       </c>
       <c r="F16">
-        <v>1.038538005273894</v>
+        <v>1.081782054540908</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052078899409716</v>
+        <v>1.053829960279804</v>
       </c>
       <c r="J16">
-        <v>1.038556525575501</v>
+        <v>1.07388277167218</v>
       </c>
       <c r="K16">
-        <v>1.054313061352638</v>
+        <v>1.073656696443433</v>
       </c>
       <c r="L16">
-        <v>1.040418068685555</v>
+        <v>1.075500831592229</v>
       </c>
       <c r="M16">
-        <v>1.052209902186575</v>
+        <v>1.08506397879009</v>
       </c>
       <c r="N16">
-        <v>1.040031394965917</v>
+        <v>1.07540780838403</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.013817955596662</v>
+        <v>1.068316312443149</v>
       </c>
       <c r="D17">
-        <v>1.042669374744998</v>
+        <v>1.070703106600565</v>
       </c>
       <c r="E17">
-        <v>1.029013223011322</v>
+        <v>1.072653574292452</v>
       </c>
       <c r="F17">
-        <v>1.040988613085706</v>
+        <v>1.082246249532959</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053105211376564</v>
+        <v>1.053986476009724</v>
       </c>
       <c r="J17">
-        <v>1.040755294148794</v>
+        <v>1.074288494781322</v>
       </c>
       <c r="K17">
-        <v>1.055968448610594</v>
+        <v>1.0739523055498</v>
       </c>
       <c r="L17">
-        <v>1.042530975459146</v>
+        <v>1.075896462986653</v>
       </c>
       <c r="M17">
-        <v>1.054314204859034</v>
+        <v>1.085458465643219</v>
       </c>
       <c r="N17">
-        <v>1.042233286042786</v>
+        <v>1.075814107666525</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.015535096988901</v>
+        <v>1.068630765033047</v>
       </c>
       <c r="D18">
-        <v>1.043820642207645</v>
+        <v>1.070916454256206</v>
       </c>
       <c r="E18">
-        <v>1.030437021494362</v>
+        <v>1.072925393344529</v>
       </c>
       <c r="F18">
-        <v>1.042403907141626</v>
+        <v>1.082516987864468</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053696458965439</v>
+        <v>1.054077595976145</v>
       </c>
       <c r="J18">
-        <v>1.042023786775575</v>
+        <v>1.074525025469778</v>
       </c>
       <c r="K18">
-        <v>1.056923541481789</v>
+        <v>1.074124602932176</v>
       </c>
       <c r="L18">
-        <v>1.043750270375836</v>
+        <v>1.076127131239676</v>
       </c>
       <c r="M18">
-        <v>1.055528746555489</v>
+        <v>1.085688476260093</v>
       </c>
       <c r="N18">
-        <v>1.043503580074596</v>
+        <v>1.076050974255688</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.016117497603932</v>
+        <v>1.068737974250115</v>
       </c>
       <c r="D19">
-        <v>1.044211291249021</v>
+        <v>1.070989191533342</v>
       </c>
       <c r="E19">
-        <v>1.030920102827987</v>
+        <v>1.073018071746104</v>
       </c>
       <c r="F19">
-        <v>1.042884143164135</v>
+        <v>1.082609299536611</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053896829613577</v>
+        <v>1.054108636219688</v>
       </c>
       <c r="J19">
-        <v>1.042453982176487</v>
+        <v>1.074605655935321</v>
       </c>
       <c r="K19">
-        <v>1.057247462365425</v>
+        <v>1.074183330496574</v>
       </c>
       <c r="L19">
-        <v>1.044163837250839</v>
+        <v>1.076205766808162</v>
       </c>
       <c r="M19">
-        <v>1.055940736273566</v>
+        <v>1.085766889271885</v>
       </c>
       <c r="N19">
-        <v>1.043934386402321</v>
+        <v>1.076131719225741</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.013500612592293</v>
+        <v>1.06825846600742</v>
       </c>
       <c r="D20">
-        <v>1.042456695325735</v>
+        <v>1.07066385873569</v>
       </c>
       <c r="E20">
-        <v>1.028750176152428</v>
+        <v>1.072603572890849</v>
       </c>
       <c r="F20">
-        <v>1.040727156826567</v>
+        <v>1.082196447763301</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052995866923164</v>
+        <v>1.053969701257528</v>
       </c>
       <c r="J20">
-        <v>1.04052084814669</v>
+        <v>1.074244977043175</v>
       </c>
       <c r="K20">
-        <v>1.055791932042469</v>
+        <v>1.073920602578309</v>
       </c>
       <c r="L20">
-        <v>1.042305649377065</v>
+        <v>1.075854025520272</v>
       </c>
       <c r="M20">
-        <v>1.054089774114367</v>
+        <v>1.085416149943522</v>
       </c>
       <c r="N20">
-        <v>1.041998507100468</v>
+        <v>1.075770528128198</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.004767840065498</v>
+        <v>1.066698757167396</v>
       </c>
       <c r="D21">
-        <v>1.036614811925414</v>
+        <v>1.069605556393822</v>
       </c>
       <c r="E21">
-        <v>1.021521879458822</v>
+        <v>1.071255646809999</v>
       </c>
       <c r="F21">
-        <v>1.033544968438603</v>
+        <v>1.080854000393603</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049978212256411</v>
+        <v>1.053515974158699</v>
       </c>
       <c r="J21">
-        <v>1.034067563580212</v>
+        <v>1.073070949103408</v>
       </c>
       <c r="K21">
-        <v>1.050934193658825</v>
+        <v>1.073064959192375</v>
       </c>
       <c r="L21">
-        <v>1.036106671415164</v>
+        <v>1.074709336169913</v>
       </c>
       <c r="M21">
-        <v>1.047917520673346</v>
+        <v>1.084274835692193</v>
       </c>
       <c r="N21">
-        <v>1.035536058129703</v>
+        <v>1.074594832934094</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9990918206483274</v>
+        <v>1.065717484164404</v>
       </c>
       <c r="D22">
-        <v>1.032829285505826</v>
+        <v>1.068939680803644</v>
       </c>
       <c r="E22">
-        <v>1.016834532183537</v>
+        <v>1.070407868598198</v>
       </c>
       <c r="F22">
-        <v>1.028890043177843</v>
+        <v>1.080009763431424</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048008813747001</v>
+        <v>1.053229131144549</v>
       </c>
       <c r="J22">
-        <v>1.029871926307045</v>
+        <v>1.072331682245863</v>
       </c>
       <c r="K22">
-        <v>1.047777284492574</v>
+        <v>1.072525831783419</v>
       </c>
       <c r="L22">
-        <v>1.032079711356647</v>
+        <v>1.07398873325315</v>
       </c>
       <c r="M22">
-        <v>1.043910115485807</v>
+        <v>1.083556446425404</v>
       </c>
       <c r="N22">
-        <v>1.031334462570362</v>
+        <v>1.073854516232815</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.002119239519254</v>
+        <v>1.066237736036318</v>
       </c>
       <c r="D23">
-        <v>1.034847212151903</v>
+        <v>1.069292719985474</v>
       </c>
       <c r="E23">
-        <v>1.019333553490863</v>
+        <v>1.070857319730227</v>
       </c>
       <c r="F23">
-        <v>1.031371528384849</v>
+        <v>1.080457328022731</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049059949092568</v>
+        <v>1.053381340960467</v>
       </c>
       <c r="J23">
-        <v>1.032109831860232</v>
+        <v>1.072723687732664</v>
       </c>
       <c r="K23">
-        <v>1.049460984336648</v>
+        <v>1.07281174303837</v>
       </c>
       <c r="L23">
-        <v>1.03422732256419</v>
+        <v>1.074370823890319</v>
       </c>
       <c r="M23">
-        <v>1.046047080486156</v>
+        <v>1.083937354790768</v>
       </c>
       <c r="N23">
-        <v>1.033575546206126</v>
+        <v>1.074247078412371</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.013644063804724</v>
+        <v>1.06828460452424</v>
       </c>
       <c r="D24">
-        <v>1.04255283127934</v>
+        <v>1.070681593316924</v>
       </c>
       <c r="E24">
-        <v>1.028869080183424</v>
+        <v>1.072626166462229</v>
       </c>
       <c r="F24">
-        <v>1.040845341113721</v>
+        <v>1.08221895109725</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053045297731335</v>
+        <v>1.053977281580545</v>
       </c>
       <c r="J24">
-        <v>1.04062682737815</v>
+        <v>1.074264641208806</v>
       </c>
       <c r="K24">
-        <v>1.055871724538071</v>
+        <v>1.073934928177073</v>
       </c>
       <c r="L24">
-        <v>1.042407504986031</v>
+        <v>1.075873201483804</v>
       </c>
       <c r="M24">
-        <v>1.05419122434256</v>
+        <v>1.085435270855204</v>
       </c>
       <c r="N24">
-        <v>1.042104636834592</v>
+        <v>1.075790220219199</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.026291450744482</v>
+        <v>1.070657324060693</v>
       </c>
       <c r="D25">
-        <v>1.051049345790726</v>
+        <v>1.072291271914288</v>
       </c>
       <c r="E25">
-        <v>1.039373108966382</v>
+        <v>1.074677677947614</v>
       </c>
       <c r="F25">
-        <v>1.051290606585722</v>
+        <v>1.084262489978139</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057382615559037</v>
+        <v>1.054662054692564</v>
       </c>
       <c r="J25">
-        <v>1.049965280627967</v>
+        <v>1.076048106336629</v>
       </c>
       <c r="K25">
-        <v>1.062903696995021</v>
+        <v>1.075233369065401</v>
       </c>
       <c r="L25">
-        <v>1.051389477432636</v>
+        <v>1.077612837429947</v>
       </c>
       <c r="M25">
-        <v>1.063141657894068</v>
+        <v>1.087170118993811</v>
       </c>
       <c r="N25">
-        <v>1.05145635175916</v>
+        <v>1.07757621807207</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.072547900429899</v>
+        <v>1.035869851284705</v>
       </c>
       <c r="D2">
-        <v>1.073573566595749</v>
+        <v>1.057509520894474</v>
       </c>
       <c r="E2">
-        <v>1.076313147356533</v>
+        <v>1.047355333165704</v>
       </c>
       <c r="F2">
-        <v>1.085891919818932</v>
+        <v>1.059234387002371</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055202800220539</v>
+        <v>1.060635466941677</v>
       </c>
       <c r="J2">
-        <v>1.077466893430117</v>
+        <v>1.057028187251951</v>
       </c>
       <c r="K2">
-        <v>1.076265068450713</v>
+        <v>1.068221840359099</v>
       </c>
       <c r="L2">
-        <v>1.078997408825591</v>
+        <v>1.058192119543742</v>
       </c>
       <c r="M2">
-        <v>1.088551175733921</v>
+        <v>1.069925857994372</v>
       </c>
       <c r="N2">
-        <v>1.078997020005968</v>
+        <v>1.058529288520677</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.073919608752115</v>
+        <v>1.04256215855268</v>
       </c>
       <c r="D3">
-        <v>1.074503739208428</v>
+        <v>1.062034892990609</v>
       </c>
       <c r="E3">
-        <v>1.07750022718533</v>
+        <v>1.052946074499395</v>
       </c>
       <c r="F3">
-        <v>1.087074793978532</v>
+        <v>1.064801298746446</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05559230270504</v>
+        <v>1.062888349171018</v>
       </c>
       <c r="J3">
-        <v>1.078494969104629</v>
+        <v>1.061956150160798</v>
       </c>
       <c r="K3">
-        <v>1.077011923151688</v>
+        <v>1.07193109637065</v>
       </c>
       <c r="L3">
-        <v>1.080001065207994</v>
+        <v>1.062943520158648</v>
       </c>
       <c r="M3">
-        <v>1.089552451524885</v>
+        <v>1.074667107959482</v>
       </c>
       <c r="N3">
-        <v>1.080026555665859</v>
+        <v>1.063464249702099</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.074806752152627</v>
+        <v>1.046780663622035</v>
       </c>
       <c r="D4">
-        <v>1.075105222314382</v>
+        <v>1.06489201778855</v>
       </c>
       <c r="E4">
-        <v>1.078268172485991</v>
+        <v>1.056475942037052</v>
       </c>
       <c r="F4">
-        <v>1.08784009917592</v>
+        <v>1.068317408450027</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055842896935975</v>
+        <v>1.064298862988107</v>
       </c>
       <c r="J4">
-        <v>1.079159254354905</v>
+        <v>1.065058960566609</v>
       </c>
       <c r="K4">
-        <v>1.077494156752617</v>
+        <v>1.074265598160499</v>
       </c>
       <c r="L4">
-        <v>1.080649743858838</v>
+        <v>1.065937380520967</v>
       </c>
       <c r="M4">
-        <v>1.090199667415747</v>
+        <v>1.077655713397395</v>
       </c>
       <c r="N4">
-        <v>1.080691784277386</v>
+        <v>1.066571466454584</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.075179604664979</v>
+        <v>1.048528650400311</v>
       </c>
       <c r="D5">
-        <v>1.075357991004961</v>
+        <v>1.06607687135343</v>
       </c>
       <c r="E5">
-        <v>1.078590977126341</v>
+        <v>1.057939879975672</v>
       </c>
       <c r="F5">
-        <v>1.088161813094164</v>
+        <v>1.069775929697852</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055947902905047</v>
+        <v>1.06488096486253</v>
       </c>
       <c r="J5">
-        <v>1.079438295212492</v>
+        <v>1.066343742466065</v>
       </c>
       <c r="K5">
-        <v>1.077696642095048</v>
+        <v>1.075231964531678</v>
       </c>
       <c r="L5">
-        <v>1.080922269930159</v>
+        <v>1.067177567546181</v>
       </c>
       <c r="M5">
-        <v>1.090471596887072</v>
+        <v>1.078893980653225</v>
       </c>
       <c r="N5">
-        <v>1.080971221404997</v>
+        <v>1.067858072891704</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.075242202332827</v>
+        <v>1.048820687658295</v>
       </c>
       <c r="D6">
-        <v>1.075400426453796</v>
+        <v>1.066274879259797</v>
       </c>
       <c r="E6">
-        <v>1.07864517519157</v>
+        <v>1.058184534987989</v>
       </c>
       <c r="F6">
-        <v>1.088215829138977</v>
+        <v>1.070019695908404</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055965513731415</v>
+        <v>1.064978076493518</v>
       </c>
       <c r="J6">
-        <v>1.079485134295742</v>
+        <v>1.06655833710421</v>
       </c>
       <c r="K6">
-        <v>1.077730625905138</v>
+        <v>1.07539335689412</v>
       </c>
       <c r="L6">
-        <v>1.0809680178545</v>
+        <v>1.067384743656404</v>
       </c>
       <c r="M6">
-        <v>1.090517245708292</v>
+        <v>1.079100850709637</v>
       </c>
       <c r="N6">
-        <v>1.081018127005118</v>
+        <v>1.068072972278849</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.074811734624664</v>
+        <v>1.046804118735389</v>
       </c>
       <c r="D7">
-        <v>1.075108600193112</v>
+        <v>1.064907912895295</v>
       </c>
       <c r="E7">
-        <v>1.078272485970033</v>
+        <v>1.056495580657587</v>
       </c>
       <c r="F7">
-        <v>1.087844398010666</v>
+        <v>1.068336973288533</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055844301380863</v>
+        <v>1.064306683253023</v>
       </c>
       <c r="J7">
-        <v>1.079162983792281</v>
+        <v>1.065076203875509</v>
       </c>
       <c r="K7">
-        <v>1.077496863335424</v>
+        <v>1.07427856912967</v>
       </c>
       <c r="L7">
-        <v>1.08065338606404</v>
+        <v>1.065954023282038</v>
       </c>
       <c r="M7">
-        <v>1.090203301577373</v>
+        <v>1.077672329400654</v>
       </c>
       <c r="N7">
-        <v>1.080695519010991</v>
+        <v>1.06658873425096</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.073011569716424</v>
+        <v>1.038155527883343</v>
       </c>
       <c r="D8">
-        <v>1.073888006455632</v>
+        <v>1.059054072586924</v>
       </c>
       <c r="E8">
-        <v>1.076714364086426</v>
+        <v>1.049263525060756</v>
       </c>
       <c r="F8">
-        <v>1.086291698236441</v>
+        <v>1.061134162225385</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055334733081303</v>
+        <v>1.061406893848267</v>
       </c>
       <c r="J8">
-        <v>1.077814534248631</v>
+        <v>1.058711983384195</v>
       </c>
       <c r="K8">
-        <v>1.076517685785305</v>
+        <v>1.069489399785866</v>
       </c>
       <c r="L8">
-        <v>1.079336756620368</v>
+        <v>1.059815110774031</v>
       </c>
       <c r="M8">
-        <v>1.088889702774091</v>
+        <v>1.071545131106749</v>
       </c>
       <c r="N8">
-        <v>1.079345154514319</v>
+        <v>1.060215475836562</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.069835889049304</v>
+        <v>1.021994807877194</v>
       </c>
       <c r="D9">
-        <v>1.071734043266825</v>
+        <v>1.048158387268566</v>
       </c>
       <c r="E9">
-        <v>1.073967314174465</v>
+        <v>1.035800021063703</v>
       </c>
       <c r="F9">
-        <v>1.083554837173796</v>
+        <v>1.047736448937318</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054425741151816</v>
+        <v>1.055914002641304</v>
       </c>
       <c r="J9">
-        <v>1.075431021989251</v>
+        <v>1.046794084714751</v>
       </c>
       <c r="K9">
-        <v>1.074784295101359</v>
+        <v>1.060515626222647</v>
       </c>
       <c r="L9">
-        <v>1.077010816665652</v>
+        <v>1.048337793794913</v>
       </c>
       <c r="M9">
-        <v>1.086569708659989</v>
+        <v>1.060099762698147</v>
       </c>
       <c r="N9">
-        <v>1.076958257394138</v>
+        <v>1.048280652384006</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.067716145875075</v>
+        <v>1.010503098477831</v>
       </c>
       <c r="D10">
-        <v>1.070295894530618</v>
+        <v>1.040449124726777</v>
       </c>
       <c r="E10">
-        <v>1.072134834565536</v>
+        <v>1.026266818649189</v>
       </c>
       <c r="F10">
-        <v>1.081729593441593</v>
+        <v>1.038259115899112</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053812249059347</v>
+        <v>1.051961899566504</v>
       </c>
       <c r="J10">
-        <v>1.073836904648845</v>
+        <v>1.038306109499944</v>
       </c>
       <c r="K10">
-        <v>1.073623272626794</v>
+        <v>1.054124543769605</v>
       </c>
       <c r="L10">
-        <v>1.075456108270368</v>
+        <v>1.040177478036298</v>
       </c>
       <c r="M10">
-        <v>1.085019386165857</v>
+        <v>1.051970320932222</v>
       </c>
       <c r="N10">
-        <v>1.075361876224261</v>
+        <v>1.039780623270809</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.066797600057536</v>
+        <v>1.005331600551503</v>
       </c>
       <c r="D11">
-        <v>1.069672627294882</v>
+        <v>1.036991307537812</v>
       </c>
       <c r="E11">
-        <v>1.071341053735281</v>
+        <v>1.021987909816868</v>
       </c>
       <c r="F11">
-        <v>1.080939054639783</v>
+        <v>1.034007884882793</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053544808974473</v>
+        <v>1.050173496296692</v>
       </c>
       <c r="J11">
-        <v>1.073145387808049</v>
+        <v>1.0344842485381</v>
       </c>
       <c r="K11">
-        <v>1.073119230913392</v>
+        <v>1.051247785609855</v>
       </c>
       <c r="L11">
-        <v>1.074781903616518</v>
+        <v>1.03650674684425</v>
       </c>
       <c r="M11">
-        <v>1.084347184009574</v>
+        <v>1.048315748453984</v>
       </c>
       <c r="N11">
-        <v>1.074669377350233</v>
+        <v>1.035953334828026</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.066456304099269</v>
+        <v>1.003378877733363</v>
       </c>
       <c r="D12">
-        <v>1.069441035457459</v>
+        <v>1.035687607929602</v>
       </c>
       <c r="E12">
-        <v>1.07104615942919</v>
+        <v>1.020374058864632</v>
       </c>
       <c r="F12">
-        <v>1.080645381231323</v>
+        <v>1.032404901386097</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053445199118291</v>
+        <v>1.049496824474564</v>
       </c>
       <c r="J12">
-        <v>1.072888336266364</v>
+        <v>1.033040922608687</v>
       </c>
       <c r="K12">
-        <v>1.072931808679845</v>
+        <v>1.050161604952721</v>
       </c>
       <c r="L12">
-        <v>1.074531320173284</v>
+        <v>1.035121063760938</v>
       </c>
       <c r="M12">
-        <v>1.084097360190085</v>
+        <v>1.046936537834894</v>
       </c>
       <c r="N12">
-        <v>1.074411960765874</v>
+        <v>1.034507959210241</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.066529518162168</v>
+        <v>1.0037992242075</v>
       </c>
       <c r="D13">
-        <v>1.069490716458047</v>
+        <v>1.035968152818414</v>
       </c>
       <c r="E13">
-        <v>1.071109417512687</v>
+        <v>1.020721373736746</v>
       </c>
       <c r="F13">
-        <v>1.08070837666906</v>
+        <v>1.032749857501718</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053466578039336</v>
+        <v>1.049642546726656</v>
       </c>
       <c r="J13">
-        <v>1.072943483405209</v>
+        <v>1.033351623540601</v>
       </c>
       <c r="K13">
-        <v>1.072972020403894</v>
+        <v>1.050395412459319</v>
       </c>
       <c r="L13">
-        <v>1.074585078176885</v>
+        <v>1.035419329909009</v>
       </c>
       <c r="M13">
-        <v>1.084150954532077</v>
+        <v>1.047233393434574</v>
       </c>
       <c r="N13">
-        <v>1.074467186219982</v>
+        <v>1.034819101373116</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.06676939063908</v>
+        <v>1.005170851520054</v>
       </c>
       <c r="D14">
-        <v>1.06965348553641</v>
+        <v>1.036883945505399</v>
       </c>
       <c r="E14">
-        <v>1.071316678691683</v>
+        <v>1.021855018694217</v>
       </c>
       <c r="F14">
-        <v>1.080914780174226</v>
+        <v>1.033875879705638</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053536580721737</v>
+        <v>1.050117819812357</v>
       </c>
       <c r="J14">
-        <v>1.073124143769679</v>
+        <v>1.034365437091214</v>
       </c>
       <c r="K14">
-        <v>1.07310374259629</v>
+        <v>1.051158368453722</v>
       </c>
       <c r="L14">
-        <v>1.074761193464542</v>
+        <v>1.036392668716726</v>
       </c>
       <c r="M14">
-        <v>1.084326536324278</v>
+        <v>1.048202195426153</v>
       </c>
       <c r="N14">
-        <v>1.074648103142892</v>
+        <v>1.035834354655258</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.06691716965573</v>
+        <v>1.006011665745515</v>
       </c>
       <c r="D15">
-        <v>1.069753761939496</v>
+        <v>1.037445594223442</v>
       </c>
       <c r="E15">
-        <v>1.071444372595162</v>
+        <v>1.022550194911332</v>
       </c>
       <c r="F15">
-        <v>1.081041947853991</v>
+        <v>1.034566439057717</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053579675778917</v>
+        <v>1.050408985720884</v>
       </c>
       <c r="J15">
-        <v>1.073235429128711</v>
+        <v>1.034986884283997</v>
       </c>
       <c r="K15">
-        <v>1.073184874606257</v>
+        <v>1.051626077609363</v>
       </c>
       <c r="L15">
-        <v>1.074869683441948</v>
+        <v>1.036989381436635</v>
       </c>
       <c r="M15">
-        <v>1.084434699700371</v>
+        <v>1.048796176842821</v>
       </c>
       <c r="N15">
-        <v>1.074759546539898</v>
+        <v>1.036456684374335</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.067777091959183</v>
+        <v>1.010841993537019</v>
       </c>
       <c r="D16">
-        <v>1.070337247224304</v>
+        <v>1.040675976781596</v>
       </c>
       <c r="E16">
-        <v>1.072187508507799</v>
+        <v>1.026547466274983</v>
       </c>
       <c r="F16">
-        <v>1.081782054540908</v>
+        <v>1.038538005273893</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053829960279804</v>
+        <v>1.052078899409715</v>
       </c>
       <c r="J16">
-        <v>1.07388277167218</v>
+        <v>1.0385565255755</v>
       </c>
       <c r="K16">
-        <v>1.073656696443433</v>
+        <v>1.054313061352637</v>
       </c>
       <c r="L16">
-        <v>1.075500831592229</v>
+        <v>1.040418068685554</v>
       </c>
       <c r="M16">
-        <v>1.08506397879009</v>
+        <v>1.052209902186574</v>
       </c>
       <c r="N16">
-        <v>1.07540780838403</v>
+        <v>1.040031394965916</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.068316312443149</v>
+        <v>1.013817955596661</v>
       </c>
       <c r="D17">
-        <v>1.070703106600565</v>
+        <v>1.042669374744997</v>
       </c>
       <c r="E17">
-        <v>1.072653574292452</v>
+        <v>1.029013223011322</v>
       </c>
       <c r="F17">
-        <v>1.082246249532959</v>
+        <v>1.040988613085706</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053986476009724</v>
+        <v>1.053105211376564</v>
       </c>
       <c r="J17">
-        <v>1.074288494781322</v>
+        <v>1.040755294148794</v>
       </c>
       <c r="K17">
-        <v>1.0739523055498</v>
+        <v>1.055968448610594</v>
       </c>
       <c r="L17">
-        <v>1.075896462986653</v>
+        <v>1.042530975459145</v>
       </c>
       <c r="M17">
-        <v>1.085458465643219</v>
+        <v>1.054314204859033</v>
       </c>
       <c r="N17">
-        <v>1.075814107666525</v>
+        <v>1.042233286042786</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.068630765033047</v>
+        <v>1.015535096988901</v>
       </c>
       <c r="D18">
-        <v>1.070916454256206</v>
+        <v>1.043820642207646</v>
       </c>
       <c r="E18">
-        <v>1.072925393344529</v>
+        <v>1.030437021494363</v>
       </c>
       <c r="F18">
-        <v>1.082516987864468</v>
+        <v>1.042403907141626</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054077595976145</v>
+        <v>1.053696458965439</v>
       </c>
       <c r="J18">
-        <v>1.074525025469778</v>
+        <v>1.042023786775575</v>
       </c>
       <c r="K18">
-        <v>1.074124602932176</v>
+        <v>1.056923541481789</v>
       </c>
       <c r="L18">
-        <v>1.076127131239676</v>
+        <v>1.043750270375836</v>
       </c>
       <c r="M18">
-        <v>1.085688476260093</v>
+        <v>1.055528746555489</v>
       </c>
       <c r="N18">
-        <v>1.076050974255688</v>
+        <v>1.043503580074596</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.068737974250115</v>
+        <v>1.016117497603932</v>
       </c>
       <c r="D19">
-        <v>1.070989191533342</v>
+        <v>1.044211291249021</v>
       </c>
       <c r="E19">
-        <v>1.073018071746104</v>
+        <v>1.030920102827987</v>
       </c>
       <c r="F19">
-        <v>1.082609299536611</v>
+        <v>1.042884143164136</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054108636219688</v>
+        <v>1.053896829613577</v>
       </c>
       <c r="J19">
-        <v>1.074605655935321</v>
+        <v>1.042453982176487</v>
       </c>
       <c r="K19">
-        <v>1.074183330496574</v>
+        <v>1.057247462365425</v>
       </c>
       <c r="L19">
-        <v>1.076205766808162</v>
+        <v>1.044163837250839</v>
       </c>
       <c r="M19">
-        <v>1.085766889271885</v>
+        <v>1.055940736273566</v>
       </c>
       <c r="N19">
-        <v>1.076131719225741</v>
+        <v>1.043934386402321</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.06825846600742</v>
+        <v>1.013500612592292</v>
       </c>
       <c r="D20">
-        <v>1.07066385873569</v>
+        <v>1.042456695325735</v>
       </c>
       <c r="E20">
-        <v>1.072603572890849</v>
+        <v>1.028750176152428</v>
       </c>
       <c r="F20">
-        <v>1.082196447763301</v>
+        <v>1.040727156826567</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053969701257528</v>
+        <v>1.052995866923164</v>
       </c>
       <c r="J20">
-        <v>1.074244977043175</v>
+        <v>1.04052084814669</v>
       </c>
       <c r="K20">
-        <v>1.073920602578309</v>
+        <v>1.055791932042469</v>
       </c>
       <c r="L20">
-        <v>1.075854025520272</v>
+        <v>1.042305649377065</v>
       </c>
       <c r="M20">
-        <v>1.085416149943522</v>
+        <v>1.054089774114366</v>
       </c>
       <c r="N20">
-        <v>1.075770528128198</v>
+        <v>1.041998507100468</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.066698757167396</v>
+        <v>1.004767840065497</v>
       </c>
       <c r="D21">
-        <v>1.069605556393822</v>
+        <v>1.036614811925413</v>
       </c>
       <c r="E21">
-        <v>1.071255646809999</v>
+        <v>1.021521879458821</v>
       </c>
       <c r="F21">
-        <v>1.080854000393603</v>
+        <v>1.033544968438602</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053515974158699</v>
+        <v>1.04997821225641</v>
       </c>
       <c r="J21">
-        <v>1.073070949103408</v>
+        <v>1.034067563580211</v>
       </c>
       <c r="K21">
-        <v>1.073064959192375</v>
+        <v>1.050934193658824</v>
       </c>
       <c r="L21">
-        <v>1.074709336169913</v>
+        <v>1.036106671415163</v>
       </c>
       <c r="M21">
-        <v>1.084274835692193</v>
+        <v>1.047917520673346</v>
       </c>
       <c r="N21">
-        <v>1.074594832934094</v>
+        <v>1.035536058129702</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.065717484164404</v>
+        <v>0.9990918206483262</v>
       </c>
       <c r="D22">
-        <v>1.068939680803644</v>
+        <v>1.032829285505825</v>
       </c>
       <c r="E22">
-        <v>1.070407868598198</v>
+        <v>1.016834532183536</v>
       </c>
       <c r="F22">
-        <v>1.080009763431424</v>
+        <v>1.028890043177842</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053229131144549</v>
+        <v>1.048008813747001</v>
       </c>
       <c r="J22">
-        <v>1.072331682245863</v>
+        <v>1.029871926307044</v>
       </c>
       <c r="K22">
-        <v>1.072525831783419</v>
+        <v>1.047777284492573</v>
       </c>
       <c r="L22">
-        <v>1.07398873325315</v>
+        <v>1.032079711356646</v>
       </c>
       <c r="M22">
-        <v>1.083556446425404</v>
+        <v>1.043910115485806</v>
       </c>
       <c r="N22">
-        <v>1.073854516232815</v>
+        <v>1.031334462570361</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.066237736036318</v>
+        <v>1.002119239519252</v>
       </c>
       <c r="D23">
-        <v>1.069292719985474</v>
+        <v>1.034847212151902</v>
       </c>
       <c r="E23">
-        <v>1.070857319730227</v>
+        <v>1.019333553490862</v>
       </c>
       <c r="F23">
-        <v>1.080457328022731</v>
+        <v>1.031371528384847</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053381340960467</v>
+        <v>1.049059949092567</v>
       </c>
       <c r="J23">
-        <v>1.072723687732664</v>
+        <v>1.032109831860231</v>
       </c>
       <c r="K23">
-        <v>1.07281174303837</v>
+        <v>1.049460984336647</v>
       </c>
       <c r="L23">
-        <v>1.074370823890319</v>
+        <v>1.034227322564188</v>
       </c>
       <c r="M23">
-        <v>1.083937354790768</v>
+        <v>1.046047080486155</v>
       </c>
       <c r="N23">
-        <v>1.074247078412371</v>
+        <v>1.033575546206125</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.06828460452424</v>
+        <v>1.013644063804723</v>
       </c>
       <c r="D24">
-        <v>1.070681593316924</v>
+        <v>1.042552831279339</v>
       </c>
       <c r="E24">
-        <v>1.072626166462229</v>
+        <v>1.028869080183423</v>
       </c>
       <c r="F24">
-        <v>1.08221895109725</v>
+        <v>1.040845341113721</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053977281580545</v>
+        <v>1.053045297731335</v>
       </c>
       <c r="J24">
-        <v>1.074264641208806</v>
+        <v>1.040626827378149</v>
       </c>
       <c r="K24">
-        <v>1.073934928177073</v>
+        <v>1.05587172453807</v>
       </c>
       <c r="L24">
-        <v>1.075873201483804</v>
+        <v>1.04240750498603</v>
       </c>
       <c r="M24">
-        <v>1.085435270855204</v>
+        <v>1.054191224342559</v>
       </c>
       <c r="N24">
-        <v>1.075790220219199</v>
+        <v>1.042104636834592</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.070657324060693</v>
+        <v>1.026291450744482</v>
       </c>
       <c r="D25">
-        <v>1.072291271914288</v>
+        <v>1.051049345790726</v>
       </c>
       <c r="E25">
-        <v>1.074677677947614</v>
+        <v>1.039373108966382</v>
       </c>
       <c r="F25">
-        <v>1.084262489978139</v>
+        <v>1.051290606585722</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054662054692564</v>
+        <v>1.057382615559037</v>
       </c>
       <c r="J25">
-        <v>1.076048106336629</v>
+        <v>1.049965280627966</v>
       </c>
       <c r="K25">
-        <v>1.075233369065401</v>
+        <v>1.062903696995021</v>
       </c>
       <c r="L25">
-        <v>1.077612837429947</v>
+        <v>1.051389477432636</v>
       </c>
       <c r="M25">
-        <v>1.087170118993811</v>
+        <v>1.063141657894068</v>
       </c>
       <c r="N25">
-        <v>1.07757621807207</v>
+        <v>1.051456351759159</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035869851284705</v>
+        <v>0.9610088971958727</v>
       </c>
       <c r="D2">
-        <v>1.057509520894474</v>
+        <v>1.040317194690245</v>
       </c>
       <c r="E2">
-        <v>1.047355333165704</v>
+        <v>0.9723779825969973</v>
       </c>
       <c r="F2">
-        <v>1.059234387002371</v>
+        <v>1.033852222469449</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060635466941677</v>
+        <v>1.052377108412812</v>
       </c>
       <c r="J2">
-        <v>1.057028187251951</v>
+        <v>0.9844218326593069</v>
       </c>
       <c r="K2">
-        <v>1.068221840359099</v>
+        <v>1.051242030853758</v>
       </c>
       <c r="L2">
-        <v>1.058192119543742</v>
+        <v>0.9842360376617799</v>
       </c>
       <c r="M2">
-        <v>1.069925857994372</v>
+        <v>1.044859258004682</v>
       </c>
       <c r="N2">
-        <v>1.058529288520677</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9978791813511384</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044075475477249</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047302785374025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04256215855268</v>
+        <v>0.9678423563930538</v>
       </c>
       <c r="D3">
-        <v>1.062034892990609</v>
+        <v>1.042386169836087</v>
       </c>
       <c r="E3">
-        <v>1.052946074499395</v>
+        <v>0.9779979602755222</v>
       </c>
       <c r="F3">
-        <v>1.064801298746446</v>
+        <v>1.036730860795863</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062888349171018</v>
+        <v>1.052869372510348</v>
       </c>
       <c r="J3">
-        <v>1.061956150160798</v>
+        <v>0.9892497862486369</v>
       </c>
       <c r="K3">
-        <v>1.07193109637065</v>
+        <v>1.052503982273891</v>
       </c>
       <c r="L3">
-        <v>1.062943520158648</v>
+        <v>0.9889203232022756</v>
       </c>
       <c r="M3">
-        <v>1.074667107959482</v>
+        <v>1.046914382054286</v>
       </c>
       <c r="N3">
-        <v>1.063464249702099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.9996119929310399</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04570195854682</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.048192438351045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046780663622035</v>
+        <v>0.9721413178497181</v>
       </c>
       <c r="D4">
-        <v>1.06489201778855</v>
+        <v>1.043701177146205</v>
       </c>
       <c r="E4">
-        <v>1.056475942037052</v>
+        <v>0.981540829147958</v>
       </c>
       <c r="F4">
-        <v>1.068317408450027</v>
+        <v>1.038556512940672</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064298862988107</v>
+        <v>1.053170988621297</v>
       </c>
       <c r="J4">
-        <v>1.065058960566609</v>
+        <v>0.9922855330736599</v>
       </c>
       <c r="K4">
-        <v>1.074265598160499</v>
+        <v>1.05329929575077</v>
       </c>
       <c r="L4">
-        <v>1.065937380520967</v>
+        <v>0.9918672667249018</v>
       </c>
       <c r="M4">
-        <v>1.077655713397395</v>
+        <v>1.048210841860609</v>
       </c>
       <c r="N4">
-        <v>1.066571466454584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.000699824693327</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046728011507326</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.048755664353541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048528650400311</v>
+        <v>0.9739221993480217</v>
       </c>
       <c r="D5">
-        <v>1.06607687135343</v>
+        <v>1.044253244885219</v>
       </c>
       <c r="E5">
-        <v>1.057939879975672</v>
+        <v>0.9830104028361291</v>
       </c>
       <c r="F5">
-        <v>1.069775929697852</v>
+        <v>1.039317865027753</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06488096486253</v>
+        <v>1.053295950025543</v>
       </c>
       <c r="J5">
-        <v>1.066343742466065</v>
+        <v>0.9935430487361866</v>
       </c>
       <c r="K5">
-        <v>1.075231964531678</v>
+        <v>1.05363340805033</v>
       </c>
       <c r="L5">
-        <v>1.067177567546181</v>
+        <v>0.9930884250734515</v>
       </c>
       <c r="M5">
-        <v>1.078893980653225</v>
+        <v>1.048750531785293</v>
       </c>
       <c r="N5">
-        <v>1.067858072891704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.001150397200037</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047155136124818</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.048998988531473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048820687658295</v>
+        <v>0.9742213312884115</v>
       </c>
       <c r="D6">
-        <v>1.066274879259797</v>
+        <v>1.044351405458374</v>
       </c>
       <c r="E6">
-        <v>1.058184534987989</v>
+        <v>0.9832576555863225</v>
       </c>
       <c r="F6">
-        <v>1.070019695908404</v>
+        <v>1.039448089969469</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064978076493518</v>
+        <v>1.053319302053823</v>
       </c>
       <c r="J6">
-        <v>1.06655833710421</v>
+        <v>0.9937546988541898</v>
       </c>
       <c r="K6">
-        <v>1.07539335689412</v>
+        <v>1.053694945247246</v>
       </c>
       <c r="L6">
-        <v>1.067384743656404</v>
+        <v>0.9932940675038803</v>
       </c>
       <c r="M6">
-        <v>1.079100850709637</v>
+        <v>1.04884355587412</v>
       </c>
       <c r="N6">
-        <v>1.068072972278849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.001226693055904</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047228757778775</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.049051139244864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046804118735389</v>
+        <v>0.9721698157101417</v>
       </c>
       <c r="D7">
-        <v>1.064907912895295</v>
+        <v>1.043724054076218</v>
       </c>
       <c r="E7">
-        <v>1.056495580657587</v>
+        <v>0.981565203793205</v>
       </c>
       <c r="F7">
-        <v>1.068336973288533</v>
+        <v>1.038574389279381</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064306683253023</v>
+        <v>1.053179637140105</v>
       </c>
       <c r="J7">
-        <v>1.065076203875509</v>
+        <v>0.9923068811393979</v>
       </c>
       <c r="K7">
-        <v>1.07427856912967</v>
+        <v>1.053319090074047</v>
       </c>
       <c r="L7">
-        <v>1.065954023282038</v>
+        <v>0.9918882550141542</v>
       </c>
       <c r="M7">
-        <v>1.077672329400654</v>
+        <v>1.048225668821677</v>
       </c>
       <c r="N7">
-        <v>1.06658873425096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.000708810316688</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046739745952548</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.048789531119085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038155527883343</v>
+        <v>0.9633505395286717</v>
       </c>
       <c r="D8">
-        <v>1.059054072586924</v>
+        <v>1.041040432684445</v>
       </c>
       <c r="E8">
-        <v>1.049263525060756</v>
+        <v>0.9743033448879919</v>
       </c>
       <c r="F8">
-        <v>1.061134162225385</v>
+        <v>1.034842182081861</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061406893848267</v>
+        <v>1.052555563061846</v>
       </c>
       <c r="J8">
-        <v>1.058711983384195</v>
+        <v>0.9860780458082706</v>
       </c>
       <c r="K8">
-        <v>1.069489399785866</v>
+        <v>1.05169176454791</v>
       </c>
       <c r="L8">
-        <v>1.059815110774031</v>
+        <v>0.9858430236325396</v>
       </c>
       <c r="M8">
-        <v>1.071545131106749</v>
+        <v>1.045570003603316</v>
       </c>
       <c r="N8">
-        <v>1.060215475836562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.9984757324692585</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.044637979975761</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.047643412582729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021994807877194</v>
+        <v>0.946783701306893</v>
       </c>
       <c r="D9">
-        <v>1.048158387268566</v>
+        <v>1.036096997231988</v>
       </c>
       <c r="E9">
-        <v>1.035800021063703</v>
+        <v>0.9607251838733942</v>
       </c>
       <c r="F9">
-        <v>1.047736448937318</v>
+        <v>1.027953746385037</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055914002641304</v>
+        <v>1.051311920923965</v>
       </c>
       <c r="J9">
-        <v>1.046794084714751</v>
+        <v>0.9743665155598367</v>
       </c>
       <c r="K9">
-        <v>1.060515626222647</v>
+        <v>1.04863036748966</v>
       </c>
       <c r="L9">
-        <v>1.048337793794913</v>
+        <v>0.9744893172522213</v>
       </c>
       <c r="M9">
-        <v>1.060099762698147</v>
+        <v>1.040609008546159</v>
       </c>
       <c r="N9">
-        <v>1.048280652384006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9942621021071323</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04071169680031</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.045475717974509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010503098477831</v>
+        <v>0.9349862701675412</v>
       </c>
       <c r="D10">
-        <v>1.040449124726777</v>
+        <v>1.032729355253385</v>
       </c>
       <c r="E10">
-        <v>1.026266818649189</v>
+        <v>0.9511165562762912</v>
       </c>
       <c r="F10">
-        <v>1.038259115899112</v>
+        <v>1.023243412631477</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051961899566504</v>
+        <v>1.050422690736087</v>
       </c>
       <c r="J10">
-        <v>1.038306109499944</v>
+        <v>0.9660398891223583</v>
       </c>
       <c r="K10">
-        <v>1.054124543769605</v>
+        <v>1.046531789457323</v>
       </c>
       <c r="L10">
-        <v>1.040177478036298</v>
+        <v>0.9664283079235775</v>
       </c>
       <c r="M10">
-        <v>1.051970320932222</v>
+        <v>1.037205309690021</v>
       </c>
       <c r="N10">
-        <v>1.039780623270809</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9912700215198943</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038069357032445</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.044008546125814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005331600551503</v>
+        <v>0.930083119423621</v>
       </c>
       <c r="D11">
-        <v>1.036991307537812</v>
+        <v>1.031762017648395</v>
       </c>
       <c r="E11">
-        <v>1.021987909816868</v>
+        <v>0.9472048040217992</v>
       </c>
       <c r="F11">
-        <v>1.034007884882793</v>
+        <v>1.021993112747153</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050173496296692</v>
+        <v>1.050278399175784</v>
       </c>
       <c r="J11">
-        <v>1.0344842485381</v>
+        <v>0.962684335772823</v>
       </c>
       <c r="K11">
-        <v>1.051247785609855</v>
+        <v>1.046108817082747</v>
       </c>
       <c r="L11">
-        <v>1.03650674684425</v>
+        <v>0.9631961112408511</v>
       </c>
       <c r="M11">
-        <v>1.048315748453984</v>
+        <v>1.036511857059552</v>
       </c>
       <c r="N11">
-        <v>1.035953334828026</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9901501604747116</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037957038283412</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.043741958992753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003378877733363</v>
+        <v>0.9283684169712262</v>
       </c>
       <c r="D12">
-        <v>1.035687607929602</v>
+        <v>1.0315729734512</v>
       </c>
       <c r="E12">
-        <v>1.020374058864632</v>
+        <v>0.9458695916002973</v>
       </c>
       <c r="F12">
-        <v>1.032404901386097</v>
+        <v>1.021810275847319</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049496824474564</v>
+        <v>1.050306478932802</v>
       </c>
       <c r="J12">
-        <v>1.033040922608687</v>
+        <v>0.9615473338127692</v>
       </c>
       <c r="K12">
-        <v>1.050161604952721</v>
+        <v>1.046119292872316</v>
       </c>
       <c r="L12">
-        <v>1.035121063760938</v>
+        <v>0.9621129030510854</v>
       </c>
       <c r="M12">
-        <v>1.046936537834894</v>
+        <v>1.036531223815887</v>
       </c>
       <c r="N12">
-        <v>1.034507959210241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9898150960997779</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03829890897948</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.043749365553318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0037992242075</v>
+        <v>0.929034394683845</v>
       </c>
       <c r="D13">
-        <v>1.035968152818414</v>
+        <v>1.03199474383238</v>
       </c>
       <c r="E13">
-        <v>1.020721373736746</v>
+        <v>0.9464576785042099</v>
       </c>
       <c r="F13">
-        <v>1.032749857501718</v>
+        <v>1.022465355501546</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049642546726656</v>
+        <v>1.050485308206224</v>
       </c>
       <c r="J13">
-        <v>1.033351623540601</v>
+        <v>0.962073479977996</v>
       </c>
       <c r="K13">
-        <v>1.050395412459319</v>
+        <v>1.046491549856664</v>
       </c>
       <c r="L13">
-        <v>1.035419329909009</v>
+        <v>0.9626401782531431</v>
       </c>
       <c r="M13">
-        <v>1.047233393434574</v>
+        <v>1.037131816940024</v>
       </c>
       <c r="N13">
-        <v>1.034819101373116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9900740256392317</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039050537628773</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.044010094516896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005170851520054</v>
+        <v>0.9305761957669393</v>
       </c>
       <c r="D14">
-        <v>1.036883945505399</v>
+        <v>1.032566792006964</v>
       </c>
       <c r="E14">
-        <v>1.021855018694217</v>
+        <v>0.9477383065565387</v>
       </c>
       <c r="F14">
-        <v>1.033875879705638</v>
+        <v>1.023301425898836</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050117819812357</v>
+        <v>1.050677863211284</v>
       </c>
       <c r="J14">
-        <v>1.034365437091214</v>
+        <v>0.9631924485948327</v>
       </c>
       <c r="K14">
-        <v>1.051158368453722</v>
+        <v>1.04691581328511</v>
       </c>
       <c r="L14">
-        <v>1.036392668716726</v>
+        <v>0.9637363848439443</v>
       </c>
       <c r="M14">
-        <v>1.048202195426153</v>
+        <v>1.037813306143057</v>
       </c>
       <c r="N14">
-        <v>1.035834354655258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9905235449199356</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039762576481467</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.044311463607581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006011665745515</v>
+        <v>0.9314679237630394</v>
       </c>
       <c r="D15">
-        <v>1.037445594223442</v>
+        <v>1.032849442936945</v>
       </c>
       <c r="E15">
-        <v>1.022550194911332</v>
+        <v>0.9484681529084994</v>
       </c>
       <c r="F15">
-        <v>1.034566439057717</v>
+        <v>1.023702138676559</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050408985720884</v>
+        <v>1.05076308747059</v>
       </c>
       <c r="J15">
-        <v>1.034986884283997</v>
+        <v>0.9638279607059133</v>
       </c>
       <c r="K15">
-        <v>1.051626077609363</v>
+        <v>1.047108722821945</v>
       </c>
       <c r="L15">
-        <v>1.036989381436635</v>
+        <v>0.9643542550692665</v>
       </c>
       <c r="M15">
-        <v>1.048796176842821</v>
+        <v>1.038120969980336</v>
       </c>
       <c r="N15">
-        <v>1.036456684374335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.990762673720391</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040043288824358</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.044453654313451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010841993537019</v>
+        <v>0.9364087787340255</v>
       </c>
       <c r="D16">
-        <v>1.040675976781596</v>
+        <v>1.034214092931954</v>
       </c>
       <c r="E16">
-        <v>1.026547466274983</v>
+        <v>0.9524700014403094</v>
       </c>
       <c r="F16">
-        <v>1.038538005273893</v>
+        <v>1.025621889566484</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052078899409715</v>
+        <v>1.05112991700043</v>
       </c>
       <c r="J16">
-        <v>1.0385565255755</v>
+        <v>0.967308413048758</v>
       </c>
       <c r="K16">
-        <v>1.054313061352637</v>
+        <v>1.047956961617869</v>
       </c>
       <c r="L16">
-        <v>1.040418068685554</v>
+        <v>0.9677145525507636</v>
       </c>
       <c r="M16">
-        <v>1.052209902186574</v>
+        <v>1.039508079656584</v>
       </c>
       <c r="N16">
-        <v>1.040031394965916</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9919986286868779</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04110094920352</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.045056506419459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013817955596661</v>
+        <v>0.9393764969799351</v>
       </c>
       <c r="D17">
-        <v>1.042669374744997</v>
+        <v>1.034960649696995</v>
       </c>
       <c r="E17">
-        <v>1.029013223011322</v>
+        <v>0.9548600224118671</v>
       </c>
       <c r="F17">
-        <v>1.040988613085706</v>
+        <v>1.026649153387913</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053105211376564</v>
+        <v>1.051307145980221</v>
       </c>
       <c r="J17">
-        <v>1.040755294148794</v>
+        <v>0.9693816337527827</v>
       </c>
       <c r="K17">
-        <v>1.055968448610594</v>
+        <v>1.048382255051786</v>
       </c>
       <c r="L17">
-        <v>1.042530975459145</v>
+        <v>0.9697086845694576</v>
       </c>
       <c r="M17">
-        <v>1.054314204859033</v>
+        <v>1.040205521547309</v>
       </c>
       <c r="N17">
-        <v>1.042233286042786</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9927072414300678</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041523240835676</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.045359757032243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015535096988901</v>
+        <v>0.9409589750225084</v>
       </c>
       <c r="D18">
-        <v>1.043820642207646</v>
+        <v>1.035216088790588</v>
       </c>
       <c r="E18">
-        <v>1.030437021494363</v>
+        <v>0.9561086168498401</v>
       </c>
       <c r="F18">
-        <v>1.042403907141626</v>
+        <v>1.026963172787222</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053696458965439</v>
+        <v>1.051323622791175</v>
       </c>
       <c r="J18">
-        <v>1.042023786775575</v>
+        <v>0.9704542581369413</v>
       </c>
       <c r="K18">
-        <v>1.056923541481789</v>
+        <v>1.048453426092993</v>
       </c>
       <c r="L18">
-        <v>1.043750270375836</v>
+        <v>0.9707305702382131</v>
       </c>
       <c r="M18">
-        <v>1.055528746555489</v>
+        <v>1.040332169918892</v>
       </c>
       <c r="N18">
-        <v>1.043503580074596</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9930335119908639</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041385793359438</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.045398580489143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016117497603932</v>
+        <v>0.9412844520047068</v>
       </c>
       <c r="D19">
-        <v>1.044211291249021</v>
+        <v>1.035039333988453</v>
       </c>
       <c r="E19">
-        <v>1.030920102827987</v>
+        <v>0.9563237454797583</v>
       </c>
       <c r="F19">
-        <v>1.042884143164136</v>
+        <v>1.026620997684135</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053896829613577</v>
+        <v>1.051197752080174</v>
       </c>
       <c r="J19">
-        <v>1.042453982176487</v>
+        <v>0.9706162375639538</v>
       </c>
       <c r="K19">
-        <v>1.057247462365425</v>
+        <v>1.048218010636509</v>
       </c>
       <c r="L19">
-        <v>1.044163837250839</v>
+        <v>0.9708726635127387</v>
       </c>
       <c r="M19">
-        <v>1.055940736273566</v>
+        <v>1.039933344814319</v>
       </c>
       <c r="N19">
-        <v>1.043934386402321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9930220166073196</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040745119529782</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.045238457173338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013500612592292</v>
+        <v>0.9380846840550188</v>
       </c>
       <c r="D20">
-        <v>1.042456695325735</v>
+        <v>1.03364189912388</v>
       </c>
       <c r="E20">
-        <v>1.028750176152428</v>
+        <v>0.9536389325986581</v>
       </c>
       <c r="F20">
-        <v>1.040727156826567</v>
+        <v>1.024488339735845</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052995866923164</v>
+        <v>1.050675604549824</v>
       </c>
       <c r="J20">
-        <v>1.04052084814669</v>
+        <v>0.9682301979255395</v>
       </c>
       <c r="K20">
-        <v>1.055791932042469</v>
+        <v>1.047117911786224</v>
       </c>
       <c r="L20">
-        <v>1.042305649377065</v>
+        <v>0.9685491007312386</v>
       </c>
       <c r="M20">
-        <v>1.054089774114366</v>
+        <v>1.03811383766702</v>
       </c>
       <c r="N20">
-        <v>1.041998507100468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9920619913681433</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038777807345393</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.044464537970737</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004767840065497</v>
+        <v>0.929002635434844</v>
       </c>
       <c r="D21">
-        <v>1.036614811925413</v>
+        <v>1.031004834973778</v>
       </c>
       <c r="E21">
-        <v>1.021521879458821</v>
+        <v>0.9462504994617185</v>
       </c>
       <c r="F21">
-        <v>1.033544968438602</v>
+        <v>1.020768878225639</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04997821225641</v>
+        <v>1.049932821039233</v>
       </c>
       <c r="J21">
-        <v>1.034067563580211</v>
+        <v>0.9618008596814075</v>
       </c>
       <c r="K21">
-        <v>1.050934193658824</v>
+        <v>1.045421693101377</v>
       </c>
       <c r="L21">
-        <v>1.036106671415163</v>
+        <v>0.9623271103783436</v>
       </c>
       <c r="M21">
-        <v>1.047917520673346</v>
+        <v>1.035367178829629</v>
       </c>
       <c r="N21">
-        <v>1.035536058129702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9897346182405051</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036563129262383</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.043268460051014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9990918206483262</v>
+        <v>0.9230988011556577</v>
       </c>
       <c r="D22">
-        <v>1.032829285505825</v>
+        <v>1.02932993536377</v>
       </c>
       <c r="E22">
-        <v>1.016834532183536</v>
+        <v>0.9414646928107421</v>
       </c>
       <c r="F22">
-        <v>1.028890043177842</v>
+        <v>1.018420286232567</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048008813747001</v>
+        <v>1.049453670011037</v>
       </c>
       <c r="J22">
-        <v>1.029871926307044</v>
+        <v>0.9576290007388297</v>
       </c>
       <c r="K22">
-        <v>1.047777284492573</v>
+        <v>1.044341923656835</v>
       </c>
       <c r="L22">
-        <v>1.032079711356646</v>
+        <v>0.958292321415248</v>
       </c>
       <c r="M22">
-        <v>1.043910115485806</v>
+        <v>1.033635457572942</v>
       </c>
       <c r="N22">
-        <v>1.031334462570361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9882268936315034</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03519257913246</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042491675999588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002119239519252</v>
+        <v>0.9262453578615949</v>
       </c>
       <c r="D23">
-        <v>1.034847212151902</v>
+        <v>1.030207867732681</v>
       </c>
       <c r="E23">
-        <v>1.019333553490862</v>
+        <v>0.9440128874866734</v>
       </c>
       <c r="F23">
-        <v>1.031371528384847</v>
+        <v>1.019664908246123</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049059949092567</v>
+        <v>1.049703809613329</v>
       </c>
       <c r="J23">
-        <v>1.032109831860231</v>
+        <v>0.9598510893183124</v>
       </c>
       <c r="K23">
-        <v>1.049460984336647</v>
+        <v>1.044904224761954</v>
       </c>
       <c r="L23">
-        <v>1.034227322564188</v>
+        <v>0.9604406824820879</v>
       </c>
       <c r="M23">
-        <v>1.046047080486155</v>
+        <v>1.034552580880433</v>
       </c>
       <c r="N23">
-        <v>1.033575546206125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9890284220596263</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035918425763415</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.04287971156625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013644063804723</v>
+        <v>0.9381839014823686</v>
       </c>
       <c r="D24">
-        <v>1.042552831279339</v>
+        <v>1.033612754386626</v>
       </c>
       <c r="E24">
-        <v>1.028869080183423</v>
+        <v>0.9537120485569508</v>
       </c>
       <c r="F24">
-        <v>1.040845341113721</v>
+        <v>1.024453905648561</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053045297731335</v>
+        <v>1.050651922026611</v>
       </c>
       <c r="J24">
-        <v>1.040626827378149</v>
+        <v>0.9682882571466538</v>
       </c>
       <c r="K24">
-        <v>1.05587172453807</v>
+        <v>1.047074230618833</v>
       </c>
       <c r="L24">
-        <v>1.04240750498603</v>
+        <v>0.9686039032501226</v>
       </c>
       <c r="M24">
-        <v>1.054191224342559</v>
+        <v>1.038064774156329</v>
       </c>
       <c r="N24">
-        <v>1.042104636834592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9920731519110986</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038698103640629</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.044406561137607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026291450744482</v>
+        <v>0.9512068246225327</v>
       </c>
       <c r="D25">
-        <v>1.051049345790726</v>
+        <v>1.037422494383903</v>
       </c>
       <c r="E25">
-        <v>1.039373108966382</v>
+        <v>0.9643436560367614</v>
       </c>
       <c r="F25">
-        <v>1.051290606585722</v>
+        <v>1.029783815974568</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057382615559037</v>
+        <v>1.051660383410496</v>
       </c>
       <c r="J25">
-        <v>1.049965280627966</v>
+        <v>0.9774957462305222</v>
       </c>
       <c r="K25">
-        <v>1.062903696995021</v>
+        <v>1.049466378567397</v>
       </c>
       <c r="L25">
-        <v>1.051389477432636</v>
+        <v>0.9775219164503849</v>
       </c>
       <c r="M25">
-        <v>1.063141657894068</v>
+        <v>1.041936723638459</v>
       </c>
       <c r="N25">
-        <v>1.051456351759159</v>
+        <v>0.9953916338510342</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041762493202282</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.046095067561467</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9610088971958727</v>
+        <v>0.9639010392906315</v>
       </c>
       <c r="D2">
-        <v>1.040317194690245</v>
+        <v>1.037779923679716</v>
       </c>
       <c r="E2">
-        <v>0.9723779825969973</v>
+        <v>0.9748676718407823</v>
       </c>
       <c r="F2">
-        <v>1.033852222469449</v>
+        <v>1.032841092403612</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052377108412812</v>
+        <v>1.051336769416769</v>
       </c>
       <c r="J2">
-        <v>0.9844218326593069</v>
+        <v>0.9872178113005594</v>
       </c>
       <c r="K2">
-        <v>1.051242030853758</v>
+        <v>1.048736867711206</v>
       </c>
       <c r="L2">
-        <v>0.9842360376617799</v>
+        <v>0.9866886108960655</v>
       </c>
       <c r="M2">
-        <v>1.044859258004682</v>
+        <v>1.043861100367047</v>
       </c>
       <c r="N2">
-        <v>0.9978791813511384</v>
+        <v>1.003108448353268</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044075475477249</v>
+        <v>1.043285504097097</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047302785374025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045540133796626</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025002507390881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9678423563930538</v>
+        <v>0.9704015662589376</v>
       </c>
       <c r="D3">
-        <v>1.042386169836087</v>
+        <v>1.039667205227942</v>
       </c>
       <c r="E3">
-        <v>0.9779979602755222</v>
+        <v>0.9802031406932133</v>
       </c>
       <c r="F3">
-        <v>1.036730860795863</v>
+        <v>1.035565773855875</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052869372510348</v>
+        <v>1.051748928540436</v>
       </c>
       <c r="J3">
-        <v>0.9892497862486369</v>
+        <v>0.9917329775227787</v>
       </c>
       <c r="K3">
-        <v>1.052503982273891</v>
+        <v>1.049816498916846</v>
       </c>
       <c r="L3">
-        <v>0.9889203232022756</v>
+        <v>0.9910957535439777</v>
       </c>
       <c r="M3">
-        <v>1.046914382054286</v>
+        <v>1.045762942536938</v>
       </c>
       <c r="N3">
-        <v>0.9996119929310399</v>
+        <v>1.004405176241951</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04570195854682</v>
+        <v>1.04479067731957</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048192438351045</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046300600237627</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02518977576166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9721413178497181</v>
+        <v>0.9744959677829398</v>
       </c>
       <c r="D4">
-        <v>1.043701177146205</v>
+        <v>1.040868104633354</v>
       </c>
       <c r="E4">
-        <v>0.981540829147958</v>
+        <v>0.9835708024844131</v>
       </c>
       <c r="F4">
-        <v>1.038556512940672</v>
+        <v>1.037295325812077</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053170988621297</v>
+        <v>1.052000141272221</v>
       </c>
       <c r="J4">
-        <v>0.9922855330736599</v>
+        <v>0.9945753609975374</v>
       </c>
       <c r="K4">
-        <v>1.05329929575077</v>
+        <v>1.050497092829398</v>
       </c>
       <c r="L4">
-        <v>0.9918672667249018</v>
+        <v>0.9938716429622461</v>
       </c>
       <c r="M4">
-        <v>1.048210841860609</v>
+        <v>1.046963538959536</v>
       </c>
       <c r="N4">
-        <v>1.000699824693327</v>
+        <v>1.005220152040073</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046728011507326</v>
+        <v>1.045740862662291</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.048755664353541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046782797167851</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025305075923475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9739221993480217</v>
+        <v>0.9761930480090621</v>
       </c>
       <c r="D5">
-        <v>1.044253244885219</v>
+        <v>1.041372808553229</v>
       </c>
       <c r="E5">
-        <v>0.9830104028361291</v>
+        <v>0.9849684990602092</v>
       </c>
       <c r="F5">
-        <v>1.039317865027753</v>
+        <v>1.038016969368607</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053295950025543</v>
+        <v>1.052104149815812</v>
       </c>
       <c r="J5">
-        <v>0.9935430487361866</v>
+        <v>0.9957533975499741</v>
       </c>
       <c r="K5">
-        <v>1.05363340805033</v>
+        <v>1.050783540373964</v>
       </c>
       <c r="L5">
-        <v>0.9930884250734515</v>
+        <v>0.9950225405745231</v>
       </c>
       <c r="M5">
-        <v>1.048750531785293</v>
+        <v>1.047463577185145</v>
       </c>
       <c r="N5">
-        <v>1.001150397200037</v>
+        <v>1.005557873737396</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047155136124818</v>
+        <v>1.046136606434561</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048998988531473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046993135842538</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025353488001704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9742213312884115</v>
+        <v>0.9764779996264622</v>
       </c>
       <c r="D6">
-        <v>1.044351405458374</v>
+        <v>1.041462838859952</v>
       </c>
       <c r="E6">
-        <v>0.9832576555863225</v>
+        <v>0.9852035646205543</v>
       </c>
       <c r="F6">
-        <v>1.039448089969469</v>
+        <v>1.038140453611424</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053319302053823</v>
+        <v>1.052123893592853</v>
       </c>
       <c r="J6">
-        <v>0.9937546988541898</v>
+        <v>0.995951578196611</v>
       </c>
       <c r="K6">
-        <v>1.053694945247246</v>
+        <v>1.050836896164878</v>
       </c>
       <c r="L6">
-        <v>0.9932940675038803</v>
+        <v>0.9952162627599995</v>
       </c>
       <c r="M6">
-        <v>1.04884355587412</v>
+        <v>1.047549868834352</v>
       </c>
       <c r="N6">
-        <v>1.001226693055904</v>
+        <v>1.005615028939346</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047228757778775</v>
+        <v>1.046204899957434</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049051139244864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047040376286989</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02536313877716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9721698157101417</v>
+        <v>0.974545334574217</v>
       </c>
       <c r="D7">
-        <v>1.043724054076218</v>
+        <v>1.040893154681367</v>
       </c>
       <c r="E7">
-        <v>0.981565203793205</v>
+        <v>0.9836146990275446</v>
       </c>
       <c r="F7">
-        <v>1.038574389279381</v>
+        <v>1.037319500069455</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053179637140105</v>
+        <v>1.052009971446128</v>
       </c>
       <c r="J7">
-        <v>0.9923068811393979</v>
+        <v>0.9946170347508336</v>
       </c>
       <c r="K7">
-        <v>1.053319090074047</v>
+        <v>1.050519024600217</v>
       </c>
       <c r="L7">
-        <v>0.9918882550141542</v>
+        <v>0.993911917956568</v>
       </c>
       <c r="M7">
-        <v>1.048225668821677</v>
+        <v>1.046984589222236</v>
       </c>
       <c r="N7">
-        <v>1.000708810316688</v>
+        <v>1.00526088983377</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046739745952548</v>
+        <v>1.045757522413665</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.048789531119085</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046820186558247</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025310949058068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9633505395286717</v>
+        <v>0.9661978902463599</v>
       </c>
       <c r="D8">
-        <v>1.041040432684445</v>
+        <v>1.038451240726335</v>
       </c>
       <c r="E8">
-        <v>0.9743033448879919</v>
+        <v>0.9767605162494556</v>
       </c>
       <c r="F8">
-        <v>1.034842182081861</v>
+        <v>1.033800758408145</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052555563061846</v>
+        <v>1.051493100582956</v>
       </c>
       <c r="J8">
-        <v>0.9860780458082706</v>
+        <v>0.98883421925751</v>
       </c>
       <c r="K8">
-        <v>1.05169176454791</v>
+        <v>1.049134386379831</v>
       </c>
       <c r="L8">
-        <v>0.9858430236325396</v>
+        <v>0.9882647627120628</v>
       </c>
       <c r="M8">
-        <v>1.045570003603316</v>
+        <v>1.044541543775295</v>
       </c>
       <c r="N8">
-        <v>0.9984757324692585</v>
+        <v>1.003659435149528</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044637979975761</v>
+        <v>1.043824027162718</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047643412582729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045846122871666</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025075267648457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.946783701306893</v>
+        <v>0.9504855673945538</v>
       </c>
       <c r="D9">
-        <v>1.036096997231988</v>
+        <v>1.033952387690933</v>
       </c>
       <c r="E9">
-        <v>0.9607251838733942</v>
+        <v>0.9639110456260295</v>
       </c>
       <c r="F9">
-        <v>1.027953746385037</v>
+        <v>1.027296064497624</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051311920923965</v>
+        <v>1.05044509400775</v>
       </c>
       <c r="J9">
-        <v>0.9743665155598367</v>
+        <v>0.9779167005266582</v>
       </c>
       <c r="K9">
-        <v>1.04863036748966</v>
+        <v>1.046517622599365</v>
       </c>
       <c r="L9">
-        <v>0.9744893172522213</v>
+        <v>0.9776180989701279</v>
       </c>
       <c r="M9">
-        <v>1.040609008546159</v>
+        <v>1.039961278589926</v>
       </c>
       <c r="N9">
-        <v>0.9942621021071323</v>
+        <v>1.00052781706122</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04071169680031</v>
+        <v>1.04019906193722</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045475717974509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043992514945897</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024603947747975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9349862701675412</v>
+        <v>0.9394418508781226</v>
       </c>
       <c r="D10">
-        <v>1.032729355253385</v>
+        <v>1.030913151623081</v>
       </c>
       <c r="E10">
-        <v>0.9511165562762912</v>
+        <v>0.9549505831156667</v>
       </c>
       <c r="F10">
-        <v>1.023243412631477</v>
+        <v>1.022898966492838</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050422690736087</v>
+        <v>1.049700770470371</v>
       </c>
       <c r="J10">
-        <v>0.9660398891223583</v>
+        <v>0.970282712498416</v>
       </c>
       <c r="K10">
-        <v>1.046531789457323</v>
+        <v>1.04474582435744</v>
       </c>
       <c r="L10">
-        <v>0.9664283079235775</v>
+        <v>0.9701838152849445</v>
       </c>
       <c r="M10">
-        <v>1.037205309690021</v>
+        <v>1.03686672569967</v>
       </c>
       <c r="N10">
-        <v>0.9912700215198943</v>
+        <v>0.9984631892643181</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038069357032445</v>
+        <v>1.03780140627468</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044008546125814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04275807080434</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024278011933928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.930083119423621</v>
+        <v>0.9350134035989616</v>
       </c>
       <c r="D11">
-        <v>1.031762017648395</v>
+        <v>1.030056510785781</v>
       </c>
       <c r="E11">
-        <v>0.9472048040217992</v>
+        <v>0.9514565993445767</v>
       </c>
       <c r="F11">
-        <v>1.021993112747153</v>
+        <v>1.021818663315529</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050278399175784</v>
+        <v>1.04960514229417</v>
       </c>
       <c r="J11">
-        <v>0.962684335772823</v>
+        <v>0.9673639672075341</v>
       </c>
       <c r="K11">
-        <v>1.046108817082747</v>
+        <v>1.044433024926302</v>
       </c>
       <c r="L11">
-        <v>0.9631961112408511</v>
+        <v>0.9673559553429342</v>
       </c>
       <c r="M11">
-        <v>1.036511857059552</v>
+        <v>1.036340516943822</v>
       </c>
       <c r="N11">
-        <v>0.9901501604747116</v>
+        <v>0.9979416911802915</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037957038283412</v>
+        <v>1.037821510302078</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043741958992753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042572602527677</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024260607866363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9283684169712262</v>
+        <v>0.9334806182419735</v>
       </c>
       <c r="D12">
-        <v>1.0315729734512</v>
+        <v>1.029888444231094</v>
       </c>
       <c r="E12">
-        <v>0.9458695916002973</v>
+        <v>0.9502804212654342</v>
       </c>
       <c r="F12">
-        <v>1.021810275847319</v>
+        <v>1.021697303709859</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050306478932802</v>
+        <v>1.049642784762879</v>
       </c>
       <c r="J12">
-        <v>0.9615473338127692</v>
+        <v>0.9663937057977526</v>
       </c>
       <c r="K12">
-        <v>1.046119292872316</v>
+        <v>1.044464588722731</v>
       </c>
       <c r="L12">
-        <v>0.9621129030510854</v>
+        <v>0.966426459344677</v>
       </c>
       <c r="M12">
-        <v>1.036531223815887</v>
+        <v>1.036420297851412</v>
       </c>
       <c r="N12">
-        <v>0.9898150960997779</v>
+        <v>0.9978297130164517</v>
       </c>
       <c r="O12">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P12">
-        <v>1.03829890897948</v>
+        <v>1.038211197602216</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043749365553318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042594918272175</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024291187286087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.929034394683845</v>
+        <v>0.9340669081634979</v>
       </c>
       <c r="D13">
-        <v>1.03199474383238</v>
+        <v>1.030254777022731</v>
       </c>
       <c r="E13">
-        <v>0.9464576785042099</v>
+        <v>0.9507943887939759</v>
       </c>
       <c r="F13">
-        <v>1.022465355501546</v>
+        <v>1.022316832362139</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050485308206224</v>
+        <v>1.04979779531815</v>
       </c>
       <c r="J13">
-        <v>0.962073479977996</v>
+        <v>0.9668457916107223</v>
       </c>
       <c r="K13">
-        <v>1.046491549856664</v>
+        <v>1.04478225662197</v>
       </c>
       <c r="L13">
-        <v>0.9626401782531431</v>
+        <v>0.9668817235470426</v>
       </c>
       <c r="M13">
-        <v>1.037131816940024</v>
+        <v>1.036985970553245</v>
       </c>
       <c r="N13">
-        <v>0.9900740256392317</v>
+        <v>0.9979837638254426</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039050537628773</v>
+        <v>1.038935242981704</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044010094516896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042816804510944</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024367854503769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9305761957669393</v>
+        <v>0.9354359195841919</v>
       </c>
       <c r="D14">
-        <v>1.032566792006964</v>
+        <v>1.030754645873341</v>
       </c>
       <c r="E14">
-        <v>0.9477383065565387</v>
+        <v>0.9519192320471931</v>
       </c>
       <c r="F14">
-        <v>1.023301425898836</v>
+        <v>1.02308518069657</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050677863211284</v>
+        <v>1.049959478029675</v>
       </c>
       <c r="J14">
-        <v>0.9631924485948327</v>
+        <v>0.9678050989804594</v>
       </c>
       <c r="K14">
-        <v>1.04691581328511</v>
+        <v>1.045135221293294</v>
       </c>
       <c r="L14">
-        <v>0.9637363848439443</v>
+        <v>0.9678268972021047</v>
       </c>
       <c r="M14">
-        <v>1.037813306143057</v>
+        <v>1.037600907640615</v>
       </c>
       <c r="N14">
-        <v>0.9905235449199356</v>
+        <v>0.9982134010083916</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039762576481467</v>
+        <v>1.039594693651666</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044311463607581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043067898923211</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024442435189987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9314679237630394</v>
+        <v>0.9362312078286837</v>
       </c>
       <c r="D15">
-        <v>1.032849442936945</v>
+        <v>1.031002946661239</v>
       </c>
       <c r="E15">
-        <v>0.9484681529084994</v>
+        <v>0.9525630314733228</v>
       </c>
       <c r="F15">
-        <v>1.023702138676559</v>
+        <v>1.023448856054213</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.05076308747059</v>
+        <v>1.050029820514734</v>
       </c>
       <c r="J15">
-        <v>0.9638279607059133</v>
+        <v>0.968351545331408</v>
       </c>
       <c r="K15">
-        <v>1.047108722821945</v>
+        <v>1.045294138866966</v>
       </c>
       <c r="L15">
-        <v>0.9643542550692665</v>
+        <v>0.968361367055447</v>
       </c>
       <c r="M15">
-        <v>1.038120969980336</v>
+        <v>1.037872157848372</v>
       </c>
       <c r="N15">
-        <v>0.990762673720391</v>
+        <v>0.9983315038656497</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040043288824358</v>
+        <v>1.039846629308805</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.044453654313451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043186628200166</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02447396324092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9364087787340255</v>
+        <v>0.9406839874128877</v>
       </c>
       <c r="D16">
-        <v>1.034214092931954</v>
+        <v>1.032209491454011</v>
       </c>
       <c r="E16">
-        <v>0.9524700014403094</v>
+        <v>0.95613450050371</v>
       </c>
       <c r="F16">
-        <v>1.025621889566484</v>
+        <v>1.025180365316569</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05112991700043</v>
+        <v>1.050326075376433</v>
       </c>
       <c r="J16">
-        <v>0.967308413048758</v>
+        <v>0.9713809734942859</v>
       </c>
       <c r="K16">
-        <v>1.047956961617869</v>
+        <v>1.045985522952237</v>
       </c>
       <c r="L16">
-        <v>0.9677145525507636</v>
+        <v>0.971304489888701</v>
       </c>
       <c r="M16">
-        <v>1.039508079656584</v>
+        <v>1.039074003928522</v>
       </c>
       <c r="N16">
-        <v>0.9919986286868779</v>
+        <v>0.9989619132226926</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04110094920352</v>
+        <v>1.040757848665676</v>
       </c>
       <c r="Q16">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R16">
-        <v>1.045056506419459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043678884032524</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024602365430778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9393764969799351</v>
+        <v>0.9434014956761567</v>
       </c>
       <c r="D17">
-        <v>1.034960649696995</v>
+        <v>1.032877362948703</v>
       </c>
       <c r="E17">
-        <v>0.9548600224118671</v>
+        <v>0.9583067460969344</v>
       </c>
       <c r="F17">
-        <v>1.026649153387913</v>
+        <v>1.026109830928732</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051307145980221</v>
+        <v>1.050467264180039</v>
       </c>
       <c r="J17">
-        <v>0.9693816337527827</v>
+        <v>0.9732229414966563</v>
       </c>
       <c r="K17">
-        <v>1.048382255051786</v>
+        <v>1.046332485365826</v>
       </c>
       <c r="L17">
-        <v>0.9697086845694576</v>
+        <v>0.9730875554268815</v>
       </c>
       <c r="M17">
-        <v>1.040205521547309</v>
+        <v>1.039675040660335</v>
       </c>
       <c r="N17">
-        <v>0.9927072414300678</v>
+        <v>0.9993611208504192</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041523240835676</v>
+        <v>1.041103898270178</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.045359757032243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043927003418845</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02466142729371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9409589750225084</v>
+        <v>0.9448725562383828</v>
       </c>
       <c r="D18">
-        <v>1.035216088790588</v>
+        <v>1.033111094555247</v>
       </c>
       <c r="E18">
-        <v>0.9561086168498401</v>
+        <v>0.959460680155652</v>
       </c>
       <c r="F18">
-        <v>1.026963172787222</v>
+        <v>1.026381668293499</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051323622791175</v>
+        <v>1.050472557905469</v>
       </c>
       <c r="J18">
-        <v>0.9704542581369413</v>
+        <v>0.9741931158605664</v>
       </c>
       <c r="K18">
-        <v>1.048453426092993</v>
+        <v>1.046381757108527</v>
       </c>
       <c r="L18">
-        <v>0.9707305702382131</v>
+        <v>0.9740178959775257</v>
       </c>
       <c r="M18">
-        <v>1.040332169918892</v>
+        <v>1.039760044719007</v>
       </c>
       <c r="N18">
-        <v>0.9930335119908639</v>
+        <v>0.9995518954006879</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041385793359438</v>
+        <v>1.040933436898549</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045398580489143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043949204701783</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024656324382049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9412844520047068</v>
+        <v>0.9451918626419369</v>
       </c>
       <c r="D19">
-        <v>1.035039333988453</v>
+        <v>1.032961723756136</v>
       </c>
       <c r="E19">
-        <v>0.9563237454797583</v>
+        <v>0.9596733614105725</v>
       </c>
       <c r="F19">
-        <v>1.026620997684135</v>
+        <v>1.026043031883178</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051197752080174</v>
+        <v>1.050357966281768</v>
       </c>
       <c r="J19">
-        <v>0.9706162375639538</v>
+        <v>0.9743504065462362</v>
       </c>
       <c r="K19">
-        <v>1.048218010636509</v>
+        <v>1.046173130463785</v>
       </c>
       <c r="L19">
-        <v>0.9708726635127387</v>
+        <v>0.974157978587622</v>
       </c>
       <c r="M19">
-        <v>1.039933344814319</v>
+        <v>1.039364659454396</v>
       </c>
       <c r="N19">
-        <v>0.9930220166073196</v>
+        <v>0.999533693128028</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040745119529782</v>
+        <v>1.040295335938408</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.045238457173338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.04380865008815</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024594054818816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9380846840550188</v>
+        <v>0.9422695227519363</v>
       </c>
       <c r="D20">
-        <v>1.03364189912388</v>
+        <v>1.031726308997373</v>
       </c>
       <c r="E20">
-        <v>0.9536389325986581</v>
+        <v>0.9572346605481785</v>
       </c>
       <c r="F20">
-        <v>1.024488339735845</v>
+        <v>1.024037105807312</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050675604549824</v>
+        <v>1.049908889305673</v>
       </c>
       <c r="J20">
-        <v>0.9682301979255395</v>
+        <v>0.9722227356541318</v>
       </c>
       <c r="K20">
-        <v>1.047117911786224</v>
+        <v>1.045233323007878</v>
       </c>
       <c r="L20">
-        <v>0.9685491007312386</v>
+        <v>0.9720736131769168</v>
       </c>
       <c r="M20">
-        <v>1.03811383766702</v>
+        <v>1.037670061717837</v>
       </c>
       <c r="N20">
-        <v>0.9920619913681433</v>
+        <v>0.9989152042096408</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038777807345393</v>
+        <v>1.038426604923554</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044464537970737</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043148451923921</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024371655109113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.929002635434844</v>
+        <v>0.934128226477229</v>
       </c>
       <c r="D21">
-        <v>1.031004834973778</v>
+        <v>1.029411240048328</v>
       </c>
       <c r="E21">
-        <v>0.9462504994617185</v>
+        <v>0.9506837095964045</v>
       </c>
       <c r="F21">
-        <v>1.020768878225639</v>
+        <v>1.020684776897623</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049932821039233</v>
+        <v>1.049312291231625</v>
       </c>
       <c r="J21">
-        <v>0.9618008596814075</v>
+        <v>0.9666637365706002</v>
       </c>
       <c r="K21">
-        <v>1.045421693101377</v>
+        <v>1.043856038871133</v>
       </c>
       <c r="L21">
-        <v>0.9623271103783436</v>
+        <v>0.9666637646630327</v>
       </c>
       <c r="M21">
-        <v>1.035367178829629</v>
+        <v>1.035284587865448</v>
       </c>
       <c r="N21">
-        <v>0.9897346182405051</v>
+        <v>0.9977722451243287</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036563129262383</v>
+        <v>1.036497763689199</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043268460051014</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.04217819277971</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024109250541284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9230988011556577</v>
+        <v>0.9288478159268101</v>
       </c>
       <c r="D22">
-        <v>1.02932993536377</v>
+        <v>1.027945914417101</v>
       </c>
       <c r="E22">
-        <v>0.9414646928107421</v>
+        <v>0.9464532786269358</v>
       </c>
       <c r="F22">
-        <v>1.018420286232567</v>
+        <v>1.0185801453455</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049453670011037</v>
+        <v>1.04892827616899</v>
       </c>
       <c r="J22">
-        <v>0.9576290007388297</v>
+        <v>0.9630629149607286</v>
       </c>
       <c r="K22">
-        <v>1.044341923656835</v>
+        <v>1.042983367671249</v>
       </c>
       <c r="L22">
-        <v>0.958292321415248</v>
+        <v>0.9631657570433895</v>
       </c>
       <c r="M22">
-        <v>1.033635457572942</v>
+        <v>1.033792298384887</v>
       </c>
       <c r="N22">
-        <v>0.9882268936315034</v>
+        <v>0.9970253452524195</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03519257913246</v>
+        <v>1.035316709031258</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042491675999588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041546525497616</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023941459546061</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9262453578615949</v>
+        <v>0.9316198913682344</v>
       </c>
       <c r="D23">
-        <v>1.030207867732681</v>
+        <v>1.028705051427466</v>
       </c>
       <c r="E23">
-        <v>0.9440128874866734</v>
+        <v>0.9486652756421169</v>
       </c>
       <c r="F23">
-        <v>1.019664908246123</v>
+        <v>1.019679388669703</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049703809613329</v>
+        <v>1.049124201339535</v>
       </c>
       <c r="J23">
-        <v>0.9598510893183124</v>
+        <v>0.9649412720046557</v>
       </c>
       <c r="K23">
-        <v>1.044904224761954</v>
+        <v>1.043428367598849</v>
       </c>
       <c r="L23">
-        <v>0.9604406824820879</v>
+        <v>0.9649889153978805</v>
       </c>
       <c r="M23">
-        <v>1.034552580880433</v>
+        <v>1.034566795003287</v>
       </c>
       <c r="N23">
-        <v>0.9890284220596263</v>
+        <v>0.9973661265856922</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035918425763415</v>
+        <v>1.035929675360641</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.04287971156625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041850681554871</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024025517357209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9381839014823686</v>
+        <v>0.9423638568246673</v>
       </c>
       <c r="D24">
-        <v>1.033612754386626</v>
+        <v>1.031700223648918</v>
       </c>
       <c r="E24">
-        <v>0.9537120485569508</v>
+        <v>0.9573038691895489</v>
       </c>
       <c r="F24">
-        <v>1.024453905648561</v>
+        <v>1.02400221327648</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050651922026611</v>
+        <v>1.049886868072947</v>
       </c>
       <c r="J24">
-        <v>0.9682882571466538</v>
+        <v>0.9722764669399346</v>
       </c>
       <c r="K24">
-        <v>1.047074230618833</v>
+        <v>1.045192614306125</v>
       </c>
       <c r="L24">
-        <v>0.9686039032501226</v>
+        <v>0.972124692655256</v>
       </c>
       <c r="M24">
-        <v>1.038064774156329</v>
+        <v>1.037620538431727</v>
       </c>
       <c r="N24">
-        <v>0.9920731519110986</v>
+        <v>0.998919200523413</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038698103640629</v>
+        <v>1.038346519881597</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044406561137607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043089893206286</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024357982269507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9512068246225327</v>
+        <v>0.954644867326999</v>
       </c>
       <c r="D25">
-        <v>1.037422494383903</v>
+        <v>1.035153558735122</v>
       </c>
       <c r="E25">
-        <v>0.9643436560367614</v>
+        <v>0.9673025137962119</v>
       </c>
       <c r="F25">
-        <v>1.029783815974568</v>
+        <v>1.029012809229318</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051660383410496</v>
+        <v>1.050738493043478</v>
       </c>
       <c r="J25">
-        <v>0.9774957462305222</v>
+        <v>0.9808013310317865</v>
       </c>
       <c r="K25">
-        <v>1.049466378567397</v>
+        <v>1.047229613944774</v>
       </c>
       <c r="L25">
-        <v>0.9775219164503849</v>
+        <v>0.9804305500391421</v>
       </c>
       <c r="M25">
-        <v>1.041936723638459</v>
+        <v>1.041176835075771</v>
       </c>
       <c r="N25">
-        <v>0.9953916338510342</v>
+        <v>1.001324699834608</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041762493202282</v>
+        <v>1.041161093154988</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.046095067561467</v>
+        <v>1.04452699675908</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024736702133829</v>
       </c>
     </row>
   </sheetData>
